--- a/app/src/main/assets/Cantonese Phrases.xlsx
+++ b/app/src/main/assets/Cantonese Phrases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="1600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="1643">
   <si>
     <t>Basics</t>
   </si>
@@ -4825,13 +4825,142 @@
   </si>
   <si>
     <t>Driving</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Headache</t>
+  </si>
+  <si>
+    <t>tau4 tung3</t>
+  </si>
+  <si>
+    <t>頭痛</t>
+  </si>
+  <si>
+    <t>stomachache</t>
+  </si>
+  <si>
+    <t>肚痛</t>
+  </si>
+  <si>
+    <t>tou5 tung3</t>
+  </si>
+  <si>
+    <t>藥</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>joek6</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>藥房</t>
+  </si>
+  <si>
+    <t>joek6 fong4</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>醫生</t>
+  </si>
+  <si>
+    <t>Ambulance</t>
+  </si>
+  <si>
+    <t>白車</t>
+  </si>
+  <si>
+    <t>baak6 ce1</t>
+  </si>
+  <si>
+    <t>醫院</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>ji1 jyun6*2</t>
+  </si>
+  <si>
+    <t>Help me</t>
+  </si>
+  <si>
+    <t>幫我</t>
+  </si>
+  <si>
+    <t>bong ngo</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>毒藥</t>
+  </si>
+  <si>
+    <t>duk joek</t>
+  </si>
+  <si>
+    <t>Accident</t>
+  </si>
+  <si>
+    <t>意外</t>
+  </si>
+  <si>
+    <t>ji3 ngoi6</t>
+  </si>
+  <si>
+    <t>爆血管</t>
+  </si>
+  <si>
+    <t>Stroke</t>
+  </si>
+  <si>
+    <t>baau3 hyut3 gun2</t>
+  </si>
+  <si>
+    <t>Heart Attack</t>
+  </si>
+  <si>
+    <t>心臟病發</t>
+  </si>
+  <si>
+    <t>sam1 zong6 beng6 faat</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>氣喘病</t>
+  </si>
+  <si>
+    <t>hei3 cyun2 beng6</t>
+  </si>
+  <si>
+    <t>Allergy</t>
+  </si>
+  <si>
+    <t>過敏</t>
+  </si>
+  <si>
+    <t>gwo3 man5</t>
+  </si>
+  <si>
+    <t>file:///android_asset/medical.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4843,6 +4972,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4869,12 +5006,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5156,10 +5294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F399"/>
+  <dimension ref="A1:F413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C362" sqref="C362"/>
+    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F413" sqref="F413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5168,6 +5306,7 @@
     <col min="3" max="3" width="67.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13277,7 +13416,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387">
-        <f t="shared" ref="A387:A399" si="6">A386+1</f>
+        <f t="shared" ref="A387:A413" si="6">A386+1</f>
         <v>387</v>
       </c>
       <c r="B387" t="s">
@@ -13546,6 +13685,300 @@
       </c>
       <c r="F399" s="1" t="s">
         <v>1579</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E400" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <f t="shared" si="6"/>
+        <v>401</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E401" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <f t="shared" si="6"/>
+        <v>402</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E402" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <f t="shared" si="6"/>
+        <v>403</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E403" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <f t="shared" si="6"/>
+        <v>404</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E404" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <f t="shared" si="6"/>
+        <v>405</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E405" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <f t="shared" si="6"/>
+        <v>406</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E406" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <f t="shared" si="6"/>
+        <v>407</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <f t="shared" si="6"/>
+        <v>408</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E408" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <f t="shared" si="6"/>
+        <v>409</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <f t="shared" si="6"/>
+        <v>410</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E410" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <f t="shared" si="6"/>
+        <v>411</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <f t="shared" si="6"/>
+        <v>412</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E412" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <f t="shared" si="6"/>
+        <v>413</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E413" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>1642</v>
       </c>
     </row>
   </sheetData>
@@ -13579,6 +14012,8 @@
     <hyperlink ref="F38" r:id="rId27"/>
     <hyperlink ref="F369" r:id="rId28"/>
     <hyperlink ref="F381:F399" r:id="rId29" display="file:///android_asset/love.png"/>
+    <hyperlink ref="F400" r:id="rId30"/>
+    <hyperlink ref="F401:F413" r:id="rId31" display="file:///android_asset/medical.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/src/main/assets/Cantonese Phrases.xlsx
+++ b/app/src/main/assets/Cantonese Phrases.xlsx
@@ -3150,9 +3150,6 @@
     <t>ngàuh yàuh</t>
   </si>
   <si>
-    <t>Si hying m̀h' gōi.</t>
-  </si>
-  <si>
     <t>Sihk yùhn ge la.</t>
   </si>
   <si>
@@ -4158,9 +4155,6 @@
     <t>牛油</t>
   </si>
   <si>
-    <t>侍應唔該.</t>
-  </si>
-  <si>
     <t>食完嘅喇.</t>
   </si>
   <si>
@@ -4954,6 +4948,12 @@
   </si>
   <si>
     <t>file:///android_asset/medical.png</t>
+  </si>
+  <si>
+    <t>伙記唔該.</t>
+  </si>
+  <si>
+    <t>fo gei m̀h' gōi.</t>
   </si>
 </sst>
 </file>
@@ -5296,8 +5296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F413" sqref="F413"/>
+    <sheetView tabSelected="1" topLeftCell="A385" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E312" sqref="E312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5320,7 +5320,7 @@
         <v>442</v>
       </c>
       <c r="D1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E1" t="s">
         <v>783</v>
@@ -5341,10 +5341,10 @@
         <v>442</v>
       </c>
       <c r="D2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="E2" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>427</v>
@@ -5362,7 +5362,7 @@
         <v>443</v>
       </c>
       <c r="D3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E3" t="s">
         <v>784</v>
@@ -5383,7 +5383,7 @@
         <v>444</v>
       </c>
       <c r="D4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E4" t="s">
         <v>785</v>
@@ -5404,7 +5404,7 @@
         <v>445</v>
       </c>
       <c r="D5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E5" t="s">
         <v>786</v>
@@ -5425,7 +5425,7 @@
         <v>446</v>
       </c>
       <c r="D6" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E6" t="s">
         <v>787</v>
@@ -5446,7 +5446,7 @@
         <v>447</v>
       </c>
       <c r="D7" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E7" t="s">
         <v>788</v>
@@ -5467,7 +5467,7 @@
         <v>448</v>
       </c>
       <c r="D8" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E8" t="s">
         <v>789</v>
@@ -5488,10 +5488,10 @@
         <v>449</v>
       </c>
       <c r="D9" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E9" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>427</v>
@@ -5506,13 +5506,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E10" t="s">
         <v>1541</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1542</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1543</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>427</v>
@@ -5527,13 +5527,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E11" t="s">
         <v>1544</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1545</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1546</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>427</v>
@@ -5548,13 +5548,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E12" t="s">
         <v>1547</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1548</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1549</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>427</v>
@@ -5569,13 +5569,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E13" t="s">
         <v>1550</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1551</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1552</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>427</v>
@@ -5593,7 +5593,7 @@
         <v>450</v>
       </c>
       <c r="D14" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E14" t="s">
         <v>790</v>
@@ -5614,7 +5614,7 @@
         <v>451</v>
       </c>
       <c r="D15" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E15" t="s">
         <v>791</v>
@@ -5635,7 +5635,7 @@
         <v>452</v>
       </c>
       <c r="D16" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E16" t="s">
         <v>792</v>
@@ -5656,7 +5656,7 @@
         <v>453</v>
       </c>
       <c r="D17" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E17" t="s">
         <v>793</v>
@@ -5677,7 +5677,7 @@
         <v>454</v>
       </c>
       <c r="D18" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E18" t="s">
         <v>794</v>
@@ -5698,7 +5698,7 @@
         <v>455</v>
       </c>
       <c r="D19" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E19" t="s">
         <v>795</v>
@@ -5719,7 +5719,7 @@
         <v>456</v>
       </c>
       <c r="D20" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E20" t="s">
         <v>796</v>
@@ -5740,7 +5740,7 @@
         <v>457</v>
       </c>
       <c r="D21" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E21" t="s">
         <v>797</v>
@@ -5761,7 +5761,7 @@
         <v>458</v>
       </c>
       <c r="D22" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E22" t="s">
         <v>798</v>
@@ -5782,7 +5782,7 @@
         <v>459</v>
       </c>
       <c r="D23" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E23" t="s">
         <v>799</v>
@@ -5803,7 +5803,7 @@
         <v>460</v>
       </c>
       <c r="D24" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E24" t="s">
         <v>800</v>
@@ -5824,7 +5824,7 @@
         <v>461</v>
       </c>
       <c r="D25" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E25" t="s">
         <v>801</v>
@@ -5842,13 +5842,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E26" t="s">
         <v>1468</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1470</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>427</v>
@@ -5866,7 +5866,7 @@
         <v>462</v>
       </c>
       <c r="D27" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E27" t="s">
         <v>802</v>
@@ -5887,7 +5887,7 @@
         <v>463</v>
       </c>
       <c r="D28" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E28" t="s">
         <v>803</v>
@@ -5908,7 +5908,7 @@
         <v>464</v>
       </c>
       <c r="D29" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E29" t="s">
         <v>804</v>
@@ -5926,13 +5926,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D30" t="s">
         <v>1448</v>
       </c>
-      <c r="D30" t="s">
-        <v>1450</v>
-      </c>
       <c r="E30" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>427</v>
@@ -5947,13 +5947,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D31" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="E31" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>427</v>
@@ -5968,13 +5968,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E32" t="s">
         <v>1460</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1462</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>427</v>
@@ -5992,7 +5992,7 @@
         <v>465</v>
       </c>
       <c r="D33" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E33" t="s">
         <v>805</v>
@@ -6010,13 +6010,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E34" t="s">
         <v>1463</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1464</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1465</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>427</v>
@@ -6031,13 +6031,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="D35" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="E35" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>427</v>
@@ -6055,7 +6055,7 @@
         <v>466</v>
       </c>
       <c r="D36" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E36" t="s">
         <v>806</v>
@@ -6073,13 +6073,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E37" t="s">
         <v>1457</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1458</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1459</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>427</v>
@@ -6094,13 +6094,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E38" t="s">
         <v>1553</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1554</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1555</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>427</v>
@@ -6115,13 +6115,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E39" t="s">
         <v>1480</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1482</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>427</v>
@@ -6136,13 +6136,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E40" t="s">
         <v>1483</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1484</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1485</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>427</v>
@@ -6154,13 +6154,13 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C41" t="s">
         <v>467</v>
       </c>
       <c r="D41" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E41" t="s">
         <v>807</v>
@@ -6175,13 +6175,13 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C42" t="s">
         <v>468</v>
       </c>
       <c r="D42" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E42" t="s">
         <v>808</v>
@@ -6196,13 +6196,13 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C43" t="s">
         <v>469</v>
       </c>
       <c r="D43" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E43" t="s">
         <v>809</v>
@@ -6217,13 +6217,13 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C44" t="s">
         <v>470</v>
       </c>
       <c r="D44" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E44" t="s">
         <v>810</v>
@@ -6238,16 +6238,16 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C45" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E45" t="s">
         <v>1477</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1478</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1479</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>428</v>
@@ -6259,13 +6259,13 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C46" t="s">
         <v>471</v>
       </c>
       <c r="D46" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E46" t="s">
         <v>438</v>
@@ -6280,16 +6280,16 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C47" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E47" t="s">
         <v>1474</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1476</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>428</v>
@@ -6301,13 +6301,13 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C48" t="s">
         <v>472</v>
       </c>
       <c r="D48" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E48" t="s">
         <v>811</v>
@@ -6322,13 +6322,13 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C49" t="s">
         <v>473</v>
       </c>
       <c r="D49" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E49" t="s">
         <v>812</v>
@@ -6343,13 +6343,13 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C50" t="s">
         <v>474</v>
       </c>
       <c r="D50" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E50" t="s">
         <v>813</v>
@@ -6364,13 +6364,13 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C51" t="s">
         <v>475</v>
       </c>
       <c r="D51" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E51" t="s">
         <v>814</v>
@@ -6385,13 +6385,13 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C52" t="s">
         <v>476</v>
       </c>
       <c r="D52" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E52" t="s">
         <v>815</v>
@@ -6406,13 +6406,13 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C53" t="s">
         <v>477</v>
       </c>
       <c r="D53" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E53" t="s">
         <v>816</v>
@@ -6427,13 +6427,13 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C54" t="s">
         <v>478</v>
       </c>
       <c r="D54" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E54" t="s">
         <v>817</v>
@@ -6448,13 +6448,13 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C55" t="s">
         <v>479</v>
       </c>
       <c r="D55" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E55" t="s">
         <v>818</v>
@@ -6469,13 +6469,13 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C56" t="s">
         <v>480</v>
       </c>
       <c r="D56" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E56" t="s">
         <v>819</v>
@@ -6490,13 +6490,13 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C57" t="s">
         <v>481</v>
       </c>
       <c r="D57" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E57" t="s">
         <v>820</v>
@@ -6511,13 +6511,13 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C58" t="s">
         <v>482</v>
       </c>
       <c r="D58" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E58" t="s">
         <v>821</v>
@@ -6532,13 +6532,13 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C59" t="s">
         <v>483</v>
       </c>
       <c r="D59" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E59" t="s">
         <v>822</v>
@@ -6553,13 +6553,13 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C60" t="s">
         <v>484</v>
       </c>
       <c r="D60" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E60" t="s">
         <v>823</v>
@@ -6574,13 +6574,13 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C61" t="s">
         <v>485</v>
       </c>
       <c r="D61" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E61" t="s">
         <v>824</v>
@@ -6595,13 +6595,13 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C62" t="s">
         <v>486</v>
       </c>
       <c r="D62" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E62" t="s">
         <v>825</v>
@@ -6616,13 +6616,13 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C63" t="s">
         <v>487</v>
       </c>
       <c r="D63" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E63" t="s">
         <v>826</v>
@@ -6637,13 +6637,13 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C64" t="s">
         <v>488</v>
       </c>
       <c r="D64" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E64" t="s">
         <v>827</v>
@@ -6664,7 +6664,7 @@
         <v>489</v>
       </c>
       <c r="D65" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E65" t="s">
         <v>828</v>
@@ -6685,7 +6685,7 @@
         <v>490</v>
       </c>
       <c r="D66" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E66" t="s">
         <v>829</v>
@@ -6706,7 +6706,7 @@
         <v>491</v>
       </c>
       <c r="D67" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E67" t="s">
         <v>830</v>
@@ -6727,7 +6727,7 @@
         <v>492</v>
       </c>
       <c r="D68" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E68" t="s">
         <v>831</v>
@@ -6748,7 +6748,7 @@
         <v>493</v>
       </c>
       <c r="D69" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E69" t="s">
         <v>832</v>
@@ -6769,7 +6769,7 @@
         <v>494</v>
       </c>
       <c r="D70" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E70" t="s">
         <v>833</v>
@@ -6790,7 +6790,7 @@
         <v>495</v>
       </c>
       <c r="D71" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E71" t="s">
         <v>834</v>
@@ -6811,7 +6811,7 @@
         <v>496</v>
       </c>
       <c r="D72" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E72" t="s">
         <v>835</v>
@@ -6832,7 +6832,7 @@
         <v>497</v>
       </c>
       <c r="D73" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E73" t="s">
         <v>836</v>
@@ -6853,7 +6853,7 @@
         <v>498</v>
       </c>
       <c r="D74" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E74" t="s">
         <v>837</v>
@@ -6874,7 +6874,7 @@
         <v>499</v>
       </c>
       <c r="D75" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E75" t="s">
         <v>838</v>
@@ -6895,7 +6895,7 @@
         <v>500</v>
       </c>
       <c r="D76" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E76" t="s">
         <v>839</v>
@@ -6916,7 +6916,7 @@
         <v>501</v>
       </c>
       <c r="D77" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E77" t="s">
         <v>840</v>
@@ -6937,7 +6937,7 @@
         <v>502</v>
       </c>
       <c r="D78" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E78" t="s">
         <v>841</v>
@@ -6958,7 +6958,7 @@
         <v>503</v>
       </c>
       <c r="D79" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E79" t="s">
         <v>842</v>
@@ -6979,7 +6979,7 @@
         <v>504</v>
       </c>
       <c r="D80" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E80" t="s">
         <v>843</v>
@@ -7000,7 +7000,7 @@
         <v>505</v>
       </c>
       <c r="D81" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E81" t="s">
         <v>844</v>
@@ -7021,7 +7021,7 @@
         <v>506</v>
       </c>
       <c r="D82" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E82" t="s">
         <v>845</v>
@@ -7042,7 +7042,7 @@
         <v>507</v>
       </c>
       <c r="D83" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E83" t="s">
         <v>846</v>
@@ -7063,7 +7063,7 @@
         <v>508</v>
       </c>
       <c r="D84" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E84" t="s">
         <v>847</v>
@@ -7084,7 +7084,7 @@
         <v>509</v>
       </c>
       <c r="D85" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E85" t="s">
         <v>848</v>
@@ -7105,7 +7105,7 @@
         <v>510</v>
       </c>
       <c r="D86" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E86" t="s">
         <v>849</v>
@@ -7126,7 +7126,7 @@
         <v>511</v>
       </c>
       <c r="D87" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E87" t="s">
         <v>850</v>
@@ -7147,7 +7147,7 @@
         <v>512</v>
       </c>
       <c r="D88" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E88" t="s">
         <v>851</v>
@@ -7168,7 +7168,7 @@
         <v>513</v>
       </c>
       <c r="D89" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E89" t="s">
         <v>852</v>
@@ -7189,7 +7189,7 @@
         <v>514</v>
       </c>
       <c r="D90" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E90" t="s">
         <v>853</v>
@@ -7210,7 +7210,7 @@
         <v>515</v>
       </c>
       <c r="D91" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E91" t="s">
         <v>854</v>
@@ -7231,7 +7231,7 @@
         <v>516</v>
       </c>
       <c r="D92" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E92" t="s">
         <v>855</v>
@@ -7252,7 +7252,7 @@
         <v>517</v>
       </c>
       <c r="D93" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E93" t="s">
         <v>856</v>
@@ -7273,7 +7273,7 @@
         <v>518</v>
       </c>
       <c r="D94" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E94" t="s">
         <v>857</v>
@@ -7294,7 +7294,7 @@
         <v>519</v>
       </c>
       <c r="D95" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E95" t="s">
         <v>858</v>
@@ -7315,7 +7315,7 @@
         <v>520</v>
       </c>
       <c r="D96" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E96" t="s">
         <v>859</v>
@@ -7336,7 +7336,7 @@
         <v>521</v>
       </c>
       <c r="D97" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E97" t="s">
         <v>860</v>
@@ -7357,7 +7357,7 @@
         <v>522</v>
       </c>
       <c r="D98" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E98" t="s">
         <v>861</v>
@@ -7378,7 +7378,7 @@
         <v>523</v>
       </c>
       <c r="D99" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E99" t="s">
         <v>862</v>
@@ -7399,7 +7399,7 @@
         <v>524</v>
       </c>
       <c r="D100" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E100" t="s">
         <v>863</v>
@@ -7420,7 +7420,7 @@
         <v>525</v>
       </c>
       <c r="D101" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E101" t="s">
         <v>864</v>
@@ -7441,7 +7441,7 @@
         <v>526</v>
       </c>
       <c r="D102" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E102" t="s">
         <v>865</v>
@@ -7462,7 +7462,7 @@
         <v>527</v>
       </c>
       <c r="D103" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E103" t="s">
         <v>866</v>
@@ -7483,7 +7483,7 @@
         <v>528</v>
       </c>
       <c r="D104" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E104" t="s">
         <v>867</v>
@@ -7504,7 +7504,7 @@
         <v>529</v>
       </c>
       <c r="D105" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E105" t="s">
         <v>868</v>
@@ -7525,7 +7525,7 @@
         <v>530</v>
       </c>
       <c r="D106" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E106" t="s">
         <v>869</v>
@@ -7546,7 +7546,7 @@
         <v>531</v>
       </c>
       <c r="D107" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E107" t="s">
         <v>870</v>
@@ -7567,7 +7567,7 @@
         <v>532</v>
       </c>
       <c r="D108" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E108" t="s">
         <v>871</v>
@@ -7588,7 +7588,7 @@
         <v>533</v>
       </c>
       <c r="D109" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E109" t="s">
         <v>872</v>
@@ -7609,7 +7609,7 @@
         <v>534</v>
       </c>
       <c r="D110" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E110" t="s">
         <v>873</v>
@@ -7630,7 +7630,7 @@
         <v>535</v>
       </c>
       <c r="D111" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E111" t="s">
         <v>874</v>
@@ -7651,7 +7651,7 @@
         <v>536</v>
       </c>
       <c r="D112" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E112" t="s">
         <v>875</v>
@@ -7672,7 +7672,7 @@
         <v>537</v>
       </c>
       <c r="D113" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E113" t="s">
         <v>876</v>
@@ -7693,7 +7693,7 @@
         <v>538</v>
       </c>
       <c r="D114" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E114" t="s">
         <v>877</v>
@@ -7714,7 +7714,7 @@
         <v>539</v>
       </c>
       <c r="D115" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E115" t="s">
         <v>878</v>
@@ -7735,7 +7735,7 @@
         <v>540</v>
       </c>
       <c r="D116" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E116" t="s">
         <v>385</v>
@@ -7756,7 +7756,7 @@
         <v>541</v>
       </c>
       <c r="D117" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E117" t="s">
         <v>879</v>
@@ -7777,7 +7777,7 @@
         <v>542</v>
       </c>
       <c r="D118" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E118" t="s">
         <v>880</v>
@@ -7798,7 +7798,7 @@
         <v>543</v>
       </c>
       <c r="D119" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E119" t="s">
         <v>881</v>
@@ -7819,7 +7819,7 @@
         <v>544</v>
       </c>
       <c r="D120" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E120" t="s">
         <v>882</v>
@@ -7840,7 +7840,7 @@
         <v>545</v>
       </c>
       <c r="D121" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E121" t="s">
         <v>386</v>
@@ -7861,7 +7861,7 @@
         <v>546</v>
       </c>
       <c r="D122" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E122" t="s">
         <v>387</v>
@@ -7882,7 +7882,7 @@
         <v>547</v>
       </c>
       <c r="D123" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E123" t="s">
         <v>388</v>
@@ -7903,7 +7903,7 @@
         <v>548</v>
       </c>
       <c r="D124" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E124" t="s">
         <v>883</v>
@@ -7924,7 +7924,7 @@
         <v>549</v>
       </c>
       <c r="D125" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E125" t="s">
         <v>884</v>
@@ -7945,7 +7945,7 @@
         <v>550</v>
       </c>
       <c r="D126" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E126" t="s">
         <v>389</v>
@@ -7966,7 +7966,7 @@
         <v>551</v>
       </c>
       <c r="D127" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E127" t="s">
         <v>885</v>
@@ -7987,7 +7987,7 @@
         <v>552</v>
       </c>
       <c r="D128" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E128" t="s">
         <v>886</v>
@@ -8008,7 +8008,7 @@
         <v>553</v>
       </c>
       <c r="D129" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E129" t="s">
         <v>887</v>
@@ -8029,10 +8029,10 @@
         <v>554</v>
       </c>
       <c r="D130" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E130" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>430</v>
@@ -8050,7 +8050,7 @@
         <v>555</v>
       </c>
       <c r="D131" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E131" t="s">
         <v>390</v>
@@ -8071,10 +8071,10 @@
         <v>556</v>
       </c>
       <c r="D132" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E132" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>430</v>
@@ -8092,10 +8092,10 @@
         <v>557</v>
       </c>
       <c r="D133" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E133" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>430</v>
@@ -8113,7 +8113,7 @@
         <v>558</v>
       </c>
       <c r="D134" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E134" t="s">
         <v>391</v>
@@ -8134,7 +8134,7 @@
         <v>559</v>
       </c>
       <c r="D135" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E135" t="s">
         <v>888</v>
@@ -8155,7 +8155,7 @@
         <v>560</v>
       </c>
       <c r="D136" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E136" t="s">
         <v>889</v>
@@ -8176,7 +8176,7 @@
         <v>561</v>
       </c>
       <c r="D137" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E137" t="s">
         <v>890</v>
@@ -8197,7 +8197,7 @@
         <v>562</v>
       </c>
       <c r="D138" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E138" t="s">
         <v>891</v>
@@ -8218,7 +8218,7 @@
         <v>563</v>
       </c>
       <c r="D139" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E139" t="s">
         <v>892</v>
@@ -8239,7 +8239,7 @@
         <v>564</v>
       </c>
       <c r="D140" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E140" t="s">
         <v>893</v>
@@ -8260,7 +8260,7 @@
         <v>565</v>
       </c>
       <c r="D141" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E141" t="s">
         <v>894</v>
@@ -8281,7 +8281,7 @@
         <v>566</v>
       </c>
       <c r="D142" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E142" t="s">
         <v>895</v>
@@ -8302,7 +8302,7 @@
         <v>567</v>
       </c>
       <c r="D143" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E143" t="s">
         <v>896</v>
@@ -8323,7 +8323,7 @@
         <v>568</v>
       </c>
       <c r="D144" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E144" t="s">
         <v>897</v>
@@ -8344,7 +8344,7 @@
         <v>569</v>
       </c>
       <c r="D145" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E145" t="s">
         <v>898</v>
@@ -8365,7 +8365,7 @@
         <v>570</v>
       </c>
       <c r="D146" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E146" t="s">
         <v>899</v>
@@ -8386,7 +8386,7 @@
         <v>571</v>
       </c>
       <c r="D147" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E147" t="s">
         <v>900</v>
@@ -8407,7 +8407,7 @@
         <v>572</v>
       </c>
       <c r="D148" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E148" t="s">
         <v>901</v>
@@ -8428,7 +8428,7 @@
         <v>573</v>
       </c>
       <c r="D149" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E149" t="s">
         <v>902</v>
@@ -8449,7 +8449,7 @@
         <v>574</v>
       </c>
       <c r="D150" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E150" t="s">
         <v>903</v>
@@ -8470,7 +8470,7 @@
         <v>575</v>
       </c>
       <c r="D151" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E151" t="s">
         <v>904</v>
@@ -8491,7 +8491,7 @@
         <v>576</v>
       </c>
       <c r="D152" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E152" t="s">
         <v>905</v>
@@ -8512,7 +8512,7 @@
         <v>577</v>
       </c>
       <c r="D153" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E153" t="s">
         <v>906</v>
@@ -8533,7 +8533,7 @@
         <v>578</v>
       </c>
       <c r="D154" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E154" t="s">
         <v>907</v>
@@ -8554,7 +8554,7 @@
         <v>579</v>
       </c>
       <c r="D155" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E155" t="s">
         <v>908</v>
@@ -8575,7 +8575,7 @@
         <v>580</v>
       </c>
       <c r="D156" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E156" t="s">
         <v>909</v>
@@ -8596,7 +8596,7 @@
         <v>581</v>
       </c>
       <c r="D157" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E157" t="s">
         <v>910</v>
@@ -8617,7 +8617,7 @@
         <v>582</v>
       </c>
       <c r="D158" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E158" t="s">
         <v>911</v>
@@ -8638,7 +8638,7 @@
         <v>583</v>
       </c>
       <c r="D159" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E159" t="s">
         <v>912</v>
@@ -8659,7 +8659,7 @@
         <v>584</v>
       </c>
       <c r="D160" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E160" t="s">
         <v>913</v>
@@ -8680,7 +8680,7 @@
         <v>585</v>
       </c>
       <c r="D161" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E161" t="s">
         <v>914</v>
@@ -8701,7 +8701,7 @@
         <v>586</v>
       </c>
       <c r="D162" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E162" t="s">
         <v>915</v>
@@ -8722,7 +8722,7 @@
         <v>587</v>
       </c>
       <c r="D163" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E163" t="s">
         <v>916</v>
@@ -8743,7 +8743,7 @@
         <v>588</v>
       </c>
       <c r="D164" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E164" t="s">
         <v>917</v>
@@ -8764,7 +8764,7 @@
         <v>589</v>
       </c>
       <c r="D165" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E165" t="s">
         <v>918</v>
@@ -8785,7 +8785,7 @@
         <v>590</v>
       </c>
       <c r="D166" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E166" t="s">
         <v>919</v>
@@ -8806,7 +8806,7 @@
         <v>591</v>
       </c>
       <c r="D167" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E167" t="s">
         <v>920</v>
@@ -8827,7 +8827,7 @@
         <v>592</v>
       </c>
       <c r="D168" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E168" t="s">
         <v>921</v>
@@ -8848,7 +8848,7 @@
         <v>593</v>
       </c>
       <c r="D169" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E169" t="s">
         <v>922</v>
@@ -8869,7 +8869,7 @@
         <v>594</v>
       </c>
       <c r="D170" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E170" t="s">
         <v>923</v>
@@ -8890,7 +8890,7 @@
         <v>595</v>
       </c>
       <c r="D171" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E171" t="s">
         <v>924</v>
@@ -8911,7 +8911,7 @@
         <v>596</v>
       </c>
       <c r="D172" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E172" t="s">
         <v>925</v>
@@ -8932,7 +8932,7 @@
         <v>597</v>
       </c>
       <c r="D173" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E173" t="s">
         <v>926</v>
@@ -8953,7 +8953,7 @@
         <v>598</v>
       </c>
       <c r="D174" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E174" t="s">
         <v>927</v>
@@ -8974,7 +8974,7 @@
         <v>599</v>
       </c>
       <c r="D175" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E175" t="s">
         <v>928</v>
@@ -8995,7 +8995,7 @@
         <v>600</v>
       </c>
       <c r="D176" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E176" t="s">
         <v>929</v>
@@ -9016,7 +9016,7 @@
         <v>601</v>
       </c>
       <c r="D177" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E177" t="s">
         <v>930</v>
@@ -9037,7 +9037,7 @@
         <v>602</v>
       </c>
       <c r="D178" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E178" t="s">
         <v>931</v>
@@ -9058,10 +9058,10 @@
         <v>603</v>
       </c>
       <c r="D179" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E179" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>432</v>
@@ -9079,7 +9079,7 @@
         <v>604</v>
       </c>
       <c r="D180" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E180" t="s">
         <v>932</v>
@@ -9100,7 +9100,7 @@
         <v>605</v>
       </c>
       <c r="D181" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E181" t="s">
         <v>933</v>
@@ -9121,7 +9121,7 @@
         <v>606</v>
       </c>
       <c r="D182" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E182" t="s">
         <v>934</v>
@@ -9142,7 +9142,7 @@
         <v>607</v>
       </c>
       <c r="D183" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E183" t="s">
         <v>439</v>
@@ -9163,7 +9163,7 @@
         <v>608</v>
       </c>
       <c r="D184" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E184" t="s">
         <v>935</v>
@@ -9184,7 +9184,7 @@
         <v>609</v>
       </c>
       <c r="D185" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E185" t="s">
         <v>936</v>
@@ -9205,7 +9205,7 @@
         <v>610</v>
       </c>
       <c r="D186" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E186" t="s">
         <v>937</v>
@@ -9226,7 +9226,7 @@
         <v>611</v>
       </c>
       <c r="D187" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E187" t="s">
         <v>938</v>
@@ -9247,7 +9247,7 @@
         <v>612</v>
       </c>
       <c r="D188" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E188" t="s">
         <v>939</v>
@@ -9268,7 +9268,7 @@
         <v>613</v>
       </c>
       <c r="D189" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E189" t="s">
         <v>940</v>
@@ -9289,7 +9289,7 @@
         <v>614</v>
       </c>
       <c r="D190" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E190" t="s">
         <v>941</v>
@@ -9310,7 +9310,7 @@
         <v>615</v>
       </c>
       <c r="D191" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E191" t="s">
         <v>942</v>
@@ -9331,7 +9331,7 @@
         <v>616</v>
       </c>
       <c r="D192" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E192" t="s">
         <v>943</v>
@@ -9352,7 +9352,7 @@
         <v>617</v>
       </c>
       <c r="D193" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E193" t="s">
         <v>944</v>
@@ -9373,7 +9373,7 @@
         <v>618</v>
       </c>
       <c r="D194" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E194" t="s">
         <v>945</v>
@@ -9394,7 +9394,7 @@
         <v>619</v>
       </c>
       <c r="D195" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E195" t="s">
         <v>946</v>
@@ -9415,7 +9415,7 @@
         <v>620</v>
       </c>
       <c r="D196" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E196" t="s">
         <v>947</v>
@@ -9436,7 +9436,7 @@
         <v>621</v>
       </c>
       <c r="D197" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E197" t="s">
         <v>948</v>
@@ -9457,7 +9457,7 @@
         <v>622</v>
       </c>
       <c r="D198" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E198" t="s">
         <v>949</v>
@@ -9478,7 +9478,7 @@
         <v>623</v>
       </c>
       <c r="D199" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E199" t="s">
         <v>950</v>
@@ -9499,7 +9499,7 @@
         <v>624</v>
       </c>
       <c r="D200" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E200" t="s">
         <v>951</v>
@@ -9520,7 +9520,7 @@
         <v>625</v>
       </c>
       <c r="D201" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E201" t="s">
         <v>952</v>
@@ -9541,7 +9541,7 @@
         <v>626</v>
       </c>
       <c r="D202" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E202" t="s">
         <v>953</v>
@@ -9562,7 +9562,7 @@
         <v>627</v>
       </c>
       <c r="D203" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E203" t="s">
         <v>954</v>
@@ -9583,7 +9583,7 @@
         <v>628</v>
       </c>
       <c r="D204" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E204" t="s">
         <v>955</v>
@@ -9604,7 +9604,7 @@
         <v>629</v>
       </c>
       <c r="D205" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E205" t="s">
         <v>956</v>
@@ -9625,7 +9625,7 @@
         <v>630</v>
       </c>
       <c r="D206" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E206" t="s">
         <v>957</v>
@@ -9646,7 +9646,7 @@
         <v>631</v>
       </c>
       <c r="D207" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E207" t="s">
         <v>958</v>
@@ -9667,7 +9667,7 @@
         <v>632</v>
       </c>
       <c r="D208" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E208" t="s">
         <v>959</v>
@@ -9688,7 +9688,7 @@
         <v>633</v>
       </c>
       <c r="D209" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E209" t="s">
         <v>960</v>
@@ -9709,7 +9709,7 @@
         <v>634</v>
       </c>
       <c r="D210" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E210" t="s">
         <v>961</v>
@@ -9730,7 +9730,7 @@
         <v>635</v>
       </c>
       <c r="D211" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E211" t="s">
         <v>962</v>
@@ -9751,7 +9751,7 @@
         <v>636</v>
       </c>
       <c r="D212" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E212" t="s">
         <v>963</v>
@@ -9772,7 +9772,7 @@
         <v>637</v>
       </c>
       <c r="D213" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E213" t="s">
         <v>964</v>
@@ -9793,7 +9793,7 @@
         <v>638</v>
       </c>
       <c r="D214" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E214" t="s">
         <v>965</v>
@@ -9814,7 +9814,7 @@
         <v>639</v>
       </c>
       <c r="D215" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E215" t="s">
         <v>966</v>
@@ -9835,7 +9835,7 @@
         <v>640</v>
       </c>
       <c r="D216" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E216" t="s">
         <v>967</v>
@@ -9853,13 +9853,13 @@
         <v>397</v>
       </c>
       <c r="C217" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E217" t="s">
         <v>1486</v>
-      </c>
-      <c r="D217" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E217" t="s">
-        <v>1488</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>433</v>
@@ -9874,13 +9874,13 @@
         <v>397</v>
       </c>
       <c r="C218" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E218" t="s">
         <v>1489</v>
-      </c>
-      <c r="D218" t="s">
-        <v>1490</v>
-      </c>
-      <c r="E218" t="s">
-        <v>1491</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>433</v>
@@ -9895,13 +9895,13 @@
         <v>397</v>
       </c>
       <c r="C219" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E219" t="s">
         <v>1492</v>
-      </c>
-      <c r="D219" t="s">
-        <v>1493</v>
-      </c>
-      <c r="E219" t="s">
-        <v>1494</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>433</v>
@@ -9916,13 +9916,13 @@
         <v>397</v>
       </c>
       <c r="C220" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E220" t="s">
         <v>1495</v>
-      </c>
-      <c r="D220" t="s">
-        <v>1496</v>
-      </c>
-      <c r="E220" t="s">
-        <v>1497</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>433</v>
@@ -9937,13 +9937,13 @@
         <v>397</v>
       </c>
       <c r="C221" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E221" t="s">
         <v>1498</v>
-      </c>
-      <c r="D221" t="s">
-        <v>1499</v>
-      </c>
-      <c r="E221" t="s">
-        <v>1500</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>433</v>
@@ -9958,13 +9958,13 @@
         <v>397</v>
       </c>
       <c r="C222" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E222" t="s">
         <v>1501</v>
-      </c>
-      <c r="D222" t="s">
-        <v>1502</v>
-      </c>
-      <c r="E222" t="s">
-        <v>1503</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>433</v>
@@ -9979,13 +9979,13 @@
         <v>397</v>
       </c>
       <c r="C223" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E223" t="s">
         <v>1504</v>
-      </c>
-      <c r="D223" t="s">
-        <v>1505</v>
-      </c>
-      <c r="E223" t="s">
-        <v>1506</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>433</v>
@@ -10003,7 +10003,7 @@
         <v>641</v>
       </c>
       <c r="D224" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E224" t="s">
         <v>968</v>
@@ -10024,7 +10024,7 @@
         <v>642</v>
       </c>
       <c r="D225" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E225" t="s">
         <v>969</v>
@@ -10045,7 +10045,7 @@
         <v>643</v>
       </c>
       <c r="D226" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E226" t="s">
         <v>970</v>
@@ -10066,7 +10066,7 @@
         <v>644</v>
       </c>
       <c r="D227" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E227" t="s">
         <v>971</v>
@@ -10087,7 +10087,7 @@
         <v>645</v>
       </c>
       <c r="D228" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E228" t="s">
         <v>972</v>
@@ -10108,7 +10108,7 @@
         <v>646</v>
       </c>
       <c r="D229" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E229" t="s">
         <v>973</v>
@@ -10129,7 +10129,7 @@
         <v>647</v>
       </c>
       <c r="D230" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E230" t="s">
         <v>974</v>
@@ -10150,7 +10150,7 @@
         <v>648</v>
       </c>
       <c r="D231" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E231" t="s">
         <v>975</v>
@@ -10171,7 +10171,7 @@
         <v>649</v>
       </c>
       <c r="D232" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E232" t="s">
         <v>976</v>
@@ -10192,7 +10192,7 @@
         <v>650</v>
       </c>
       <c r="D233" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E233" t="s">
         <v>977</v>
@@ -10213,7 +10213,7 @@
         <v>651</v>
       </c>
       <c r="D234" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E234" t="s">
         <v>978</v>
@@ -10234,7 +10234,7 @@
         <v>652</v>
       </c>
       <c r="D235" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E235" t="s">
         <v>979</v>
@@ -10255,7 +10255,7 @@
         <v>653</v>
       </c>
       <c r="D236" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E236" t="s">
         <v>980</v>
@@ -10276,7 +10276,7 @@
         <v>654</v>
       </c>
       <c r="D237" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E237" t="s">
         <v>981</v>
@@ -10297,7 +10297,7 @@
         <v>655</v>
       </c>
       <c r="D238" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E238" t="s">
         <v>982</v>
@@ -10318,7 +10318,7 @@
         <v>656</v>
       </c>
       <c r="D239" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E239" t="s">
         <v>983</v>
@@ -10339,7 +10339,7 @@
         <v>657</v>
       </c>
       <c r="D240" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E240" t="s">
         <v>984</v>
@@ -10360,7 +10360,7 @@
         <v>658</v>
       </c>
       <c r="D241" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E241" t="s">
         <v>440</v>
@@ -10381,7 +10381,7 @@
         <v>659</v>
       </c>
       <c r="D242" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E242" t="s">
         <v>985</v>
@@ -10402,7 +10402,7 @@
         <v>660</v>
       </c>
       <c r="D243" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E243" t="s">
         <v>986</v>
@@ -10423,7 +10423,7 @@
         <v>661</v>
       </c>
       <c r="D244" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E244" t="s">
         <v>987</v>
@@ -10444,7 +10444,7 @@
         <v>662</v>
       </c>
       <c r="D245" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E245" t="s">
         <v>988</v>
@@ -10465,7 +10465,7 @@
         <v>663</v>
       </c>
       <c r="D246" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E246" t="s">
         <v>989</v>
@@ -10486,7 +10486,7 @@
         <v>664</v>
       </c>
       <c r="D247" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E247" t="s">
         <v>990</v>
@@ -10507,7 +10507,7 @@
         <v>665</v>
       </c>
       <c r="D248" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E248" t="s">
         <v>991</v>
@@ -10528,7 +10528,7 @@
         <v>666</v>
       </c>
       <c r="D249" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E249" t="s">
         <v>992</v>
@@ -10549,7 +10549,7 @@
         <v>667</v>
       </c>
       <c r="D250" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E250" t="s">
         <v>993</v>
@@ -10570,7 +10570,7 @@
         <v>668</v>
       </c>
       <c r="D251" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E251" t="s">
         <v>994</v>
@@ -10591,7 +10591,7 @@
         <v>669</v>
       </c>
       <c r="D252" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E252" t="s">
         <v>995</v>
@@ -10612,7 +10612,7 @@
         <v>670</v>
       </c>
       <c r="D253" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E253" t="s">
         <v>996</v>
@@ -10627,7 +10627,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C254" t="s">
         <v>399</v>
@@ -10648,7 +10648,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C255" t="s">
         <v>400</v>
@@ -10669,7 +10669,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C256" t="s">
         <v>401</v>
@@ -10690,7 +10690,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C257" t="s">
         <v>402</v>
@@ -10711,7 +10711,7 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C258" t="s">
         <v>403</v>
@@ -10732,7 +10732,7 @@
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C259" t="s">
         <v>404</v>
@@ -10753,7 +10753,7 @@
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C260" t="s">
         <v>405</v>
@@ -10774,7 +10774,7 @@
         <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C261" t="s">
         <v>406</v>
@@ -10801,7 +10801,7 @@
         <v>671</v>
       </c>
       <c r="D262" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E262" t="s">
         <v>441</v>
@@ -10822,7 +10822,7 @@
         <v>672</v>
       </c>
       <c r="D263" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E263" t="s">
         <v>997</v>
@@ -10843,7 +10843,7 @@
         <v>673</v>
       </c>
       <c r="D264" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E264" t="s">
         <v>998</v>
@@ -10864,7 +10864,7 @@
         <v>674</v>
       </c>
       <c r="D265" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E265" t="s">
         <v>999</v>
@@ -10885,7 +10885,7 @@
         <v>675</v>
       </c>
       <c r="D266" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E266" t="s">
         <v>1000</v>
@@ -10906,10 +10906,10 @@
         <v>676</v>
       </c>
       <c r="D267" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E267" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>435</v>
@@ -10927,7 +10927,7 @@
         <v>677</v>
       </c>
       <c r="D268" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E268" t="s">
         <v>1001</v>
@@ -10948,7 +10948,7 @@
         <v>678</v>
       </c>
       <c r="D269" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E269" t="s">
         <v>1002</v>
@@ -10969,7 +10969,7 @@
         <v>679</v>
       </c>
       <c r="D270" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E270" t="s">
         <v>1003</v>
@@ -10990,7 +10990,7 @@
         <v>680</v>
       </c>
       <c r="D271" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E271" t="s">
         <v>1004</v>
@@ -11011,7 +11011,7 @@
         <v>681</v>
       </c>
       <c r="D272" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E272" t="s">
         <v>1005</v>
@@ -11029,13 +11029,13 @@
         <v>423</v>
       </c>
       <c r="C273" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E273" t="s">
         <v>1507</v>
-      </c>
-      <c r="D273" t="s">
-        <v>1508</v>
-      </c>
-      <c r="E273" t="s">
-        <v>1509</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>435</v>
@@ -11050,13 +11050,13 @@
         <v>423</v>
       </c>
       <c r="C274" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E274" t="s">
         <v>1510</v>
-      </c>
-      <c r="D274" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E274" t="s">
-        <v>1512</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>435</v>
@@ -11074,7 +11074,7 @@
         <v>682</v>
       </c>
       <c r="D275" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E275" t="s">
         <v>1006</v>
@@ -11092,13 +11092,13 @@
         <v>423</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D276" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="E276" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>435</v>
@@ -11116,7 +11116,7 @@
         <v>683</v>
       </c>
       <c r="D277" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E277" t="s">
         <v>1007</v>
@@ -11158,7 +11158,7 @@
         <v>685</v>
       </c>
       <c r="D279" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="E279" t="s">
         <v>1009</v>
@@ -11179,7 +11179,7 @@
         <v>686</v>
       </c>
       <c r="D280" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E280" t="s">
         <v>1010</v>
@@ -11194,13 +11194,13 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C281" t="s">
         <v>687</v>
       </c>
       <c r="D281" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E281" t="s">
         <v>1011</v>
@@ -11215,13 +11215,13 @@
         <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C282" t="s">
         <v>688</v>
       </c>
       <c r="D282" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E282" t="s">
         <v>1012</v>
@@ -11236,13 +11236,13 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C283" t="s">
         <v>689</v>
       </c>
       <c r="D283" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E283" t="s">
         <v>1013</v>
@@ -11257,13 +11257,13 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C284" t="s">
         <v>690</v>
       </c>
       <c r="D284" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E284" t="s">
         <v>1014</v>
@@ -11278,13 +11278,13 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C285" t="s">
         <v>691</v>
       </c>
       <c r="D285" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E285" t="s">
         <v>1015</v>
@@ -11299,13 +11299,13 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C286" t="s">
         <v>692</v>
       </c>
       <c r="D286" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E286" t="s">
         <v>1016</v>
@@ -11320,13 +11320,13 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C287" t="s">
         <v>693</v>
       </c>
       <c r="D287" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="E287" t="s">
         <v>1017</v>
@@ -11341,13 +11341,13 @@
         <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C288" t="s">
         <v>694</v>
       </c>
       <c r="D288" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E288" t="s">
         <v>1018</v>
@@ -11362,13 +11362,13 @@
         <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C289" t="s">
         <v>695</v>
       </c>
       <c r="D289" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E289" t="s">
         <v>1019</v>
@@ -11383,13 +11383,13 @@
         <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C290" t="s">
         <v>696</v>
       </c>
       <c r="D290" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E290" t="s">
         <v>1020</v>
@@ -11404,13 +11404,13 @@
         <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C291" t="s">
         <v>697</v>
       </c>
       <c r="D291" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E291" t="s">
         <v>1021</v>
@@ -11425,13 +11425,13 @@
         <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C292" t="s">
         <v>698</v>
       </c>
       <c r="D292" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E292" t="s">
         <v>1022</v>
@@ -11446,13 +11446,13 @@
         <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C293" t="s">
         <v>699</v>
       </c>
       <c r="D293" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E293" t="s">
         <v>1023</v>
@@ -11467,13 +11467,13 @@
         <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C294" t="s">
         <v>700</v>
       </c>
       <c r="D294" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E294" t="s">
         <v>1024</v>
@@ -11488,13 +11488,13 @@
         <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C295" t="s">
         <v>701</v>
       </c>
       <c r="D295" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E295" t="s">
         <v>1025</v>
@@ -11509,13 +11509,13 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C296" t="s">
         <v>702</v>
       </c>
       <c r="D296" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E296" t="s">
         <v>1026</v>
@@ -11530,13 +11530,13 @@
         <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C297" t="s">
         <v>703</v>
       </c>
       <c r="D297" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E297" t="s">
         <v>1027</v>
@@ -11551,13 +11551,13 @@
         <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C298" t="s">
         <v>704</v>
       </c>
       <c r="D298" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E298" t="s">
         <v>1028</v>
@@ -11572,13 +11572,13 @@
         <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C299" t="s">
         <v>705</v>
       </c>
       <c r="D299" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E299" t="s">
         <v>1029</v>
@@ -11593,13 +11593,13 @@
         <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C300" t="s">
         <v>706</v>
       </c>
       <c r="D300" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E300" t="s">
         <v>1030</v>
@@ -11614,13 +11614,13 @@
         <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C301" t="s">
         <v>707</v>
       </c>
       <c r="D301" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E301" t="s">
         <v>1031</v>
@@ -11635,13 +11635,13 @@
         <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C302" t="s">
         <v>708</v>
       </c>
       <c r="D302" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E302" t="s">
         <v>1032</v>
@@ -11656,13 +11656,13 @@
         <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C303" t="s">
         <v>709</v>
       </c>
       <c r="D303" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E303" t="s">
         <v>1033</v>
@@ -11677,13 +11677,13 @@
         <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C304" t="s">
         <v>710</v>
       </c>
       <c r="D304" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E304" t="s">
         <v>1034</v>
@@ -11698,13 +11698,13 @@
         <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C305" t="s">
         <v>711</v>
       </c>
       <c r="D305" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E305" t="s">
         <v>1035</v>
@@ -11719,13 +11719,13 @@
         <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C306" t="s">
         <v>712</v>
       </c>
       <c r="D306" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E306" t="s">
         <v>1036</v>
@@ -11740,13 +11740,13 @@
         <v>307</v>
       </c>
       <c r="B307" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C307" t="s">
         <v>713</v>
       </c>
       <c r="D307" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E307" t="s">
         <v>1037</v>
@@ -11761,13 +11761,13 @@
         <v>308</v>
       </c>
       <c r="B308" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C308" t="s">
         <v>714</v>
       </c>
       <c r="D308" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E308" t="s">
         <v>1038</v>
@@ -11782,13 +11782,13 @@
         <v>309</v>
       </c>
       <c r="B309" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C309" t="s">
         <v>715</v>
       </c>
       <c r="D309" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E309" t="s">
         <v>1039</v>
@@ -11803,13 +11803,13 @@
         <v>310</v>
       </c>
       <c r="B310" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C310" t="s">
         <v>716</v>
       </c>
       <c r="D310" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E310" t="s">
         <v>1040</v>
@@ -11830,10 +11830,10 @@
         <v>717</v>
       </c>
       <c r="D311" t="s">
-        <v>1377</v>
+        <v>1641</v>
       </c>
       <c r="E311" t="s">
-        <v>1041</v>
+        <v>1642</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>435</v>
@@ -11851,10 +11851,10 @@
         <v>718</v>
       </c>
       <c r="D312" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="E312" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>435</v>
@@ -11872,10 +11872,10 @@
         <v>719</v>
       </c>
       <c r="D313" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="E313" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>435</v>
@@ -11893,10 +11893,10 @@
         <v>720</v>
       </c>
       <c r="D314" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="E314" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>435</v>
@@ -11914,10 +11914,10 @@
         <v>721</v>
       </c>
       <c r="D315" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="E315" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>435</v>
@@ -11935,10 +11935,10 @@
         <v>722</v>
       </c>
       <c r="D316" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="E316" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>436</v>
@@ -11956,10 +11956,10 @@
         <v>723</v>
       </c>
       <c r="D317" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="E317" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>436</v>
@@ -11977,10 +11977,10 @@
         <v>724</v>
       </c>
       <c r="D318" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="E318" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>436</v>
@@ -11998,7 +11998,7 @@
         <v>725</v>
       </c>
       <c r="D319" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="E319" t="s">
         <v>392</v>
@@ -12019,10 +12019,10 @@
         <v>726</v>
       </c>
       <c r="D320" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="E320" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>436</v>
@@ -12040,7 +12040,7 @@
         <v>727</v>
       </c>
       <c r="D321" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="E321" t="s">
         <v>393</v>
@@ -12061,10 +12061,10 @@
         <v>728</v>
       </c>
       <c r="D322" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E322" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>436</v>
@@ -12082,10 +12082,10 @@
         <v>729</v>
       </c>
       <c r="D323" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="E323" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>436</v>
@@ -12103,10 +12103,10 @@
         <v>730</v>
       </c>
       <c r="D324" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E324" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>436</v>
@@ -12124,10 +12124,10 @@
         <v>731</v>
       </c>
       <c r="D325" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="E325" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>436</v>
@@ -12145,7 +12145,7 @@
         <v>710</v>
       </c>
       <c r="D326" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E326" t="s">
         <v>1034</v>
@@ -12166,10 +12166,10 @@
         <v>732</v>
       </c>
       <c r="D327" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="E327" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>436</v>
@@ -12187,10 +12187,10 @@
         <v>733</v>
       </c>
       <c r="D328" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E328" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>436</v>
@@ -12208,10 +12208,10 @@
         <v>734</v>
       </c>
       <c r="D329" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="E329" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>436</v>
@@ -12229,10 +12229,10 @@
         <v>735</v>
       </c>
       <c r="D330" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="E330" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>436</v>
@@ -12250,10 +12250,10 @@
         <v>736</v>
       </c>
       <c r="D331" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="E331" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>436</v>
@@ -12271,10 +12271,10 @@
         <v>737</v>
       </c>
       <c r="D332" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="E332" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>436</v>
@@ -12292,10 +12292,10 @@
         <v>738</v>
       </c>
       <c r="D333" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="E333" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>436</v>
@@ -12313,10 +12313,10 @@
         <v>739</v>
       </c>
       <c r="D334" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="E334" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>436</v>
@@ -12334,10 +12334,10 @@
         <v>740</v>
       </c>
       <c r="D335" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="E335" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>437</v>
@@ -12355,10 +12355,10 @@
         <v>741</v>
       </c>
       <c r="D336" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="E336" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>437</v>
@@ -12376,10 +12376,10 @@
         <v>742</v>
       </c>
       <c r="D337" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E337" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F337" s="1" t="s">
         <v>437</v>
@@ -12397,10 +12397,10 @@
         <v>743</v>
       </c>
       <c r="D338" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="E338" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>437</v>
@@ -12418,10 +12418,10 @@
         <v>744</v>
       </c>
       <c r="D339" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="E339" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>437</v>
@@ -12439,10 +12439,10 @@
         <v>745</v>
       </c>
       <c r="D340" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="E340" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>437</v>
@@ -12460,10 +12460,10 @@
         <v>746</v>
       </c>
       <c r="D341" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="E341" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>437</v>
@@ -12481,10 +12481,10 @@
         <v>747</v>
       </c>
       <c r="D342" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="E342" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>437</v>
@@ -12502,10 +12502,10 @@
         <v>748</v>
       </c>
       <c r="D343" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="E343" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>437</v>
@@ -12523,10 +12523,10 @@
         <v>749</v>
       </c>
       <c r="D344" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="E344" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>437</v>
@@ -12544,10 +12544,10 @@
         <v>651</v>
       </c>
       <c r="D345" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="E345" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>437</v>
@@ -12565,10 +12565,10 @@
         <v>750</v>
       </c>
       <c r="D346" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="E346" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>437</v>
@@ -12586,10 +12586,10 @@
         <v>751</v>
       </c>
       <c r="D347" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="E347" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>437</v>
@@ -12607,10 +12607,10 @@
         <v>752</v>
       </c>
       <c r="D348" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="E348" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>437</v>
@@ -12628,10 +12628,10 @@
         <v>753</v>
       </c>
       <c r="D349" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="E349" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>437</v>
@@ -12649,10 +12649,10 @@
         <v>754</v>
       </c>
       <c r="D350" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="E350" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>437</v>
@@ -12670,10 +12670,10 @@
         <v>755</v>
       </c>
       <c r="D351" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="E351" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>437</v>
@@ -12691,10 +12691,10 @@
         <v>756</v>
       </c>
       <c r="D352" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="E352" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>437</v>
@@ -12712,10 +12712,10 @@
         <v>757</v>
       </c>
       <c r="D353" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="E353" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F353" s="1" t="s">
         <v>437</v>
@@ -12733,10 +12733,10 @@
         <v>758</v>
       </c>
       <c r="D354" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="E354" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>437</v>
@@ -12754,10 +12754,10 @@
         <v>759</v>
       </c>
       <c r="D355" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="E355" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>437</v>
@@ -12775,10 +12775,10 @@
         <v>760</v>
       </c>
       <c r="D356" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="E356" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>437</v>
@@ -12796,10 +12796,10 @@
         <v>761</v>
       </c>
       <c r="D357" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="E357" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>437</v>
@@ -12817,10 +12817,10 @@
         <v>762</v>
       </c>
       <c r="D358" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="E358" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F358" s="1" t="s">
         <v>437</v>
@@ -12838,10 +12838,10 @@
         <v>763</v>
       </c>
       <c r="D359" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="E359" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F359" s="1" t="s">
         <v>437</v>
@@ -12859,10 +12859,10 @@
         <v>764</v>
       </c>
       <c r="D360" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="E360" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F360" s="1" t="s">
         <v>437</v>
@@ -12880,10 +12880,10 @@
         <v>765</v>
       </c>
       <c r="D361" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="E361" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F361" s="1" t="s">
         <v>437</v>
@@ -12901,10 +12901,10 @@
         <v>766</v>
       </c>
       <c r="D362" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="E362" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F362" s="1" t="s">
         <v>437</v>
@@ -12922,10 +12922,10 @@
         <v>767</v>
       </c>
       <c r="D363" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="E363" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F363" s="1" t="s">
         <v>437</v>
@@ -12943,10 +12943,10 @@
         <v>768</v>
       </c>
       <c r="D364" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="E364" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F364" s="1" t="s">
         <v>437</v>
@@ -12964,10 +12964,10 @@
         <v>769</v>
       </c>
       <c r="D365" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="E365" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F365" s="1" t="s">
         <v>437</v>
@@ -12985,10 +12985,10 @@
         <v>770</v>
       </c>
       <c r="D366" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="E366" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F366" s="1" t="s">
         <v>437</v>
@@ -13006,10 +13006,10 @@
         <v>771</v>
       </c>
       <c r="D367" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="E367" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F367" s="1" t="s">
         <v>437</v>
@@ -13027,10 +13027,10 @@
         <v>772</v>
       </c>
       <c r="D368" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="E368" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F368" s="1" t="s">
         <v>437</v>
@@ -13045,13 +13045,13 @@
         <v>425</v>
       </c>
       <c r="C369" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E369" t="s">
         <v>1556</v>
-      </c>
-      <c r="D369" t="s">
-        <v>1557</v>
-      </c>
-      <c r="E369" t="s">
-        <v>1558</v>
       </c>
       <c r="F369" s="1" t="s">
         <v>437</v>
@@ -13063,16 +13063,16 @@
         <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C370" t="s">
         <v>773</v>
       </c>
       <c r="D370" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="E370" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>432</v>
@@ -13084,16 +13084,16 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C371" t="s">
         <v>774</v>
       </c>
       <c r="D371" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="E371" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F371" s="1" t="s">
         <v>432</v>
@@ -13105,16 +13105,16 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C372" t="s">
         <v>775</v>
       </c>
       <c r="D372" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="E372" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>432</v>
@@ -13126,16 +13126,16 @@
         <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C373" t="s">
         <v>776</v>
       </c>
       <c r="D373" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="E373" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F373" s="1" t="s">
         <v>432</v>
@@ -13147,16 +13147,16 @@
         <v>374</v>
       </c>
       <c r="B374" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C374" t="s">
         <v>777</v>
       </c>
       <c r="D374" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="E374" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>432</v>
@@ -13168,16 +13168,16 @@
         <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C375" t="s">
         <v>778</v>
       </c>
       <c r="D375" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="E375" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F375" s="1" t="s">
         <v>432</v>
@@ -13189,16 +13189,16 @@
         <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C376" t="s">
         <v>779</v>
       </c>
       <c r="D376" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="E376" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F376" s="1" t="s">
         <v>432</v>
@@ -13210,16 +13210,16 @@
         <v>377</v>
       </c>
       <c r="B377" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C377" t="s">
         <v>780</v>
       </c>
       <c r="D377" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E377" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F377" s="1" t="s">
         <v>432</v>
@@ -13231,16 +13231,16 @@
         <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C378" t="s">
         <v>781</v>
       </c>
       <c r="D378" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="E378" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>432</v>
@@ -13252,16 +13252,16 @@
         <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C379" t="s">
         <v>782</v>
       </c>
       <c r="D379" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="E379" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F379" s="1" t="s">
         <v>432</v>
@@ -13273,19 +13273,19 @@
         <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C380" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E380" t="s">
         <v>1471</v>
       </c>
-      <c r="D380" t="s">
-        <v>1472</v>
-      </c>
-      <c r="E380" t="s">
-        <v>1473</v>
-      </c>
       <c r="F380" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -13294,19 +13294,19 @@
         <v>381</v>
       </c>
       <c r="B381" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D381" t="s">
         <v>1515</v>
       </c>
-      <c r="C381" t="s">
+      <c r="E381" t="s">
         <v>1516</v>
       </c>
-      <c r="D381" t="s">
-        <v>1517</v>
-      </c>
-      <c r="E381" t="s">
-        <v>1518</v>
-      </c>
       <c r="F381" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -13315,19 +13315,19 @@
         <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C382" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="D382" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="E382" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -13336,19 +13336,19 @@
         <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C383" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D383" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E383" t="s">
         <v>1521</v>
       </c>
-      <c r="D383" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E383" t="s">
-        <v>1523</v>
-      </c>
       <c r="F383" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
@@ -13357,19 +13357,19 @@
         <v>384</v>
       </c>
       <c r="B384" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C384" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E384" t="s">
         <v>1524</v>
       </c>
-      <c r="D384" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E384" t="s">
-        <v>1526</v>
-      </c>
       <c r="F384" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -13378,19 +13378,19 @@
         <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C385" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E385" t="s">
         <v>1527</v>
       </c>
-      <c r="D385" t="s">
-        <v>1528</v>
-      </c>
-      <c r="E385" t="s">
-        <v>1529</v>
-      </c>
       <c r="F385" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -13399,19 +13399,19 @@
         <v>386</v>
       </c>
       <c r="B386" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C386" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="D386" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="E386" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -13420,19 +13420,19 @@
         <v>387</v>
       </c>
       <c r="B387" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C387" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E387" t="s">
         <v>1532</v>
       </c>
-      <c r="D387" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E387" t="s">
-        <v>1534</v>
-      </c>
       <c r="F387" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -13441,19 +13441,19 @@
         <v>388</v>
       </c>
       <c r="B388" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C388" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E388" t="s">
         <v>1535</v>
       </c>
-      <c r="D388" t="s">
-        <v>1536</v>
-      </c>
-      <c r="E388" t="s">
-        <v>1537</v>
-      </c>
       <c r="F388" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -13462,19 +13462,19 @@
         <v>389</v>
       </c>
       <c r="B389" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C389" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D389" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E389" t="s">
         <v>1538</v>
       </c>
-      <c r="D389" t="s">
-        <v>1539</v>
-      </c>
-      <c r="E389" t="s">
-        <v>1540</v>
-      </c>
       <c r="F389" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -13483,19 +13483,19 @@
         <v>390</v>
       </c>
       <c r="B390" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C390" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="D390" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="E390" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -13504,19 +13504,19 @@
         <v>391</v>
       </c>
       <c r="B391" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C391" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="D391" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="E391" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -13525,19 +13525,19 @@
         <v>392</v>
       </c>
       <c r="B392" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C392" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D392" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="E392" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -13546,19 +13546,19 @@
         <v>393</v>
       </c>
       <c r="B393" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C393" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D393" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="E393" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -13567,19 +13567,19 @@
         <v>394</v>
       </c>
       <c r="B394" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C394" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="D394" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E394" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -13588,19 +13588,19 @@
         <v>395</v>
       </c>
       <c r="B395" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C395" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D395" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="E395" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -13609,19 +13609,19 @@
         <v>396</v>
       </c>
       <c r="B396" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C396" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="D396" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="E396" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
@@ -13630,19 +13630,19 @@
         <v>397</v>
       </c>
       <c r="B397" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C397" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="D397" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="E397" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
@@ -13651,19 +13651,19 @@
         <v>398</v>
       </c>
       <c r="B398" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C398" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="D398" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="E398" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -13672,19 +13672,19 @@
         <v>399</v>
       </c>
       <c r="B399" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C399" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E399" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F399" s="1" t="s">
         <v>1577</v>
-      </c>
-      <c r="D399" t="s">
-        <v>1578</v>
-      </c>
-      <c r="E399" t="s">
-        <v>1589</v>
-      </c>
-      <c r="F399" s="1" t="s">
-        <v>1579</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -13693,19 +13693,19 @@
         <v>400</v>
       </c>
       <c r="B400" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E400" t="s">
         <v>1600</v>
       </c>
-      <c r="C400" t="s">
-        <v>1601</v>
-      </c>
-      <c r="D400" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E400" t="s">
-        <v>1602</v>
-      </c>
       <c r="F400" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
@@ -13714,19 +13714,19 @@
         <v>401</v>
       </c>
       <c r="B401" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C401" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E401" t="s">
         <v>1604</v>
       </c>
-      <c r="D401" t="s">
-        <v>1605</v>
-      </c>
-      <c r="E401" t="s">
-        <v>1606</v>
-      </c>
       <c r="F401" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
@@ -13735,19 +13735,19 @@
         <v>402</v>
       </c>
       <c r="B402" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C402" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="D402" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E402" t="s">
         <v>1607</v>
       </c>
-      <c r="E402" t="s">
-        <v>1609</v>
-      </c>
       <c r="F402" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -13756,19 +13756,19 @@
         <v>403</v>
       </c>
       <c r="B403" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C403" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E403" t="s">
         <v>1610</v>
       </c>
-      <c r="D403" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E403" t="s">
-        <v>1612</v>
-      </c>
       <c r="F403" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
@@ -13777,19 +13777,19 @@
         <v>404</v>
       </c>
       <c r="B404" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C404" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="D404" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="E404" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -13798,19 +13798,19 @@
         <v>405</v>
       </c>
       <c r="B405" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C405" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E405" t="s">
         <v>1615</v>
       </c>
-      <c r="D405" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E405" t="s">
-        <v>1617</v>
-      </c>
       <c r="F405" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
@@ -13819,19 +13819,19 @@
         <v>406</v>
       </c>
       <c r="B406" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C406" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="D406" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E406" t="s">
         <v>1618</v>
       </c>
-      <c r="E406" t="s">
-        <v>1620</v>
-      </c>
       <c r="F406" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -13840,19 +13840,19 @@
         <v>407</v>
       </c>
       <c r="B407" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C407" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E407" t="s">
         <v>1621</v>
       </c>
-      <c r="D407" s="3" t="s">
-        <v>1622</v>
-      </c>
-      <c r="E407" t="s">
-        <v>1623</v>
-      </c>
       <c r="F407" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
@@ -13861,19 +13861,19 @@
         <v>408</v>
       </c>
       <c r="B408" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C408" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E408" t="s">
         <v>1624</v>
       </c>
-      <c r="D408" s="3" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E408" t="s">
-        <v>1626</v>
-      </c>
       <c r="F408" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
@@ -13882,19 +13882,19 @@
         <v>409</v>
       </c>
       <c r="B409" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C409" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E409" t="s">
         <v>1627</v>
       </c>
-      <c r="D409" t="s">
-        <v>1628</v>
-      </c>
-      <c r="E409" t="s">
-        <v>1629</v>
-      </c>
       <c r="F409" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
@@ -13903,19 +13903,19 @@
         <v>410</v>
       </c>
       <c r="B410" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C410" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D410" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E410" t="s">
         <v>1630</v>
       </c>
-      <c r="E410" t="s">
-        <v>1632</v>
-      </c>
       <c r="F410" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
@@ -13924,19 +13924,19 @@
         <v>411</v>
       </c>
       <c r="B411" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C411" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E411" t="s">
         <v>1633</v>
       </c>
-      <c r="D411" t="s">
-        <v>1634</v>
-      </c>
-      <c r="E411" t="s">
-        <v>1635</v>
-      </c>
       <c r="F411" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -13945,19 +13945,19 @@
         <v>412</v>
       </c>
       <c r="B412" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C412" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E412" t="s">
         <v>1636</v>
       </c>
-      <c r="D412" t="s">
-        <v>1637</v>
-      </c>
-      <c r="E412" t="s">
-        <v>1638</v>
-      </c>
       <c r="F412" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -13966,19 +13966,19 @@
         <v>413</v>
       </c>
       <c r="B413" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C413" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E413" t="s">
         <v>1639</v>
       </c>
-      <c r="D413" t="s">
+      <c r="F413" s="1" t="s">
         <v>1640</v>
-      </c>
-      <c r="E413" t="s">
-        <v>1641</v>
-      </c>
-      <c r="F413" s="1" t="s">
-        <v>1642</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/assets/Cantonese Phrases.xlsx
+++ b/app/src/main/assets/Cantonese Phrases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="1643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="1644">
   <si>
     <t>Basics</t>
   </si>
@@ -4530,9 +4530,6 @@
     <t>我想換過間房</t>
   </si>
   <si>
-    <t>ngóh séung wuhngwo gàanfóng</t>
-  </si>
-  <si>
     <t>When should I vacate the room?</t>
   </si>
   <si>
@@ -4716,18 +4713,12 @@
     <t>你好靚。</t>
   </si>
   <si>
-    <t xml:space="preserve"> I think of you as more than a friend. </t>
-  </si>
-  <si>
     <t>我當你係朋友咋。</t>
   </si>
   <si>
     <t xml:space="preserve">A hundred hearts would be too few to carry all my love for you. </t>
   </si>
   <si>
-    <t>一百個心都裝唔晒我對你嘅</t>
-  </si>
-  <si>
     <t>You're so handsome.</t>
   </si>
   <si>
@@ -4740,9 +4731,6 @@
     <t>我暗戀你。</t>
   </si>
   <si>
-    <t xml:space="preserve"> You make me want to be a better man. </t>
-  </si>
-  <si>
     <t>你令我想成為一個更好嘅</t>
   </si>
   <si>
@@ -4827,9 +4815,6 @@
     <t>Headache</t>
   </si>
   <si>
-    <t>tau4 tung3</t>
-  </si>
-  <si>
     <t>頭痛</t>
   </si>
   <si>
@@ -4839,27 +4824,18 @@
     <t>肚痛</t>
   </si>
   <si>
-    <t>tou5 tung3</t>
-  </si>
-  <si>
     <t>藥</t>
   </si>
   <si>
     <t>Medicine</t>
   </si>
   <si>
-    <t>joek6</t>
-  </si>
-  <si>
     <t>Pharmacy</t>
   </si>
   <si>
     <t>藥房</t>
   </si>
   <si>
-    <t>joek6 fong4</t>
-  </si>
-  <si>
     <t>Doctor</t>
   </si>
   <si>
@@ -4872,18 +4848,12 @@
     <t>白車</t>
   </si>
   <si>
-    <t>baak6 ce1</t>
-  </si>
-  <si>
     <t>醫院</t>
   </si>
   <si>
     <t>Hospital</t>
   </si>
   <si>
-    <t>ji1 jyun6*2</t>
-  </si>
-  <si>
     <t>Help me</t>
   </si>
   <si>
@@ -4908,45 +4878,30 @@
     <t>意外</t>
   </si>
   <si>
-    <t>ji3 ngoi6</t>
-  </si>
-  <si>
     <t>爆血管</t>
   </si>
   <si>
     <t>Stroke</t>
   </si>
   <si>
-    <t>baau3 hyut3 gun2</t>
-  </si>
-  <si>
     <t>Heart Attack</t>
   </si>
   <si>
     <t>心臟病發</t>
   </si>
   <si>
-    <t>sam1 zong6 beng6 faat</t>
-  </si>
-  <si>
     <t>Asthma</t>
   </si>
   <si>
     <t>氣喘病</t>
   </si>
   <si>
-    <t>hei3 cyun2 beng6</t>
-  </si>
-  <si>
     <t>Allergy</t>
   </si>
   <si>
     <t>過敏</t>
   </si>
   <si>
-    <t>gwo3 man5</t>
-  </si>
-  <si>
     <t>file:///android_asset/medical.png</t>
   </si>
   <si>
@@ -4954,6 +4909,54 @@
   </si>
   <si>
     <t>fo gei m̀h' gōi.</t>
+  </si>
+  <si>
+    <t>ngóh séung wuhn gwo gàan fóng</t>
+  </si>
+  <si>
+    <t>一百個心都裝唔晒我對你嘅愛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think of you as more than a friend. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You make me want to be a better man. </t>
+  </si>
+  <si>
+    <t>baau hyut gun</t>
+  </si>
+  <si>
+    <t>tau tung</t>
+  </si>
+  <si>
+    <t>tou tung</t>
+  </si>
+  <si>
+    <t>gwo man</t>
+  </si>
+  <si>
+    <t>joek</t>
+  </si>
+  <si>
+    <t>joek fong</t>
+  </si>
+  <si>
+    <t>baak ce</t>
+  </si>
+  <si>
+    <t>ji jyun*</t>
+  </si>
+  <si>
+    <t>ji ngoi</t>
+  </si>
+  <si>
+    <t>sam zong beng faat</t>
+  </si>
+  <si>
+    <t>hei cyun beng</t>
+  </si>
+  <si>
+    <t>file:///android_asset/driving.png</t>
   </si>
 </sst>
 </file>
@@ -5296,8 +5299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E312" sqref="E312"/>
+    <sheetView tabSelected="1" topLeftCell="A366" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A370" sqref="A370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5506,13 +5509,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D10" t="s">
         <v>1539</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>1540</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1541</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>427</v>
@@ -5527,13 +5530,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D11" t="s">
         <v>1542</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>1543</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1544</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>427</v>
@@ -5548,13 +5551,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D12" t="s">
         <v>1545</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>1546</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1547</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>427</v>
@@ -5569,13 +5572,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D13" t="s">
         <v>1548</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>1549</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1550</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>427</v>
@@ -6037,7 +6040,7 @@
         <v>1465</v>
       </c>
       <c r="E35" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>427</v>
@@ -6094,13 +6097,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D38" t="s">
         <v>1551</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>1552</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1553</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>427</v>
@@ -6154,7 +6157,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C41" t="s">
         <v>467</v>
@@ -6175,7 +6178,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C42" t="s">
         <v>468</v>
@@ -6196,7 +6199,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C43" t="s">
         <v>469</v>
@@ -6217,7 +6220,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C44" t="s">
         <v>470</v>
@@ -6238,7 +6241,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C45" t="s">
         <v>1475</v>
@@ -6259,7 +6262,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C46" t="s">
         <v>471</v>
@@ -6280,7 +6283,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C47" t="s">
         <v>1472</v>
@@ -6301,7 +6304,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C48" t="s">
         <v>472</v>
@@ -6322,7 +6325,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C49" t="s">
         <v>473</v>
@@ -6343,7 +6346,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C50" t="s">
         <v>474</v>
@@ -6364,7 +6367,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C51" t="s">
         <v>475</v>
@@ -6385,7 +6388,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C52" t="s">
         <v>476</v>
@@ -6406,7 +6409,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C53" t="s">
         <v>477</v>
@@ -6427,7 +6430,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C54" t="s">
         <v>478</v>
@@ -6448,7 +6451,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C55" t="s">
         <v>479</v>
@@ -6469,7 +6472,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C56" t="s">
         <v>480</v>
@@ -6490,7 +6493,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C57" t="s">
         <v>481</v>
@@ -6511,7 +6514,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C58" t="s">
         <v>482</v>
@@ -6532,7 +6535,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C59" t="s">
         <v>483</v>
@@ -6553,7 +6556,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C60" t="s">
         <v>484</v>
@@ -6574,7 +6577,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C61" t="s">
         <v>485</v>
@@ -6595,7 +6598,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C62" t="s">
         <v>486</v>
@@ -6616,7 +6619,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C63" t="s">
         <v>487</v>
@@ -6637,7 +6640,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C64" t="s">
         <v>488</v>
@@ -8032,7 +8035,7 @@
         <v>1215</v>
       </c>
       <c r="E130" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>430</v>
@@ -8074,7 +8077,7 @@
         <v>1217</v>
       </c>
       <c r="E132" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>430</v>
@@ -8095,7 +8098,7 @@
         <v>1218</v>
       </c>
       <c r="E133" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>430</v>
@@ -9061,7 +9064,7 @@
         <v>1264</v>
       </c>
       <c r="E179" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>432</v>
@@ -9964,7 +9967,7 @@
         <v>1500</v>
       </c>
       <c r="E222" t="s">
-        <v>1501</v>
+        <v>1628</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>433</v>
@@ -9979,13 +9982,13 @@
         <v>397</v>
       </c>
       <c r="C223" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D223" t="s">
         <v>1502</v>
       </c>
-      <c r="D223" t="s">
+      <c r="E223" t="s">
         <v>1503</v>
-      </c>
-      <c r="E223" t="s">
-        <v>1504</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>433</v>
@@ -10627,7 +10630,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C254" t="s">
         <v>399</v>
@@ -10648,7 +10651,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C255" t="s">
         <v>400</v>
@@ -10669,7 +10672,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C256" t="s">
         <v>401</v>
@@ -10690,7 +10693,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C257" t="s">
         <v>402</v>
@@ -10711,7 +10714,7 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C258" t="s">
         <v>403</v>
@@ -10732,7 +10735,7 @@
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C259" t="s">
         <v>404</v>
@@ -10753,7 +10756,7 @@
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C260" t="s">
         <v>405</v>
@@ -10774,7 +10777,7 @@
         <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C261" t="s">
         <v>406</v>
@@ -10906,10 +10909,10 @@
         <v>676</v>
       </c>
       <c r="D267" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E267" t="s">
         <v>1511</v>
-      </c>
-      <c r="E267" t="s">
-        <v>1512</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>435</v>
@@ -11029,13 +11032,13 @@
         <v>423</v>
       </c>
       <c r="C273" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D273" t="s">
         <v>1505</v>
       </c>
-      <c r="D273" t="s">
+      <c r="E273" t="s">
         <v>1506</v>
-      </c>
-      <c r="E273" t="s">
-        <v>1507</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>435</v>
@@ -11050,13 +11053,13 @@
         <v>423</v>
       </c>
       <c r="C274" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D274" t="s">
         <v>1508</v>
       </c>
-      <c r="D274" t="s">
+      <c r="E274" t="s">
         <v>1509</v>
-      </c>
-      <c r="E274" t="s">
-        <v>1510</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>435</v>
@@ -11194,7 +11197,7 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C281" t="s">
         <v>687</v>
@@ -11215,7 +11218,7 @@
         <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C282" t="s">
         <v>688</v>
@@ -11236,7 +11239,7 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C283" t="s">
         <v>689</v>
@@ -11257,7 +11260,7 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C284" t="s">
         <v>690</v>
@@ -11278,7 +11281,7 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C285" t="s">
         <v>691</v>
@@ -11299,7 +11302,7 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C286" t="s">
         <v>692</v>
@@ -11320,7 +11323,7 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C287" t="s">
         <v>693</v>
@@ -11341,7 +11344,7 @@
         <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C288" t="s">
         <v>694</v>
@@ -11362,7 +11365,7 @@
         <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C289" t="s">
         <v>695</v>
@@ -11383,7 +11386,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C290" t="s">
         <v>696</v>
@@ -11404,7 +11407,7 @@
         <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C291" t="s">
         <v>697</v>
@@ -11425,7 +11428,7 @@
         <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C292" t="s">
         <v>698</v>
@@ -11446,7 +11449,7 @@
         <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C293" t="s">
         <v>699</v>
@@ -11467,7 +11470,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C294" t="s">
         <v>700</v>
@@ -11488,7 +11491,7 @@
         <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C295" t="s">
         <v>701</v>
@@ -11509,7 +11512,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C296" t="s">
         <v>702</v>
@@ -11530,7 +11533,7 @@
         <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C297" t="s">
         <v>703</v>
@@ -11551,7 +11554,7 @@
         <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C298" t="s">
         <v>704</v>
@@ -11572,7 +11575,7 @@
         <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C299" t="s">
         <v>705</v>
@@ -11593,7 +11596,7 @@
         <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C300" t="s">
         <v>706</v>
@@ -11614,7 +11617,7 @@
         <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C301" t="s">
         <v>707</v>
@@ -11635,7 +11638,7 @@
         <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C302" t="s">
         <v>708</v>
@@ -11656,7 +11659,7 @@
         <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C303" t="s">
         <v>709</v>
@@ -11677,7 +11680,7 @@
         <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C304" t="s">
         <v>710</v>
@@ -11698,7 +11701,7 @@
         <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C305" t="s">
         <v>711</v>
@@ -11719,7 +11722,7 @@
         <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C306" t="s">
         <v>712</v>
@@ -11740,7 +11743,7 @@
         <v>307</v>
       </c>
       <c r="B307" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C307" t="s">
         <v>713</v>
@@ -11761,7 +11764,7 @@
         <v>308</v>
       </c>
       <c r="B308" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C308" t="s">
         <v>714</v>
@@ -11782,7 +11785,7 @@
         <v>309</v>
       </c>
       <c r="B309" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C309" t="s">
         <v>715</v>
@@ -11803,7 +11806,7 @@
         <v>310</v>
       </c>
       <c r="B310" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C310" t="s">
         <v>716</v>
@@ -11830,10 +11833,10 @@
         <v>717</v>
       </c>
       <c r="D311" t="s">
-        <v>1641</v>
+        <v>1626</v>
       </c>
       <c r="E311" t="s">
-        <v>1642</v>
+        <v>1627</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>435</v>
@@ -13045,13 +13048,13 @@
         <v>425</v>
       </c>
       <c r="C369" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D369" t="s">
         <v>1554</v>
       </c>
-      <c r="D369" t="s">
+      <c r="E369" t="s">
         <v>1555</v>
-      </c>
-      <c r="E369" t="s">
-        <v>1556</v>
       </c>
       <c r="F369" s="1" t="s">
         <v>437</v>
@@ -13063,7 +13066,7 @@
         <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="C370" t="s">
         <v>773</v>
@@ -13075,7 +13078,7 @@
         <v>1095</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>432</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -13084,7 +13087,7 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="C371" t="s">
         <v>774</v>
@@ -13096,7 +13099,7 @@
         <v>1096</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>432</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -13105,7 +13108,7 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="C372" t="s">
         <v>775</v>
@@ -13117,7 +13120,7 @@
         <v>1097</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>432</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -13126,7 +13129,7 @@
         <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="C373" t="s">
         <v>776</v>
@@ -13138,7 +13141,7 @@
         <v>1098</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>432</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -13147,7 +13150,7 @@
         <v>374</v>
       </c>
       <c r="B374" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="C374" t="s">
         <v>777</v>
@@ -13159,7 +13162,7 @@
         <v>1099</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>432</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -13168,7 +13171,7 @@
         <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="C375" t="s">
         <v>778</v>
@@ -13180,7 +13183,7 @@
         <v>1100</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>432</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -13189,7 +13192,7 @@
         <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="C376" t="s">
         <v>779</v>
@@ -13201,7 +13204,7 @@
         <v>1101</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>432</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
@@ -13210,7 +13213,7 @@
         <v>377</v>
       </c>
       <c r="B377" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="C377" t="s">
         <v>780</v>
@@ -13222,7 +13225,7 @@
         <v>1102</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>432</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -13231,7 +13234,7 @@
         <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="C378" t="s">
         <v>781</v>
@@ -13243,7 +13246,7 @@
         <v>1103</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>432</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -13252,7 +13255,7 @@
         <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="C379" t="s">
         <v>782</v>
@@ -13264,7 +13267,7 @@
         <v>1104</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>432</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -13273,7 +13276,7 @@
         <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C380" t="s">
         <v>1469</v>
@@ -13285,7 +13288,7 @@
         <v>1471</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -13294,19 +13297,19 @@
         <v>381</v>
       </c>
       <c r="B381" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C381" t="s">
         <v>1513</v>
       </c>
-      <c r="C381" t="s">
+      <c r="D381" t="s">
         <v>1514</v>
       </c>
-      <c r="D381" t="s">
+      <c r="E381" t="s">
         <v>1515</v>
       </c>
-      <c r="E381" t="s">
-        <v>1516</v>
-      </c>
       <c r="F381" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -13315,19 +13318,19 @@
         <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C382" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D382" t="s">
         <v>1517</v>
       </c>
-      <c r="D382" t="s">
-        <v>1518</v>
-      </c>
       <c r="E382" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -13336,19 +13339,19 @@
         <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C383" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D383" t="s">
         <v>1519</v>
       </c>
-      <c r="D383" t="s">
+      <c r="E383" t="s">
         <v>1520</v>
       </c>
-      <c r="E383" t="s">
-        <v>1521</v>
-      </c>
       <c r="F383" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
@@ -13357,19 +13360,19 @@
         <v>384</v>
       </c>
       <c r="B384" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C384" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D384" t="s">
         <v>1522</v>
       </c>
-      <c r="D384" t="s">
+      <c r="E384" t="s">
         <v>1523</v>
       </c>
-      <c r="E384" t="s">
-        <v>1524</v>
-      </c>
       <c r="F384" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -13378,19 +13381,19 @@
         <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C385" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D385" t="s">
         <v>1525</v>
       </c>
-      <c r="D385" t="s">
+      <c r="E385" t="s">
         <v>1526</v>
       </c>
-      <c r="E385" t="s">
-        <v>1527</v>
-      </c>
       <c r="F385" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -13399,19 +13402,19 @@
         <v>386</v>
       </c>
       <c r="B386" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C386" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D386" t="s">
         <v>1528</v>
       </c>
-      <c r="D386" t="s">
-        <v>1529</v>
-      </c>
       <c r="E386" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -13420,19 +13423,19 @@
         <v>387</v>
       </c>
       <c r="B387" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C387" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D387" t="s">
         <v>1530</v>
       </c>
-      <c r="D387" t="s">
+      <c r="E387" t="s">
         <v>1531</v>
       </c>
-      <c r="E387" t="s">
-        <v>1532</v>
-      </c>
       <c r="F387" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -13441,19 +13444,19 @@
         <v>388</v>
       </c>
       <c r="B388" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C388" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D388" t="s">
         <v>1533</v>
       </c>
-      <c r="D388" t="s">
+      <c r="E388" t="s">
         <v>1534</v>
       </c>
-      <c r="E388" t="s">
-        <v>1535</v>
-      </c>
       <c r="F388" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -13462,19 +13465,19 @@
         <v>389</v>
       </c>
       <c r="B389" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C389" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D389" t="s">
         <v>1536</v>
       </c>
-      <c r="D389" t="s">
+      <c r="E389" t="s">
         <v>1537</v>
       </c>
-      <c r="E389" t="s">
-        <v>1538</v>
-      </c>
       <c r="F389" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -13483,19 +13486,19 @@
         <v>390</v>
       </c>
       <c r="B390" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C390" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D390" t="s">
         <v>1557</v>
       </c>
-      <c r="D390" t="s">
-        <v>1558</v>
-      </c>
       <c r="E390" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -13504,19 +13507,19 @@
         <v>391</v>
       </c>
       <c r="B391" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C391" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D391" t="s">
         <v>1559</v>
       </c>
-      <c r="D391" t="s">
-        <v>1560</v>
-      </c>
       <c r="E391" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -13525,19 +13528,19 @@
         <v>392</v>
       </c>
       <c r="B392" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C392" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D392" t="s">
         <v>1561</v>
       </c>
-      <c r="D392" t="s">
-        <v>1562</v>
-      </c>
       <c r="E392" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -13546,19 +13549,19 @@
         <v>393</v>
       </c>
       <c r="B393" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C393" t="s">
-        <v>1563</v>
+        <v>1630</v>
       </c>
       <c r="D393" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="E393" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -13567,19 +13570,19 @@
         <v>394</v>
       </c>
       <c r="B394" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C394" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D394" t="s">
-        <v>1566</v>
+        <v>1629</v>
       </c>
       <c r="E394" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -13588,19 +13591,19 @@
         <v>395</v>
       </c>
       <c r="B395" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C395" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="D395" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="E395" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -13609,19 +13612,19 @@
         <v>396</v>
       </c>
       <c r="B396" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C396" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="D396" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="E396" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
@@ -13630,19 +13633,19 @@
         <v>397</v>
       </c>
       <c r="B397" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C397" t="s">
-        <v>1571</v>
+        <v>1631</v>
       </c>
       <c r="D397" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="E397" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
@@ -13651,19 +13654,19 @@
         <v>398</v>
       </c>
       <c r="B398" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C398" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E398" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F398" s="1" t="s">
         <v>1573</v>
-      </c>
-      <c r="D398" t="s">
-        <v>1574</v>
-      </c>
-      <c r="E398" t="s">
-        <v>1586</v>
-      </c>
-      <c r="F398" s="1" t="s">
-        <v>1577</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -13672,19 +13675,19 @@
         <v>399</v>
       </c>
       <c r="B399" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C399" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="D399" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="E399" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -13693,19 +13696,19 @@
         <v>400</v>
       </c>
       <c r="B400" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C400" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="D400" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="E400" t="s">
-        <v>1600</v>
+        <v>1633</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
@@ -13714,19 +13717,19 @@
         <v>401</v>
       </c>
       <c r="B401" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D401" t="s">
         <v>1598</v>
       </c>
-      <c r="C401" t="s">
-        <v>1602</v>
-      </c>
-      <c r="D401" t="s">
-        <v>1603</v>
-      </c>
       <c r="E401" t="s">
-        <v>1604</v>
+        <v>1634</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
@@ -13735,19 +13738,19 @@
         <v>402</v>
       </c>
       <c r="B402" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C402" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="D402" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="E402" t="s">
-        <v>1607</v>
+        <v>1636</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -13756,19 +13759,19 @@
         <v>403</v>
       </c>
       <c r="B403" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C403" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
       <c r="D403" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="E403" t="s">
-        <v>1610</v>
+        <v>1637</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
@@ -13777,19 +13780,19 @@
         <v>404</v>
       </c>
       <c r="B404" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C404" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="D404" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="E404" t="s">
-        <v>1610</v>
+        <v>1637</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -13798,19 +13801,19 @@
         <v>405</v>
       </c>
       <c r="B405" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C405" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="D405" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="E405" t="s">
-        <v>1615</v>
+        <v>1638</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
@@ -13819,19 +13822,19 @@
         <v>406</v>
       </c>
       <c r="B406" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C406" t="s">
-        <v>1617</v>
+        <v>1608</v>
       </c>
       <c r="D406" t="s">
-        <v>1616</v>
+        <v>1607</v>
       </c>
       <c r="E406" t="s">
-        <v>1618</v>
+        <v>1639</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -13840,19 +13843,19 @@
         <v>407</v>
       </c>
       <c r="B407" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C407" t="s">
-        <v>1619</v>
+        <v>1609</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>1620</v>
+        <v>1610</v>
       </c>
       <c r="E407" t="s">
-        <v>1621</v>
+        <v>1611</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
@@ -13861,19 +13864,19 @@
         <v>408</v>
       </c>
       <c r="B408" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C408" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>1623</v>
+        <v>1613</v>
       </c>
       <c r="E408" t="s">
-        <v>1624</v>
+        <v>1614</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
@@ -13882,19 +13885,19 @@
         <v>409</v>
       </c>
       <c r="B409" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C409" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F409" s="1" t="s">
         <v>1625</v>
-      </c>
-      <c r="D409" t="s">
-        <v>1626</v>
-      </c>
-      <c r="E409" t="s">
-        <v>1627</v>
-      </c>
-      <c r="F409" s="1" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
@@ -13903,19 +13906,19 @@
         <v>410</v>
       </c>
       <c r="B410" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C410" t="s">
-        <v>1629</v>
+        <v>1618</v>
       </c>
       <c r="D410" t="s">
-        <v>1628</v>
+        <v>1617</v>
       </c>
       <c r="E410" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
@@ -13924,19 +13927,19 @@
         <v>411</v>
       </c>
       <c r="B411" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C411" t="s">
-        <v>1631</v>
+        <v>1619</v>
       </c>
       <c r="D411" t="s">
-        <v>1632</v>
+        <v>1620</v>
       </c>
       <c r="E411" t="s">
-        <v>1633</v>
+        <v>1641</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -13945,19 +13948,19 @@
         <v>412</v>
       </c>
       <c r="B412" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C412" t="s">
-        <v>1634</v>
+        <v>1621</v>
       </c>
       <c r="D412" t="s">
-        <v>1635</v>
+        <v>1622</v>
       </c>
       <c r="E412" t="s">
-        <v>1636</v>
+        <v>1642</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -13966,19 +13969,19 @@
         <v>413</v>
       </c>
       <c r="B413" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C413" t="s">
-        <v>1637</v>
+        <v>1623</v>
       </c>
       <c r="D413" t="s">
-        <v>1638</v>
+        <v>1624</v>
       </c>
       <c r="E413" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
     </row>
   </sheetData>
@@ -14003,17 +14006,17 @@
     <hyperlink ref="F335" r:id="rId18"/>
     <hyperlink ref="F336:F368" r:id="rId19" display="file:///android_asset/shopping.png"/>
     <hyperlink ref="F370" r:id="rId20"/>
-    <hyperlink ref="F371:F379" r:id="rId21" display="file:///android_asset/getting_around.png"/>
-    <hyperlink ref="F2" r:id="rId22"/>
-    <hyperlink ref="F37" r:id="rId23"/>
-    <hyperlink ref="F380" r:id="rId24"/>
-    <hyperlink ref="F39" r:id="rId25"/>
-    <hyperlink ref="F40" r:id="rId26"/>
-    <hyperlink ref="F38" r:id="rId27"/>
-    <hyperlink ref="F369" r:id="rId28"/>
-    <hyperlink ref="F381:F399" r:id="rId29" display="file:///android_asset/love.png"/>
-    <hyperlink ref="F400" r:id="rId30"/>
-    <hyperlink ref="F401:F413" r:id="rId31" display="file:///android_asset/medical.png"/>
+    <hyperlink ref="F2" r:id="rId21"/>
+    <hyperlink ref="F37" r:id="rId22"/>
+    <hyperlink ref="F380" r:id="rId23"/>
+    <hyperlink ref="F39" r:id="rId24"/>
+    <hyperlink ref="F40" r:id="rId25"/>
+    <hyperlink ref="F38" r:id="rId26"/>
+    <hyperlink ref="F369" r:id="rId27"/>
+    <hyperlink ref="F381:F399" r:id="rId28" display="file:///android_asset/love.png"/>
+    <hyperlink ref="F400" r:id="rId29"/>
+    <hyperlink ref="F401:F413" r:id="rId30" display="file:///android_asset/medical.png"/>
+    <hyperlink ref="F371:F379" r:id="rId31" display="file:///android_asset/driving.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/src/main/assets/Cantonese Phrases.xlsx
+++ b/app/src/main/assets/Cantonese Phrases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="1902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2854" uniqueCount="1887">
   <si>
     <t>Basics</t>
   </si>
@@ -1482,9 +1482,6 @@
     <t>I want to talk to a lawyer.</t>
   </si>
   <si>
-    <t>Can I just pay a fine now?</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -2169,9 +2166,6 @@
     <t>A bottle, please.</t>
   </si>
   <si>
-    <t>_____ (''hard liquor'') and _____ (''mixer''), please.</t>
-  </si>
-  <si>
     <t>whiskey</t>
   </si>
   <si>
@@ -2385,9 +2379,6 @@
     <t>Ngóh yiu wán leuht sī.</t>
   </si>
   <si>
-    <t>Hó-m̀h-hó'yi jauh gám faht chín?</t>
-  </si>
-  <si>
     <t>yāt</t>
   </si>
   <si>
@@ -3009,9 +3000,6 @@
     <t>Yāt ''pint'', m̀h'gōi.</t>
   </si>
   <si>
-    <t>_____ tùhng _____, m̀h'gōi.</t>
-  </si>
-  <si>
     <t>wāi si géi</t>
   </si>
   <si>
@@ -3237,9 +3225,6 @@
     <t>我要搵律師.</t>
   </si>
   <si>
-    <t>可唔可以就咁罰錢呀?</t>
-  </si>
-  <si>
     <t>一</t>
   </si>
   <si>
@@ -3906,9 +3891,6 @@
     <t>一樽, 唔該.</t>
   </si>
   <si>
-    <t>_____同_____, 唔該.</t>
-  </si>
-  <si>
     <t>威士忌</t>
   </si>
   <si>
@@ -4119,9 +4101,6 @@
     <t>tìhng dài!</t>
   </si>
   <si>
-    <t>Happy Birthday</t>
-  </si>
-  <si>
     <t xml:space="preserve">生日快樂 </t>
   </si>
   <si>
@@ -4338,9 +4317,6 @@
     <t>Nei gei seoi aa?</t>
   </si>
   <si>
-    <t>Big/Small</t>
-  </si>
-  <si>
     <t>Daai / sai</t>
   </si>
   <si>
@@ -4443,9 +4419,6 @@
     <t>Emergency</t>
   </si>
   <si>
-    <t>Menu</t>
-  </si>
-  <si>
     <t>Medical</t>
   </si>
   <si>
@@ -4581,12 +4554,6 @@
     <t>gei1 coeng4 fai sin</t>
   </si>
   <si>
-    <t>Guangzhou Baiyun International Airport</t>
-  </si>
-  <si>
-    <t>gwong2 zau1 baak6 wan4 kwok gei1 coeng4</t>
-  </si>
-  <si>
     <t>Hong Kong International Airport (Chek Lap Kok Airport)</t>
   </si>
   <si>
@@ -4725,9 +4692,6 @@
     <t>機場快綫</t>
   </si>
   <si>
-    <t>廣州白雲國際機場</t>
-  </si>
-  <si>
     <t>赤鱲角機場</t>
   </si>
   <si>
@@ -4872,9 +4836,6 @@
     <t>… international airport</t>
   </si>
   <si>
-    <t>… Airport Express (MTR Line)</t>
-  </si>
-  <si>
     <t>… airport bureau</t>
   </si>
   <si>
@@ -5025,12 +4986,6 @@
     <t>leng3</t>
   </si>
   <si>
-    <t>豔</t>
-  </si>
-  <si>
-    <t>jim6</t>
-  </si>
-  <si>
     <t>靚爆鏡</t>
   </si>
   <si>
@@ -5229,15 +5184,6 @@
     <t>jau5 mou5 zit3?</t>
   </si>
   <si>
-    <t>You are cheating!</t>
-  </si>
-  <si>
-    <t>你偷食！</t>
-  </si>
-  <si>
-    <t>nei tau1 sik6</t>
-  </si>
-  <si>
     <t>… 服裝</t>
   </si>
   <si>
@@ -5706,18 +5652,12 @@
     <t>file:///android_asset/taxi.png</t>
   </si>
   <si>
-    <t>file:///android_asset/menu.png</t>
-  </si>
-  <si>
     <t>… dress, clothing, clothes</t>
   </si>
   <si>
     <t>… a dress, women's clothing</t>
   </si>
   <si>
-    <t>... Beautiful, sexy, voluptuous</t>
-  </si>
-  <si>
     <t>… currency conversion, exchange rate</t>
   </si>
   <si>
@@ -5730,7 +5670,22 @@
     <t>唔該幫我影相</t>
   </si>
   <si>
-    <t>jing2 soeng3</t>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>… Airport Express</t>
+  </si>
+  <si>
+    <t>Big / Small</t>
+  </si>
+  <si>
+    <t>mh' goi bong ngoh jing2 soeng3</t>
+  </si>
+  <si>
+    <t>Happy birthday</t>
+  </si>
+  <si>
+    <t>file:///android_asset/food.png</t>
   </si>
 </sst>
 </file>
@@ -6077,10 +6032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F499"/>
+  <dimension ref="A1:F494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A276" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D286" sqref="D286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6103,10 +6058,10 @@
         <v>442</v>
       </c>
       <c r="D1" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="E1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>427</v>
@@ -6121,13 +6076,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1882</v>
+        <v>1864</v>
       </c>
       <c r="D2" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="E2" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>427</v>
@@ -6135,7 +6090,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A67" si="0">A2+1</f>
+        <f t="shared" ref="A3:A66" si="0">A2+1</f>
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -6145,10 +6100,10 @@
         <v>443</v>
       </c>
       <c r="D3" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>427</v>
@@ -6166,10 +6121,10 @@
         <v>444</v>
       </c>
       <c r="D4" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>427</v>
@@ -6187,10 +6142,10 @@
         <v>445</v>
       </c>
       <c r="D5" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="E5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>427</v>
@@ -6208,10 +6163,10 @@
         <v>446</v>
       </c>
       <c r="D6" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="E6" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>427</v>
@@ -6229,10 +6184,10 @@
         <v>447</v>
       </c>
       <c r="D7" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="E7" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>427</v>
@@ -6250,10 +6205,10 @@
         <v>448</v>
       </c>
       <c r="D8" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>427</v>
@@ -6271,10 +6226,10 @@
         <v>449</v>
       </c>
       <c r="D9" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="E9" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>427</v>
@@ -6289,13 +6244,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
       <c r="D10" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
       <c r="E10" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>427</v>
@@ -6310,13 +6265,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>1426</v>
+        <v>1419</v>
       </c>
       <c r="D11" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
       <c r="E11" t="s">
-        <v>1428</v>
+        <v>1421</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>427</v>
@@ -6331,13 +6286,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>1429</v>
+        <v>1422</v>
       </c>
       <c r="D12" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="E12" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>427</v>
@@ -6352,13 +6307,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
       <c r="D13" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="E13" t="s">
-        <v>1883</v>
+        <v>1865</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>427</v>
@@ -6376,10 +6331,10 @@
         <v>450</v>
       </c>
       <c r="D14" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="E14" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>427</v>
@@ -6397,10 +6352,10 @@
         <v>451</v>
       </c>
       <c r="D15" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="E15" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>427</v>
@@ -6418,10 +6373,10 @@
         <v>452</v>
       </c>
       <c r="D16" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="E16" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>427</v>
@@ -6439,10 +6394,10 @@
         <v>453</v>
       </c>
       <c r="D17" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E17" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>427</v>
@@ -6460,10 +6415,10 @@
         <v>454</v>
       </c>
       <c r="D18" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="E18" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>427</v>
@@ -6481,10 +6436,10 @@
         <v>455</v>
       </c>
       <c r="D19" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="E19" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>427</v>
@@ -6502,10 +6457,10 @@
         <v>456</v>
       </c>
       <c r="D20" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E20" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>427</v>
@@ -6523,10 +6478,10 @@
         <v>457</v>
       </c>
       <c r="D21" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="E21" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>427</v>
@@ -6544,10 +6499,10 @@
         <v>458</v>
       </c>
       <c r="D22" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="E22" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>427</v>
@@ -6565,10 +6520,10 @@
         <v>459</v>
       </c>
       <c r="D23" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E23" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>427</v>
@@ -6586,10 +6541,10 @@
         <v>460</v>
       </c>
       <c r="D24" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="E24" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>427</v>
@@ -6607,10 +6562,10 @@
         <v>461</v>
       </c>
       <c r="D25" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="E25" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>427</v>
@@ -6625,13 +6580,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="D26" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="E26" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>427</v>
@@ -6649,10 +6604,10 @@
         <v>462</v>
       </c>
       <c r="D27" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="E27" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>427</v>
@@ -6670,10 +6625,10 @@
         <v>463</v>
       </c>
       <c r="D28" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="E28" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>427</v>
@@ -6691,10 +6646,10 @@
         <v>464</v>
       </c>
       <c r="D29" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="E29" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>427</v>
@@ -6709,13 +6664,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="D30" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="E30" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>427</v>
@@ -6730,13 +6685,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="D31" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="E31" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>427</v>
@@ -6751,13 +6706,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="D32" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="E32" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>427</v>
@@ -6775,10 +6730,10 @@
         <v>465</v>
       </c>
       <c r="D33" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="E33" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>427</v>
@@ -6793,13 +6748,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="D34" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="E34" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>427</v>
@@ -6814,13 +6769,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="D35" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="E35" t="s">
-        <v>1468</v>
+        <v>1460</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>427</v>
@@ -6838,10 +6793,10 @@
         <v>466</v>
       </c>
       <c r="D36" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="E36" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>427</v>
@@ -6856,13 +6811,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="D37" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="E37" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>427</v>
@@ -6877,13 +6832,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="D38" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="E38" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>427</v>
@@ -6898,13 +6853,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>1364</v>
+        <v>1885</v>
       </c>
       <c r="D39" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="E39" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>427</v>
@@ -6919,13 +6874,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="D40" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="E40" t="s">
-        <v>1884</v>
+        <v>1866</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>427</v>
@@ -6940,13 +6895,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>1899</v>
+        <v>1879</v>
       </c>
       <c r="D41" t="s">
-        <v>1900</v>
+        <v>1880</v>
       </c>
       <c r="E41" t="s">
-        <v>1901</v>
+        <v>1884</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>427</v>
@@ -6958,16 +6913,16 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C42" t="s">
         <v>467</v>
       </c>
       <c r="D42" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="E42" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>428</v>
@@ -6979,16 +6934,16 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C43" t="s">
         <v>468</v>
       </c>
       <c r="D43" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="E43" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>428</v>
@@ -7000,16 +6955,16 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C44" t="s">
-        <v>1887</v>
+        <v>1869</v>
       </c>
       <c r="D44" t="s">
-        <v>1885</v>
+        <v>1867</v>
       </c>
       <c r="E44" t="s">
-        <v>1886</v>
+        <v>1868</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>428</v>
@@ -7021,16 +6976,16 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C45" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="D45" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="E45" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>428</v>
@@ -7042,13 +6997,13 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C46" t="s">
         <v>469</v>
       </c>
       <c r="D46" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E46" t="s">
         <v>438</v>
@@ -7063,16 +7018,16 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C47" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="D47" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="E47" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>428</v>
@@ -7084,16 +7039,16 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C48" t="s">
         <v>470</v>
       </c>
       <c r="D48" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="E48" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>428</v>
@@ -7105,16 +7060,16 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C49" t="s">
         <v>471</v>
       </c>
       <c r="D49" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="E49" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>428</v>
@@ -7126,16 +7081,16 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C50" t="s">
-        <v>472</v>
+        <v>1870</v>
       </c>
       <c r="D50" t="s">
-        <v>1057</v>
+        <v>1856</v>
       </c>
       <c r="E50" t="s">
-        <v>773</v>
+        <v>1857</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>428</v>
@@ -7147,16 +7102,16 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D51" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="E51" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>428</v>
@@ -7168,16 +7123,16 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C52" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D52" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="E52" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>428</v>
@@ -7189,16 +7144,16 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C53" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D53" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="E53" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>428</v>
@@ -7210,16 +7165,16 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C54" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D54" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="E54" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>428</v>
@@ -7231,16 +7186,16 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C55" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D55" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="E55" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>428</v>
@@ -7252,16 +7207,16 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C56" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D56" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="E56" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>428</v>
@@ -7273,16 +7228,16 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C57" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D57" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="E57" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>428</v>
@@ -7294,16 +7249,16 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C58" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D58" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="E58" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>428</v>
@@ -7315,16 +7270,16 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C59" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D59" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="E59" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>428</v>
@@ -7336,16 +7291,16 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D60" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="E60" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>428</v>
@@ -7357,16 +7312,16 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C61" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D61" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="E61" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>428</v>
@@ -7378,19 +7333,19 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>1471</v>
+        <v>394</v>
       </c>
       <c r="C62" t="s">
-        <v>1888</v>
+        <v>485</v>
       </c>
       <c r="D62" t="s">
-        <v>1874</v>
+        <v>1066</v>
       </c>
       <c r="E62" t="s">
-        <v>1875</v>
+        <v>784</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -7405,10 +7360,10 @@
         <v>486</v>
       </c>
       <c r="D63" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="E63" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>429</v>
@@ -7426,10 +7381,10 @@
         <v>487</v>
       </c>
       <c r="D64" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E64" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>429</v>
@@ -7447,10 +7402,10 @@
         <v>488</v>
       </c>
       <c r="D65" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="E65" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>429</v>
@@ -7468,10 +7423,10 @@
         <v>489</v>
       </c>
       <c r="D66" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="E66" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>429</v>
@@ -7479,7 +7434,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A67:A130" si="1">A66+1</f>
         <v>67</v>
       </c>
       <c r="B67" t="s">
@@ -7489,10 +7444,10 @@
         <v>490</v>
       </c>
       <c r="D67" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="E67" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>429</v>
@@ -7500,7 +7455,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
-        <f t="shared" ref="A68:A131" si="1">A67+1</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B68" t="s">
@@ -7510,10 +7465,10 @@
         <v>491</v>
       </c>
       <c r="D68" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="E68" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>429</v>
@@ -7531,10 +7486,10 @@
         <v>492</v>
       </c>
       <c r="D69" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="E69" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>429</v>
@@ -7552,10 +7507,10 @@
         <v>493</v>
       </c>
       <c r="D70" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="E70" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>429</v>
@@ -7573,10 +7528,10 @@
         <v>494</v>
       </c>
       <c r="D71" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="E71" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>429</v>
@@ -7594,10 +7549,10 @@
         <v>495</v>
       </c>
       <c r="D72" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="E72" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>429</v>
@@ -7615,10 +7570,10 @@
         <v>496</v>
       </c>
       <c r="D73" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="E73" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>429</v>
@@ -7636,10 +7591,10 @@
         <v>497</v>
       </c>
       <c r="D74" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="E74" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>429</v>
@@ -7657,10 +7612,10 @@
         <v>498</v>
       </c>
       <c r="D75" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="E75" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>429</v>
@@ -7678,10 +7633,10 @@
         <v>499</v>
       </c>
       <c r="D76" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="E76" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>429</v>
@@ -7699,10 +7654,10 @@
         <v>500</v>
       </c>
       <c r="D77" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="E77" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>429</v>
@@ -7720,10 +7675,10 @@
         <v>501</v>
       </c>
       <c r="D78" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="E78" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>429</v>
@@ -7741,10 +7696,10 @@
         <v>502</v>
       </c>
       <c r="D79" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="E79" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>429</v>
@@ -7762,10 +7717,10 @@
         <v>503</v>
       </c>
       <c r="D80" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="E80" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>429</v>
@@ -7783,10 +7738,10 @@
         <v>504</v>
       </c>
       <c r="D81" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E81" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>429</v>
@@ -7804,10 +7759,10 @@
         <v>505</v>
       </c>
       <c r="D82" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E82" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>429</v>
@@ -7825,10 +7780,10 @@
         <v>506</v>
       </c>
       <c r="D83" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="E83" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>429</v>
@@ -7846,10 +7801,10 @@
         <v>507</v>
       </c>
       <c r="D84" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="E84" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>429</v>
@@ -7867,10 +7822,10 @@
         <v>508</v>
       </c>
       <c r="D85" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="E85" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>429</v>
@@ -7888,10 +7843,10 @@
         <v>509</v>
       </c>
       <c r="D86" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="E86" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>429</v>
@@ -7909,10 +7864,10 @@
         <v>510</v>
       </c>
       <c r="D87" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="E87" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>429</v>
@@ -7930,10 +7885,10 @@
         <v>511</v>
       </c>
       <c r="D88" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="E88" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>429</v>
@@ -7951,10 +7906,10 @@
         <v>512</v>
       </c>
       <c r="D89" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="E89" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>429</v>
@@ -7972,10 +7927,10 @@
         <v>513</v>
       </c>
       <c r="D90" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="E90" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>429</v>
@@ -7993,10 +7948,10 @@
         <v>514</v>
       </c>
       <c r="D91" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="E91" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>429</v>
@@ -8014,10 +7969,10 @@
         <v>515</v>
       </c>
       <c r="D92" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="E92" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>429</v>
@@ -8035,10 +7990,10 @@
         <v>516</v>
       </c>
       <c r="D93" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="E93" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>429</v>
@@ -8056,10 +8011,10 @@
         <v>517</v>
       </c>
       <c r="D94" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="E94" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>429</v>
@@ -8077,10 +8032,10 @@
         <v>518</v>
       </c>
       <c r="D95" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="E95" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>429</v>
@@ -8098,10 +8053,10 @@
         <v>519</v>
       </c>
       <c r="D96" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="E96" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>429</v>
@@ -8119,10 +8074,10 @@
         <v>520</v>
       </c>
       <c r="D97" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="E97" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>429</v>
@@ -8140,10 +8095,10 @@
         <v>521</v>
       </c>
       <c r="D98" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="E98" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>429</v>
@@ -8161,10 +8116,10 @@
         <v>522</v>
       </c>
       <c r="D99" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E99" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>429</v>
@@ -8182,10 +8137,10 @@
         <v>523</v>
       </c>
       <c r="D100" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E100" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>429</v>
@@ -8203,10 +8158,10 @@
         <v>524</v>
       </c>
       <c r="D101" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E101" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>429</v>
@@ -8224,10 +8179,10 @@
         <v>525</v>
       </c>
       <c r="D102" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="E102" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>429</v>
@@ -8245,10 +8200,10 @@
         <v>526</v>
       </c>
       <c r="D103" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="E103" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>429</v>
@@ -8266,10 +8221,10 @@
         <v>527</v>
       </c>
       <c r="D104" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="E104" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>429</v>
@@ -8281,19 +8236,19 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C105" t="s">
         <v>528</v>
       </c>
       <c r="D105" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="E105" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -8308,10 +8263,10 @@
         <v>529</v>
       </c>
       <c r="D106" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E106" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>430</v>
@@ -8329,10 +8284,10 @@
         <v>530</v>
       </c>
       <c r="D107" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="E107" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>430</v>
@@ -8350,10 +8305,10 @@
         <v>531</v>
       </c>
       <c r="D108" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="E108" t="s">
-        <v>832</v>
+        <v>385</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>430</v>
@@ -8371,10 +8326,10 @@
         <v>532</v>
       </c>
       <c r="D109" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="E109" t="s">
-        <v>385</v>
+        <v>830</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>430</v>
@@ -8392,10 +8347,10 @@
         <v>533</v>
       </c>
       <c r="D110" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="E110" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>430</v>
@@ -8413,10 +8368,10 @@
         <v>534</v>
       </c>
       <c r="D111" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="E111" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>430</v>
@@ -8434,10 +8389,10 @@
         <v>535</v>
       </c>
       <c r="D112" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="E112" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>430</v>
@@ -8455,10 +8410,10 @@
         <v>536</v>
       </c>
       <c r="D113" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="E113" t="s">
-        <v>836</v>
+        <v>386</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>430</v>
@@ -8476,10 +8431,10 @@
         <v>537</v>
       </c>
       <c r="D114" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="E114" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>430</v>
@@ -8497,10 +8452,10 @@
         <v>538</v>
       </c>
       <c r="D115" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="E115" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>430</v>
@@ -8518,10 +8473,10 @@
         <v>539</v>
       </c>
       <c r="D116" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="E116" t="s">
-        <v>388</v>
+        <v>834</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>430</v>
@@ -8539,10 +8494,10 @@
         <v>540</v>
       </c>
       <c r="D117" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="E117" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>430</v>
@@ -8560,10 +8515,10 @@
         <v>541</v>
       </c>
       <c r="D118" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E118" t="s">
-        <v>838</v>
+        <v>389</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>430</v>
@@ -8581,10 +8536,10 @@
         <v>542</v>
       </c>
       <c r="D119" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="E119" t="s">
-        <v>389</v>
+        <v>836</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>430</v>
@@ -8602,10 +8557,10 @@
         <v>543</v>
       </c>
       <c r="D120" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E120" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>430</v>
@@ -8623,10 +8578,10 @@
         <v>544</v>
       </c>
       <c r="D121" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E121" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>430</v>
@@ -8644,10 +8599,10 @@
         <v>545</v>
       </c>
       <c r="D122" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="E122" t="s">
-        <v>841</v>
+        <v>1456</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>430</v>
@@ -8665,10 +8620,10 @@
         <v>546</v>
       </c>
       <c r="D123" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="E123" t="s">
-        <v>1464</v>
+        <v>390</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>430</v>
@@ -8686,10 +8641,10 @@
         <v>547</v>
       </c>
       <c r="D124" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="E124" t="s">
-        <v>390</v>
+        <v>1457</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>430</v>
@@ -8707,10 +8662,10 @@
         <v>548</v>
       </c>
       <c r="D125" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="E125" t="s">
-        <v>1465</v>
+        <v>1458</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>430</v>
@@ -8728,10 +8683,10 @@
         <v>549</v>
       </c>
       <c r="D126" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="E126" t="s">
-        <v>1466</v>
+        <v>391</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>430</v>
@@ -8749,10 +8704,10 @@
         <v>550</v>
       </c>
       <c r="D127" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="E127" t="s">
-        <v>391</v>
+        <v>839</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>430</v>
@@ -8770,10 +8725,10 @@
         <v>551</v>
       </c>
       <c r="D128" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="E128" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>430</v>
@@ -8791,10 +8746,10 @@
         <v>552</v>
       </c>
       <c r="D129" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="E129" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>430</v>
@@ -8812,10 +8767,10 @@
         <v>553</v>
       </c>
       <c r="D130" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="E130" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>430</v>
@@ -8823,7 +8778,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A131:A194" si="2">A130+1</f>
         <v>131</v>
       </c>
       <c r="B131" t="s">
@@ -8833,10 +8788,10 @@
         <v>554</v>
       </c>
       <c r="D131" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="E131" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>430</v>
@@ -8844,7 +8799,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
-        <f t="shared" ref="A132:A195" si="2">A131+1</f>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="B132" t="s">
@@ -8854,10 +8809,10 @@
         <v>555</v>
       </c>
       <c r="D132" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="E132" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>430</v>
@@ -8875,10 +8830,10 @@
         <v>556</v>
       </c>
       <c r="D133" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="E133" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>430</v>
@@ -8896,10 +8851,10 @@
         <v>557</v>
       </c>
       <c r="D134" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="E134" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>430</v>
@@ -8917,10 +8872,10 @@
         <v>558</v>
       </c>
       <c r="D135" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="E135" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>430</v>
@@ -8938,10 +8893,10 @@
         <v>559</v>
       </c>
       <c r="D136" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="E136" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>430</v>
@@ -8959,10 +8914,10 @@
         <v>560</v>
       </c>
       <c r="D137" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="E137" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>430</v>
@@ -8980,10 +8935,10 @@
         <v>561</v>
       </c>
       <c r="D138" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="E138" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>430</v>
@@ -9001,10 +8956,10 @@
         <v>562</v>
       </c>
       <c r="D139" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="E139" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>430</v>
@@ -9022,10 +8977,10 @@
         <v>563</v>
       </c>
       <c r="D140" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="E140" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>430</v>
@@ -9043,10 +8998,10 @@
         <v>564</v>
       </c>
       <c r="D141" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="E141" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>430</v>
@@ -9064,10 +9019,10 @@
         <v>565</v>
       </c>
       <c r="D142" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="E142" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>430</v>
@@ -9085,10 +9040,10 @@
         <v>566</v>
       </c>
       <c r="D143" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="E143" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>430</v>
@@ -9106,10 +9061,10 @@
         <v>567</v>
       </c>
       <c r="D144" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="E144" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>430</v>
@@ -9127,10 +9082,10 @@
         <v>568</v>
       </c>
       <c r="D145" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="E145" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>430</v>
@@ -9148,10 +9103,10 @@
         <v>569</v>
       </c>
       <c r="D146" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="E146" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>430</v>
@@ -9169,10 +9124,10 @@
         <v>570</v>
       </c>
       <c r="D147" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="E147" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>430</v>
@@ -9190,10 +9145,10 @@
         <v>571</v>
       </c>
       <c r="D148" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="E148" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>430</v>
@@ -9211,10 +9166,10 @@
         <v>572</v>
       </c>
       <c r="D149" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="E149" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>430</v>
@@ -9232,10 +9187,10 @@
         <v>573</v>
       </c>
       <c r="D150" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="E150" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>430</v>
@@ -9253,10 +9208,10 @@
         <v>574</v>
       </c>
       <c r="D151" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="E151" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>430</v>
@@ -9274,10 +9229,10 @@
         <v>575</v>
       </c>
       <c r="D152" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="E152" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>430</v>
@@ -9295,10 +9250,10 @@
         <v>576</v>
       </c>
       <c r="D153" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="E153" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>430</v>
@@ -9310,19 +9265,19 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C154" t="s">
         <v>577</v>
       </c>
       <c r="D154" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="E154" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -9337,10 +9292,10 @@
         <v>578</v>
       </c>
       <c r="D155" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="E155" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>431</v>
@@ -9358,10 +9313,10 @@
         <v>579</v>
       </c>
       <c r="D156" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="E156" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>431</v>
@@ -9379,10 +9334,10 @@
         <v>580</v>
       </c>
       <c r="D157" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="E157" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>431</v>
@@ -9400,10 +9355,10 @@
         <v>581</v>
       </c>
       <c r="D158" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="E158" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>431</v>
@@ -9421,10 +9376,10 @@
         <v>582</v>
       </c>
       <c r="D159" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="E159" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>431</v>
@@ -9442,10 +9397,10 @@
         <v>583</v>
       </c>
       <c r="D160" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="E160" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>431</v>
@@ -9463,10 +9418,10 @@
         <v>584</v>
       </c>
       <c r="D161" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="E161" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>431</v>
@@ -9484,10 +9439,10 @@
         <v>585</v>
       </c>
       <c r="D162" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="E162" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>431</v>
@@ -9505,10 +9460,10 @@
         <v>586</v>
       </c>
       <c r="D163" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="E163" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>431</v>
@@ -9526,10 +9481,10 @@
         <v>587</v>
       </c>
       <c r="D164" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="E164" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>431</v>
@@ -9541,19 +9496,19 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="C165" t="s">
         <v>588</v>
       </c>
       <c r="D165" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="E165" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -9568,10 +9523,10 @@
         <v>589</v>
       </c>
       <c r="D166" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="E166" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>432</v>
@@ -9589,10 +9544,10 @@
         <v>590</v>
       </c>
       <c r="D167" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="E167" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>432</v>
@@ -9610,10 +9565,10 @@
         <v>591</v>
       </c>
       <c r="D168" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="E168" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>432</v>
@@ -9631,10 +9586,10 @@
         <v>592</v>
       </c>
       <c r="D169" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="E169" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>432</v>
@@ -9652,10 +9607,10 @@
         <v>593</v>
       </c>
       <c r="D170" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="E170" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>432</v>
@@ -9673,10 +9628,10 @@
         <v>594</v>
       </c>
       <c r="D171" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="E171" t="s">
-        <v>885</v>
+        <v>1459</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>432</v>
@@ -9691,13 +9646,13 @@
         <v>426</v>
       </c>
       <c r="C172" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D172" t="s">
         <v>1180</v>
       </c>
       <c r="E172" t="s">
-        <v>1467</v>
+        <v>886</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>432</v>
@@ -9715,10 +9670,10 @@
         <v>600</v>
       </c>
       <c r="D173" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="E173" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>432</v>
@@ -9736,10 +9691,10 @@
         <v>601</v>
       </c>
       <c r="D174" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="E174" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>432</v>
@@ -9757,10 +9712,10 @@
         <v>602</v>
       </c>
       <c r="D175" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="E175" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>432</v>
@@ -9778,10 +9733,10 @@
         <v>603</v>
       </c>
       <c r="D176" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="E176" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>432</v>
@@ -9799,10 +9754,10 @@
         <v>604</v>
       </c>
       <c r="D177" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="E177" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>432</v>
@@ -9820,10 +9775,10 @@
         <v>605</v>
       </c>
       <c r="D178" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="E178" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>432</v>
@@ -9841,10 +9796,10 @@
         <v>606</v>
       </c>
       <c r="D179" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="E179" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>432</v>
@@ -9862,10 +9817,10 @@
         <v>607</v>
       </c>
       <c r="D180" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="E180" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>432</v>
@@ -9883,10 +9838,10 @@
         <v>608</v>
       </c>
       <c r="D181" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="E181" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>432</v>
@@ -9904,10 +9859,10 @@
         <v>609</v>
       </c>
       <c r="D182" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="E182" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>432</v>
@@ -9925,10 +9880,10 @@
         <v>610</v>
       </c>
       <c r="D183" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="E183" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>432</v>
@@ -9946,10 +9901,10 @@
         <v>611</v>
       </c>
       <c r="D184" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="E184" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>432</v>
@@ -9961,19 +9916,19 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="C185" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="D185" t="s">
-        <v>1197</v>
+        <v>1209</v>
       </c>
       <c r="E185" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -9988,10 +9943,10 @@
         <v>630</v>
       </c>
       <c r="D186" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="E186" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>433</v>
@@ -10009,10 +9964,10 @@
         <v>631</v>
       </c>
       <c r="D187" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="E187" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>433</v>
@@ -10027,13 +9982,13 @@
         <v>397</v>
       </c>
       <c r="C188" t="s">
-        <v>632</v>
+        <v>1362</v>
       </c>
       <c r="D188" t="s">
-        <v>1216</v>
+        <v>1363</v>
       </c>
       <c r="E188" t="s">
-        <v>920</v>
+        <v>1364</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>433</v>
@@ -10048,13 +10003,13 @@
         <v>397</v>
       </c>
       <c r="C189" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="D189" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="E189" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>433</v>
@@ -10069,13 +10024,13 @@
         <v>397</v>
       </c>
       <c r="C190" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="D190" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="E190" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>433</v>
@@ -10090,13 +10045,13 @@
         <v>397</v>
       </c>
       <c r="C191" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="D191" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="E191" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>433</v>
@@ -10111,13 +10066,13 @@
         <v>397</v>
       </c>
       <c r="C192" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="D192" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="E192" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>433</v>
@@ -10132,13 +10087,13 @@
         <v>397</v>
       </c>
       <c r="C193" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="D193" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="E193" t="s">
-        <v>1383</v>
+        <v>1492</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>433</v>
@@ -10153,13 +10108,13 @@
         <v>397</v>
       </c>
       <c r="C194" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="D194" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="E194" t="s">
-        <v>1501</v>
+        <v>1381</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>433</v>
@@ -10167,20 +10122,20 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A195:A258" si="3">A194+1</f>
         <v>195</v>
       </c>
       <c r="B195" t="s">
         <v>397</v>
       </c>
       <c r="C195" t="s">
-        <v>1386</v>
+        <v>632</v>
       </c>
       <c r="D195" t="s">
-        <v>1387</v>
+        <v>1212</v>
       </c>
       <c r="E195" t="s">
-        <v>1388</v>
+        <v>918</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>433</v>
@@ -10188,7 +10143,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
-        <f t="shared" ref="A196:A259" si="3">A195+1</f>
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="B196" t="s">
@@ -10198,10 +10153,10 @@
         <v>633</v>
       </c>
       <c r="D196" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="E196" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>433</v>
@@ -10219,10 +10174,10 @@
         <v>634</v>
       </c>
       <c r="D197" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="E197" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>433</v>
@@ -10240,10 +10195,10 @@
         <v>635</v>
       </c>
       <c r="D198" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="E198" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>433</v>
@@ -10261,10 +10216,10 @@
         <v>636</v>
       </c>
       <c r="D199" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="E199" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>433</v>
@@ -10282,10 +10237,10 @@
         <v>637</v>
       </c>
       <c r="D200" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="E200" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>433</v>
@@ -10303,10 +10258,10 @@
         <v>638</v>
       </c>
       <c r="D201" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="E201" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>433</v>
@@ -10324,10 +10279,10 @@
         <v>639</v>
       </c>
       <c r="D202" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="E202" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>433</v>
@@ -10345,10 +10300,10 @@
         <v>640</v>
       </c>
       <c r="D203" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="E203" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>433</v>
@@ -10366,10 +10321,10 @@
         <v>641</v>
       </c>
       <c r="D204" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="E204" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>433</v>
@@ -10387,10 +10342,10 @@
         <v>642</v>
       </c>
       <c r="D205" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="E205" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>433</v>
@@ -10408,10 +10363,10 @@
         <v>643</v>
       </c>
       <c r="D206" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="E206" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>433</v>
@@ -10429,10 +10384,10 @@
         <v>644</v>
       </c>
       <c r="D207" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E207" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>433</v>
@@ -10450,10 +10405,10 @@
         <v>645</v>
       </c>
       <c r="D208" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="E208" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>433</v>
@@ -10471,10 +10426,10 @@
         <v>646</v>
       </c>
       <c r="D209" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="E209" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>433</v>
@@ -10492,10 +10447,10 @@
         <v>647</v>
       </c>
       <c r="D210" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="E210" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>433</v>
@@ -10513,10 +10468,10 @@
         <v>648</v>
       </c>
       <c r="D211" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="E211" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>433</v>
@@ -10534,10 +10489,10 @@
         <v>649</v>
       </c>
       <c r="D212" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="E212" t="s">
-        <v>937</v>
+        <v>440</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>433</v>
@@ -10555,10 +10510,10 @@
         <v>650</v>
       </c>
       <c r="D213" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="E213" t="s">
-        <v>440</v>
+        <v>935</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>433</v>
@@ -10576,10 +10531,10 @@
         <v>651</v>
       </c>
       <c r="D214" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="E214" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>433</v>
@@ -10597,10 +10552,10 @@
         <v>652</v>
       </c>
       <c r="D215" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="E215" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>433</v>
@@ -10612,19 +10567,19 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C216" t="s">
-        <v>653</v>
+        <v>1701</v>
       </c>
       <c r="D216" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E216" t="s">
-        <v>940</v>
+        <v>1702</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>1703</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -10636,13 +10591,13 @@
         <v>398</v>
       </c>
       <c r="C217" t="s">
-        <v>1716</v>
+        <v>653</v>
       </c>
       <c r="D217" t="s">
-        <v>1717</v>
-      </c>
-      <c r="E217" s="5" t="s">
-        <v>1718</v>
+        <v>1233</v>
+      </c>
+      <c r="E217" t="s">
+        <v>938</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>434</v>
@@ -10660,10 +10615,10 @@
         <v>654</v>
       </c>
       <c r="D218" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="E218" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>434</v>
@@ -10681,10 +10636,10 @@
         <v>655</v>
       </c>
       <c r="D219" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="E219" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>434</v>
@@ -10702,10 +10657,10 @@
         <v>656</v>
       </c>
       <c r="D220" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="E220" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>434</v>
@@ -10723,10 +10678,10 @@
         <v>657</v>
       </c>
       <c r="D221" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="E221" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>434</v>
@@ -10744,10 +10699,10 @@
         <v>658</v>
       </c>
       <c r="D222" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="E222" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>434</v>
@@ -10765,10 +10720,10 @@
         <v>659</v>
       </c>
       <c r="D223" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="E223" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>434</v>
@@ -10786,10 +10741,10 @@
         <v>660</v>
       </c>
       <c r="D224" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="E224" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>434</v>
@@ -10807,10 +10762,10 @@
         <v>661</v>
       </c>
       <c r="D225" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="E225" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>434</v>
@@ -10822,19 +10777,19 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="C226" t="s">
         <v>662</v>
       </c>
       <c r="D226" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="E226" t="s">
-        <v>949</v>
+        <v>441</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -10849,10 +10804,10 @@
         <v>663</v>
       </c>
       <c r="D227" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="E227" t="s">
-        <v>441</v>
+        <v>947</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>435</v>
@@ -10870,10 +10825,10 @@
         <v>664</v>
       </c>
       <c r="D228" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="E228" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>435</v>
@@ -10891,10 +10846,10 @@
         <v>665</v>
       </c>
       <c r="D229" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="E229" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>435</v>
@@ -10912,10 +10867,10 @@
         <v>666</v>
       </c>
       <c r="D230" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="E230" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>435</v>
@@ -10933,10 +10888,10 @@
         <v>667</v>
       </c>
       <c r="D231" t="s">
-        <v>1251</v>
+        <v>1388</v>
       </c>
       <c r="E231" t="s">
-        <v>953</v>
+        <v>1389</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>435</v>
@@ -10954,10 +10909,10 @@
         <v>668</v>
       </c>
       <c r="D232" t="s">
-        <v>1395</v>
+        <v>1247</v>
       </c>
       <c r="E232" t="s">
-        <v>1396</v>
+        <v>951</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>435</v>
@@ -10975,10 +10930,10 @@
         <v>669</v>
       </c>
       <c r="D233" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="E233" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>435</v>
@@ -10996,10 +10951,10 @@
         <v>670</v>
       </c>
       <c r="D234" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="E234" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>435</v>
@@ -11017,10 +10972,10 @@
         <v>671</v>
       </c>
       <c r="D235" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="E235" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>435</v>
@@ -11038,10 +10993,10 @@
         <v>672</v>
       </c>
       <c r="D236" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="E236" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>435</v>
@@ -11056,13 +11011,13 @@
         <v>423</v>
       </c>
       <c r="C237" t="s">
-        <v>673</v>
+        <v>1382</v>
       </c>
       <c r="D237" t="s">
-        <v>1256</v>
+        <v>1383</v>
       </c>
       <c r="E237" t="s">
-        <v>958</v>
+        <v>1384</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>435</v>
@@ -11077,13 +11032,13 @@
         <v>423</v>
       </c>
       <c r="C238" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="D238" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="E238" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>435</v>
@@ -11098,13 +11053,13 @@
         <v>423</v>
       </c>
       <c r="C239" t="s">
-        <v>1392</v>
+        <v>673</v>
       </c>
       <c r="D239" t="s">
-        <v>1393</v>
+        <v>1252</v>
       </c>
       <c r="E239" t="s">
-        <v>1394</v>
+        <v>956</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>435</v>
@@ -11118,14 +11073,14 @@
       <c r="B240" t="s">
         <v>423</v>
       </c>
-      <c r="C240" t="s">
-        <v>674</v>
+      <c r="C240" s="2" t="s">
+        <v>1334</v>
       </c>
       <c r="D240" t="s">
-        <v>1257</v>
+        <v>1332</v>
       </c>
       <c r="E240" t="s">
-        <v>959</v>
+        <v>1333</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>435</v>
@@ -11139,14 +11094,14 @@
       <c r="B241" t="s">
         <v>423</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>1340</v>
+      <c r="C241" t="s">
+        <v>674</v>
       </c>
       <c r="D241" t="s">
-        <v>1338</v>
+        <v>1253</v>
       </c>
       <c r="E241" t="s">
-        <v>1339</v>
+        <v>957</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>435</v>
@@ -11164,10 +11119,10 @@
         <v>675</v>
       </c>
       <c r="D242" t="s">
-        <v>1258</v>
+        <v>384</v>
       </c>
       <c r="E242" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>435</v>
@@ -11185,10 +11140,10 @@
         <v>676</v>
       </c>
       <c r="D243" t="s">
-        <v>384</v>
+        <v>1254</v>
       </c>
       <c r="E243" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>435</v>
@@ -11206,10 +11161,10 @@
         <v>677</v>
       </c>
       <c r="D244" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="E244" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>435</v>
@@ -11224,13 +11179,13 @@
         <v>423</v>
       </c>
       <c r="C245" t="s">
-        <v>678</v>
+        <v>702</v>
       </c>
       <c r="D245" t="s">
-        <v>1260</v>
+        <v>1490</v>
       </c>
       <c r="E245" t="s">
-        <v>963</v>
+        <v>1491</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>435</v>
@@ -11248,10 +11203,10 @@
         <v>703</v>
       </c>
       <c r="D246" t="s">
-        <v>1499</v>
+        <v>1278</v>
       </c>
       <c r="E246" t="s">
-        <v>1500</v>
+        <v>983</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>435</v>
@@ -11269,10 +11224,10 @@
         <v>704</v>
       </c>
       <c r="D247" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="E247" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>435</v>
@@ -11290,10 +11245,10 @@
         <v>705</v>
       </c>
       <c r="D248" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="E248" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>435</v>
@@ -11311,10 +11266,10 @@
         <v>706</v>
       </c>
       <c r="D249" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="E249" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>435</v>
@@ -11329,13 +11284,13 @@
         <v>423</v>
       </c>
       <c r="C250" t="s">
-        <v>707</v>
+        <v>1673</v>
       </c>
       <c r="D250" t="s">
-        <v>1286</v>
+        <v>1251</v>
       </c>
       <c r="E250" t="s">
-        <v>989</v>
+        <v>1674</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>435</v>
@@ -11350,13 +11305,13 @@
         <v>423</v>
       </c>
       <c r="C251" t="s">
-        <v>1688</v>
+        <v>1676</v>
       </c>
       <c r="D251" t="s">
-        <v>1256</v>
+        <v>1677</v>
       </c>
       <c r="E251" t="s">
-        <v>1689</v>
+        <v>1675</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>435</v>
@@ -11371,13 +11326,13 @@
         <v>423</v>
       </c>
       <c r="C252" t="s">
-        <v>1691</v>
+        <v>1679</v>
       </c>
       <c r="D252" t="s">
-        <v>1692</v>
+        <v>1680</v>
       </c>
       <c r="E252" t="s">
-        <v>1690</v>
+        <v>1678</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>435</v>
@@ -11389,19 +11344,19 @@
         <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>423</v>
+        <v>1881</v>
       </c>
       <c r="C253" t="s">
-        <v>1694</v>
+        <v>399</v>
       </c>
       <c r="D253" t="s">
-        <v>1695</v>
+        <v>407</v>
       </c>
       <c r="E253" t="s">
-        <v>1693</v>
+        <v>415</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>435</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -11410,19 +11365,19 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C254" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D254" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E254" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -11431,19 +11386,19 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C255" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D255" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E255" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -11452,19 +11407,19 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C256" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D256" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E256" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -11473,19 +11428,19 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C257" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D257" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E257" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -11494,61 +11449,61 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C258" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D258" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E258" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A259:A322" si="4">A258+1</f>
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C259" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D259" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E259" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
-        <f t="shared" ref="A260:A323" si="4">A259+1</f>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C260" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D260" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E260" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -11557,19 +11512,19 @@
         <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C261" t="s">
-        <v>406</v>
+        <v>678</v>
       </c>
       <c r="D261" t="s">
-        <v>414</v>
+        <v>1256</v>
       </c>
       <c r="E261" t="s">
-        <v>422</v>
+        <v>961</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -11578,19 +11533,19 @@
         <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C262" t="s">
         <v>679</v>
       </c>
       <c r="D262" t="s">
-        <v>1261</v>
+        <v>1752</v>
       </c>
       <c r="E262" t="s">
-        <v>964</v>
+        <v>1753</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -11599,19 +11554,19 @@
         <v>263</v>
       </c>
       <c r="B263" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C263" t="s">
         <v>680</v>
       </c>
       <c r="D263" t="s">
-        <v>1770</v>
+        <v>1750</v>
       </c>
       <c r="E263" t="s">
-        <v>1771</v>
+        <v>1754</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -11620,19 +11575,19 @@
         <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C264" t="s">
         <v>681</v>
       </c>
       <c r="D264" t="s">
-        <v>1768</v>
+        <v>1751</v>
       </c>
       <c r="E264" t="s">
-        <v>1772</v>
+        <v>1755</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -11641,19 +11596,19 @@
         <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C265" t="s">
-        <v>682</v>
+        <v>1671</v>
       </c>
       <c r="D265" t="s">
-        <v>1769</v>
+        <v>1683</v>
       </c>
       <c r="E265" t="s">
-        <v>1773</v>
+        <v>1684</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -11662,19 +11617,19 @@
         <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C266" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D266" t="s">
-        <v>1698</v>
+        <v>1672</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>1681</v>
       </c>
       <c r="E266" t="s">
-        <v>1699</v>
+        <v>1682</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -11683,19 +11638,19 @@
         <v>267</v>
       </c>
       <c r="B267" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C267" t="s">
-        <v>1687</v>
-      </c>
-      <c r="D267" s="4" t="s">
-        <v>1696</v>
+        <v>682</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1257</v>
       </c>
       <c r="E267" t="s">
-        <v>1697</v>
+        <v>962</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -11704,19 +11659,19 @@
         <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C268" t="s">
         <v>683</v>
       </c>
       <c r="D268" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="E268" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -11725,19 +11680,19 @@
         <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C269" t="s">
         <v>684</v>
       </c>
       <c r="D269" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="E269" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -11746,19 +11701,19 @@
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C270" t="s">
         <v>685</v>
       </c>
       <c r="D270" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="E270" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -11767,19 +11722,19 @@
         <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C271" t="s">
         <v>686</v>
       </c>
       <c r="D271" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="E271" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -11788,19 +11743,19 @@
         <v>272</v>
       </c>
       <c r="B272" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C272" t="s">
         <v>687</v>
       </c>
       <c r="D272" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="E272" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -11809,19 +11764,19 @@
         <v>273</v>
       </c>
       <c r="B273" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C273" t="s">
         <v>688</v>
       </c>
       <c r="D273" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="E273" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -11830,19 +11785,19 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C274" t="s">
         <v>689</v>
       </c>
       <c r="D274" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="E274" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -11851,19 +11806,19 @@
         <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C275" t="s">
         <v>690</v>
       </c>
       <c r="D275" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="E275" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -11872,19 +11827,19 @@
         <v>276</v>
       </c>
       <c r="B276" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C276" t="s">
         <v>691</v>
       </c>
       <c r="D276" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="E276" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -11893,19 +11848,19 @@
         <v>277</v>
       </c>
       <c r="B277" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C277" t="s">
         <v>692</v>
       </c>
       <c r="D277" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="E277" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -11914,19 +11869,19 @@
         <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C278" t="s">
         <v>693</v>
       </c>
       <c r="D278" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="E278" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -11935,19 +11890,19 @@
         <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C279" t="s">
-        <v>694</v>
+        <v>1687</v>
       </c>
       <c r="D279" t="s">
-        <v>1273</v>
+        <v>1686</v>
       </c>
       <c r="E279" t="s">
-        <v>976</v>
+        <v>1688</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -11956,19 +11911,19 @@
         <v>280</v>
       </c>
       <c r="B280" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C280" t="s">
-        <v>1702</v>
+        <v>1689</v>
       </c>
       <c r="D280" t="s">
-        <v>1701</v>
+        <v>1690</v>
       </c>
       <c r="E280" t="s">
-        <v>1703</v>
+        <v>1691</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -11977,19 +11932,19 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C281" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="D281" t="s">
-        <v>1705</v>
+        <v>1692</v>
       </c>
       <c r="E281" t="s">
-        <v>1706</v>
+        <v>1693</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -11998,19 +11953,19 @@
         <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C282" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="D282" t="s">
-        <v>1707</v>
+        <v>1695</v>
       </c>
       <c r="E282" t="s">
-        <v>1708</v>
+        <v>1696</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -12019,19 +11974,19 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C283" t="s">
-        <v>1712</v>
+        <v>1699</v>
       </c>
       <c r="D283" t="s">
-        <v>1710</v>
+        <v>1698</v>
       </c>
       <c r="E283" t="s">
-        <v>1711</v>
+        <v>1700</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -12040,19 +11995,19 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C284" t="s">
-        <v>1714</v>
+        <v>1756</v>
       </c>
       <c r="D284" t="s">
-        <v>1713</v>
+        <v>1757</v>
       </c>
       <c r="E284" t="s">
-        <v>1715</v>
+        <v>1758</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -12061,19 +12016,19 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C285" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D285" t="s">
-        <v>1775</v>
+        <v>1759</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="E285" t="s">
-        <v>1776</v>
+        <v>1761</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -12082,19 +12037,19 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C286" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D286" s="4" t="s">
-        <v>1778</v>
-      </c>
-      <c r="E286" t="s">
-        <v>1779</v>
+        <v>692</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>1762</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -12103,19 +12058,19 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C287" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D287" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E287" s="5" t="s">
-        <v>1780</v>
+        <v>1269</v>
+      </c>
+      <c r="E287" t="s">
+        <v>974</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -12124,19 +12079,19 @@
         <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C288" t="s">
         <v>695</v>
       </c>
       <c r="D288" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="E288" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -12145,19 +12100,19 @@
         <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C289" t="s">
         <v>696</v>
       </c>
       <c r="D289" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="E289" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -12166,19 +12121,19 @@
         <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C290" t="s">
-        <v>697</v>
+        <v>1685</v>
       </c>
       <c r="D290" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="E290" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -12187,19 +12142,19 @@
         <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C291" t="s">
-        <v>1700</v>
+        <v>697</v>
       </c>
       <c r="D291" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="E291" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -12208,19 +12163,19 @@
         <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C292" t="s">
         <v>698</v>
       </c>
       <c r="D292" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="E292" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -12229,19 +12184,19 @@
         <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C293" t="s">
         <v>699</v>
       </c>
       <c r="D293" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="E293" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -12250,19 +12205,19 @@
         <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C294" t="s">
         <v>700</v>
       </c>
       <c r="D294" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="E294" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -12271,19 +12226,19 @@
         <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C295" t="s">
         <v>701</v>
       </c>
       <c r="D295" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="E295" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -12292,19 +12247,19 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C296" t="s">
-        <v>702</v>
+        <v>1858</v>
       </c>
       <c r="D296" t="s">
-        <v>1282</v>
+        <v>1859</v>
       </c>
       <c r="E296" t="s">
-        <v>985</v>
+        <v>1860</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -12313,19 +12268,19 @@
         <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>1472</v>
+        <v>1881</v>
       </c>
       <c r="C297" t="s">
-        <v>1876</v>
+        <v>1863</v>
       </c>
       <c r="D297" t="s">
-        <v>1877</v>
+        <v>1861</v>
       </c>
       <c r="E297" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -12334,19 +12289,19 @@
         <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>1472</v>
+        <v>424</v>
       </c>
       <c r="C298" t="s">
-        <v>1881</v>
+        <v>707</v>
       </c>
       <c r="D298" t="s">
-        <v>1879</v>
+        <v>1282</v>
       </c>
       <c r="E298" t="s">
-        <v>1880</v>
+        <v>987</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>1893</v>
+        <v>436</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -12361,10 +12316,10 @@
         <v>708</v>
       </c>
       <c r="D299" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="E299" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>436</v>
@@ -12382,10 +12337,10 @@
         <v>709</v>
       </c>
       <c r="D300" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="E300" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>436</v>
@@ -12403,10 +12358,10 @@
         <v>710</v>
       </c>
       <c r="D301" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="E301" t="s">
-        <v>992</v>
+        <v>392</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>436</v>
@@ -12424,10 +12379,10 @@
         <v>711</v>
       </c>
       <c r="D302" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="E302" t="s">
-        <v>392</v>
+        <v>990</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>436</v>
@@ -12445,10 +12400,10 @@
         <v>712</v>
       </c>
       <c r="D303" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="E303" t="s">
-        <v>993</v>
+        <v>393</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>436</v>
@@ -12466,10 +12421,10 @@
         <v>713</v>
       </c>
       <c r="D304" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="E304" t="s">
-        <v>393</v>
+        <v>991</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>436</v>
@@ -12487,10 +12442,10 @@
         <v>714</v>
       </c>
       <c r="D305" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="E305" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>436</v>
@@ -12508,10 +12463,10 @@
         <v>715</v>
       </c>
       <c r="D306" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="E306" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>436</v>
@@ -12526,13 +12481,13 @@
         <v>424</v>
       </c>
       <c r="C307" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="D307" t="s">
-        <v>1295</v>
+        <v>1273</v>
       </c>
       <c r="E307" t="s">
-        <v>996</v>
+        <v>978</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>436</v>
@@ -12547,13 +12502,13 @@
         <v>424</v>
       </c>
       <c r="C308" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D308" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="E308" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>436</v>
@@ -12568,13 +12523,13 @@
         <v>424</v>
       </c>
       <c r="C309" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
       <c r="D309" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
       <c r="E309" t="s">
-        <v>981</v>
+        <v>995</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>436</v>
@@ -12592,10 +12547,10 @@
         <v>718</v>
       </c>
       <c r="D310" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="E310" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>436</v>
@@ -12613,10 +12568,10 @@
         <v>719</v>
       </c>
       <c r="D311" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="E311" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>436</v>
@@ -12634,10 +12589,10 @@
         <v>720</v>
       </c>
       <c r="D312" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="E312" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>436</v>
@@ -12655,10 +12610,10 @@
         <v>721</v>
       </c>
       <c r="D313" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="E313" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>436</v>
@@ -12676,10 +12631,10 @@
         <v>722</v>
       </c>
       <c r="D314" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="E314" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>436</v>
@@ -12697,10 +12652,10 @@
         <v>723</v>
       </c>
       <c r="D315" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="E315" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>436</v>
@@ -12712,19 +12667,19 @@
         <v>316</v>
       </c>
       <c r="B316" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C316" t="s">
-        <v>724</v>
+        <v>1704</v>
       </c>
       <c r="D316" t="s">
-        <v>1303</v>
+        <v>1705</v>
       </c>
       <c r="E316" t="s">
-        <v>1004</v>
+        <v>1706</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -12733,19 +12688,19 @@
         <v>317</v>
       </c>
       <c r="B317" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C317" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D317" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="E317" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -12757,13 +12712,13 @@
         <v>425</v>
       </c>
       <c r="C318" t="s">
-        <v>1719</v>
+        <v>1883</v>
       </c>
       <c r="D318" t="s">
-        <v>1720</v>
+        <v>1670</v>
       </c>
       <c r="E318" t="s">
-        <v>1721</v>
+        <v>1430</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>437</v>
@@ -12778,13 +12733,13 @@
         <v>425</v>
       </c>
       <c r="C319" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D319" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="E319" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>437</v>
@@ -12799,13 +12754,13 @@
         <v>425</v>
       </c>
       <c r="C320" t="s">
-        <v>1437</v>
+        <v>726</v>
       </c>
       <c r="D320" t="s">
-        <v>1685</v>
+        <v>1301</v>
       </c>
       <c r="E320" t="s">
-        <v>1438</v>
+        <v>1004</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>437</v>
@@ -12823,10 +12778,10 @@
         <v>727</v>
       </c>
       <c r="D321" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="E321" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>437</v>
@@ -12841,13 +12796,13 @@
         <v>425</v>
       </c>
       <c r="C322" t="s">
-        <v>728</v>
+        <v>1710</v>
       </c>
       <c r="D322" t="s">
-        <v>1307</v>
+        <v>1711</v>
       </c>
       <c r="E322" t="s">
-        <v>1008</v>
+        <v>1713</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>437</v>
@@ -12855,20 +12810,20 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A323:A386" si="5">A322+1</f>
         <v>323</v>
       </c>
       <c r="B323" t="s">
         <v>425</v>
       </c>
       <c r="C323" t="s">
-        <v>729</v>
+        <v>1712</v>
       </c>
       <c r="D323" t="s">
-        <v>1308</v>
+        <v>1715</v>
       </c>
       <c r="E323" t="s">
-        <v>1009</v>
+        <v>1714</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>437</v>
@@ -12876,20 +12831,20 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324">
-        <f t="shared" ref="A324:A387" si="5">A323+1</f>
+        <f t="shared" si="5"/>
         <v>324</v>
       </c>
       <c r="B324" t="s">
         <v>425</v>
       </c>
       <c r="C324" t="s">
-        <v>1725</v>
+        <v>1716</v>
       </c>
       <c r="D324" t="s">
-        <v>1726</v>
+        <v>1717</v>
       </c>
       <c r="E324" t="s">
-        <v>1728</v>
+        <v>1718</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>437</v>
@@ -12904,13 +12859,13 @@
         <v>425</v>
       </c>
       <c r="C325" t="s">
-        <v>1727</v>
+        <v>728</v>
       </c>
       <c r="D325" t="s">
-        <v>1730</v>
+        <v>1303</v>
       </c>
       <c r="E325" t="s">
-        <v>1729</v>
+        <v>1006</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>437</v>
@@ -12925,13 +12880,13 @@
         <v>425</v>
       </c>
       <c r="C326" t="s">
-        <v>1731</v>
+        <v>729</v>
       </c>
       <c r="D326" t="s">
-        <v>1732</v>
+        <v>1304</v>
       </c>
       <c r="E326" t="s">
-        <v>1733</v>
+        <v>1007</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>437</v>
@@ -12949,10 +12904,10 @@
         <v>730</v>
       </c>
       <c r="D327" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="E327" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>437</v>
@@ -12967,13 +12922,13 @@
         <v>425</v>
       </c>
       <c r="C328" t="s">
-        <v>731</v>
+        <v>642</v>
       </c>
       <c r="D328" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="E328" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>437</v>
@@ -12988,13 +12943,13 @@
         <v>425</v>
       </c>
       <c r="C329" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D329" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="E329" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>437</v>
@@ -13009,13 +12964,13 @@
         <v>425</v>
       </c>
       <c r="C330" t="s">
-        <v>643</v>
+        <v>732</v>
       </c>
       <c r="D330" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="E330" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>437</v>
@@ -13030,13 +12985,13 @@
         <v>425</v>
       </c>
       <c r="C331" t="s">
-        <v>733</v>
+        <v>1707</v>
       </c>
       <c r="D331" t="s">
-        <v>1313</v>
+        <v>1708</v>
       </c>
       <c r="E331" t="s">
-        <v>1014</v>
+        <v>1709</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>437</v>
@@ -13051,13 +13006,13 @@
         <v>425</v>
       </c>
       <c r="C332" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D332" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="E332" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>437</v>
@@ -13072,13 +13027,13 @@
         <v>425</v>
       </c>
       <c r="C333" t="s">
-        <v>1722</v>
+        <v>734</v>
       </c>
       <c r="D333" t="s">
-        <v>1723</v>
+        <v>1310</v>
       </c>
       <c r="E333" t="s">
-        <v>1724</v>
+        <v>1013</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>437</v>
@@ -13096,10 +13051,10 @@
         <v>735</v>
       </c>
       <c r="D334" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="E334" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>437</v>
@@ -13117,10 +13072,10 @@
         <v>736</v>
       </c>
       <c r="D335" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="E335" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>437</v>
@@ -13138,10 +13093,10 @@
         <v>737</v>
       </c>
       <c r="D336" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="E336" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>437</v>
@@ -13159,10 +13114,10 @@
         <v>738</v>
       </c>
       <c r="D337" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E337" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F337" s="1" t="s">
         <v>437</v>
@@ -13180,10 +13135,10 @@
         <v>739</v>
       </c>
       <c r="D338" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E338" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>437</v>
@@ -13201,10 +13156,10 @@
         <v>740</v>
       </c>
       <c r="D339" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="E339" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>437</v>
@@ -13222,10 +13177,10 @@
         <v>741</v>
       </c>
       <c r="D340" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="E340" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>437</v>
@@ -13243,10 +13198,10 @@
         <v>742</v>
       </c>
       <c r="D341" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="E341" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>437</v>
@@ -13261,13 +13216,13 @@
         <v>425</v>
       </c>
       <c r="C342" t="s">
-        <v>743</v>
+        <v>1875</v>
       </c>
       <c r="D342" t="s">
-        <v>1326</v>
+        <v>1719</v>
       </c>
       <c r="E342" t="s">
-        <v>1027</v>
+        <v>1720</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>437</v>
@@ -13282,13 +13237,13 @@
         <v>425</v>
       </c>
       <c r="C343" t="s">
-        <v>744</v>
+        <v>1722</v>
       </c>
       <c r="D343" t="s">
-        <v>1327</v>
+        <v>1721</v>
       </c>
       <c r="E343" t="s">
-        <v>1028</v>
+        <v>1723</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>437</v>
@@ -13303,13 +13258,13 @@
         <v>425</v>
       </c>
       <c r="C344" t="s">
-        <v>1894</v>
+        <v>1876</v>
       </c>
       <c r="D344" t="s">
-        <v>1737</v>
+        <v>1726</v>
       </c>
       <c r="E344" t="s">
-        <v>1738</v>
+        <v>1724</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>437</v>
@@ -13324,13 +13279,13 @@
         <v>425</v>
       </c>
       <c r="C345" t="s">
-        <v>1740</v>
+        <v>1730</v>
       </c>
       <c r="D345" t="s">
-        <v>1739</v>
+        <v>1725</v>
       </c>
       <c r="E345" t="s">
-        <v>1741</v>
+        <v>1727</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>437</v>
@@ -13345,13 +13300,13 @@
         <v>425</v>
       </c>
       <c r="C346" t="s">
-        <v>1895</v>
+        <v>1729</v>
       </c>
       <c r="D346" t="s">
-        <v>1744</v>
+        <v>1728</v>
       </c>
       <c r="E346" t="s">
-        <v>1742</v>
+        <v>1731</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>437</v>
@@ -13366,13 +13321,13 @@
         <v>425</v>
       </c>
       <c r="C347" t="s">
-        <v>1748</v>
+        <v>1733</v>
       </c>
       <c r="D347" t="s">
-        <v>1743</v>
+        <v>1732</v>
       </c>
       <c r="E347" t="s">
-        <v>1745</v>
+        <v>1734</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>437</v>
@@ -13387,13 +13342,13 @@
         <v>425</v>
       </c>
       <c r="C348" t="s">
-        <v>1747</v>
+        <v>1735</v>
       </c>
       <c r="D348" t="s">
-        <v>1746</v>
+        <v>1736</v>
       </c>
       <c r="E348" t="s">
-        <v>1749</v>
+        <v>1737</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>437</v>
@@ -13408,13 +13363,13 @@
         <v>425</v>
       </c>
       <c r="C349" t="s">
-        <v>1751</v>
+        <v>1738</v>
       </c>
       <c r="D349" t="s">
-        <v>1750</v>
+        <v>1739</v>
       </c>
       <c r="E349" t="s">
-        <v>1752</v>
+        <v>1740</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>437</v>
@@ -13429,13 +13384,13 @@
         <v>425</v>
       </c>
       <c r="C350" t="s">
-        <v>1753</v>
+        <v>1742</v>
       </c>
       <c r="D350" t="s">
-        <v>1754</v>
+        <v>1741</v>
       </c>
       <c r="E350" t="s">
-        <v>1755</v>
+        <v>1743</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>437</v>
@@ -13450,13 +13405,13 @@
         <v>425</v>
       </c>
       <c r="C351" t="s">
-        <v>1756</v>
+        <v>1745</v>
       </c>
       <c r="D351" t="s">
-        <v>1757</v>
+        <v>1744</v>
       </c>
       <c r="E351" t="s">
-        <v>1758</v>
+        <v>1746</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>437</v>
@@ -13471,13 +13426,13 @@
         <v>425</v>
       </c>
       <c r="C352" t="s">
-        <v>1760</v>
+        <v>1748</v>
       </c>
       <c r="D352" t="s">
-        <v>1759</v>
+        <v>1747</v>
       </c>
       <c r="E352" t="s">
-        <v>1761</v>
+        <v>1749</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>437</v>
@@ -13489,19 +13444,19 @@
         <v>353</v>
       </c>
       <c r="B353" t="s">
-        <v>425</v>
+        <v>1855</v>
       </c>
       <c r="C353" t="s">
-        <v>1763</v>
+        <v>595</v>
       </c>
       <c r="D353" t="s">
-        <v>1762</v>
+        <v>1176</v>
       </c>
       <c r="E353" t="s">
-        <v>1764</v>
+        <v>883</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>437</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -13510,19 +13465,19 @@
         <v>354</v>
       </c>
       <c r="B354" t="s">
-        <v>425</v>
+        <v>1855</v>
       </c>
       <c r="C354" t="s">
-        <v>1766</v>
+        <v>596</v>
       </c>
       <c r="D354" t="s">
-        <v>1765</v>
+        <v>1177</v>
       </c>
       <c r="E354" t="s">
-        <v>1767</v>
+        <v>884</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>437</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -13531,19 +13486,19 @@
         <v>355</v>
       </c>
       <c r="B355" t="s">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="C355" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D355" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="E355" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -13552,19 +13507,19 @@
         <v>356</v>
       </c>
       <c r="B356" t="s">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="C356" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D356" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="E356" t="s">
-        <v>887</v>
+        <v>439</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -13573,19 +13528,19 @@
         <v>357</v>
       </c>
       <c r="B357" t="s">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="C357" t="s">
-        <v>598</v>
+        <v>1852</v>
       </c>
       <c r="D357" t="s">
-        <v>1183</v>
+        <v>1853</v>
       </c>
       <c r="E357" t="s">
-        <v>888</v>
+        <v>1854</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -13594,19 +13549,19 @@
         <v>358</v>
       </c>
       <c r="B358" t="s">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="C358" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="D358" t="s">
-        <v>1184</v>
+        <v>1193</v>
       </c>
       <c r="E358" t="s">
-        <v>439</v>
+        <v>899</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -13615,19 +13570,19 @@
         <v>359</v>
       </c>
       <c r="B359" t="s">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="C359" t="s">
-        <v>1870</v>
+        <v>613</v>
       </c>
       <c r="D359" t="s">
-        <v>1871</v>
+        <v>1194</v>
       </c>
       <c r="E359" t="s">
-        <v>1872</v>
+        <v>900</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -13636,19 +13591,19 @@
         <v>360</v>
       </c>
       <c r="B360" t="s">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="C360" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D360" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="E360" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -13657,19 +13612,19 @@
         <v>361</v>
       </c>
       <c r="B361" t="s">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="C361" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D361" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="E361" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -13678,19 +13633,19 @@
         <v>362</v>
       </c>
       <c r="B362" t="s">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="C362" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D362" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="E362" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -13699,19 +13654,19 @@
         <v>363</v>
       </c>
       <c r="B363" t="s">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="C363" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D363" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="E363" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -13720,19 +13675,19 @@
         <v>364</v>
       </c>
       <c r="B364" t="s">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="C364" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D364" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="E364" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -13741,19 +13696,19 @@
         <v>365</v>
       </c>
       <c r="B365" t="s">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="C365" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D365" t="s">
-        <v>1203</v>
+        <v>1665</v>
       </c>
       <c r="E365" t="s">
-        <v>907</v>
+        <v>1666</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -13762,19 +13717,19 @@
         <v>366</v>
       </c>
       <c r="B366" t="s">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="C366" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D366" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="E366" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -13783,19 +13738,19 @@
         <v>367</v>
       </c>
       <c r="B367" t="s">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="C367" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D367" t="s">
-        <v>1680</v>
+        <v>1201</v>
       </c>
       <c r="E367" t="s">
-        <v>1681</v>
+        <v>907</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -13804,19 +13759,19 @@
         <v>368</v>
       </c>
       <c r="B368" t="s">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="C368" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D368" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="E368" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -13825,19 +13780,19 @@
         <v>369</v>
       </c>
       <c r="B369" t="s">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="C369" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D369" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="E369" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -13846,19 +13801,19 @@
         <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="C370" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D370" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="E370" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -13867,19 +13822,19 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="C371" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D371" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="E371" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -13888,19 +13843,19 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="C372" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D372" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="E372" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -13909,19 +13864,19 @@
         <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="C373" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D373" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="E373" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -13930,19 +13885,19 @@
         <v>374</v>
       </c>
       <c r="B374" t="s">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="C374" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D374" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="E374" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -13951,19 +13906,19 @@
         <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>1873</v>
+        <v>1390</v>
       </c>
       <c r="C375" t="s">
-        <v>628</v>
+        <v>1349</v>
       </c>
       <c r="D375" t="s">
-        <v>1212</v>
+        <v>1350</v>
       </c>
       <c r="E375" t="s">
-        <v>916</v>
+        <v>1351</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>1892</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -13972,19 +13927,19 @@
         <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>1873</v>
+        <v>1390</v>
       </c>
       <c r="C376" t="s">
-        <v>629</v>
+        <v>1647</v>
       </c>
       <c r="D376" t="s">
-        <v>1213</v>
+        <v>1648</v>
       </c>
       <c r="E376" t="s">
-        <v>917</v>
+        <v>1649</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>1892</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
@@ -13993,19 +13948,19 @@
         <v>377</v>
       </c>
       <c r="B377" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C377" t="s">
-        <v>1355</v>
+        <v>1650</v>
       </c>
       <c r="D377" t="s">
-        <v>1356</v>
+        <v>1651</v>
       </c>
       <c r="E377" t="s">
-        <v>1357</v>
+        <v>1652</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -14014,19 +13969,19 @@
         <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C378" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E378" t="s">
         <v>1660</v>
       </c>
-      <c r="D378" t="s">
-        <v>1661</v>
-      </c>
-      <c r="E378" t="s">
-        <v>1662</v>
-      </c>
       <c r="F378" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -14035,19 +13990,19 @@
         <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C379" t="s">
-        <v>1896</v>
+        <v>1658</v>
       </c>
       <c r="D379" t="s">
-        <v>1666</v>
+        <v>1656</v>
       </c>
       <c r="E379" t="s">
-        <v>1667</v>
+        <v>1657</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -14056,19 +14011,19 @@
         <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C380" t="s">
-        <v>1663</v>
+        <v>1655</v>
       </c>
       <c r="D380" t="s">
-        <v>1664</v>
+        <v>1653</v>
       </c>
       <c r="E380" t="s">
-        <v>1665</v>
+        <v>1654</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -14077,19 +14032,19 @@
         <v>381</v>
       </c>
       <c r="B381" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C381" t="s">
-        <v>1676</v>
+        <v>1664</v>
       </c>
       <c r="D381" t="s">
-        <v>1674</v>
+        <v>1662</v>
       </c>
       <c r="E381" t="s">
-        <v>1675</v>
+        <v>1663</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -14098,19 +14053,19 @@
         <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C382" t="s">
-        <v>1673</v>
+        <v>1391</v>
       </c>
       <c r="D382" t="s">
-        <v>1671</v>
+        <v>1392</v>
       </c>
       <c r="E382" t="s">
-        <v>1672</v>
+        <v>1393</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -14119,19 +14074,19 @@
         <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C383" t="s">
-        <v>1679</v>
+        <v>1394</v>
       </c>
       <c r="D383" t="s">
-        <v>1677</v>
+        <v>1395</v>
       </c>
       <c r="E383" t="s">
-        <v>1678</v>
+        <v>1461</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
@@ -14140,19 +14095,19 @@
         <v>384</v>
       </c>
       <c r="B384" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D384" t="s">
         <v>1397</v>
       </c>
-      <c r="C384" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D384" t="s">
-        <v>1668</v>
-      </c>
       <c r="E384" t="s">
-        <v>1669</v>
+        <v>1398</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -14161,19 +14116,19 @@
         <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C385" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D385" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="E385" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -14182,61 +14137,61 @@
         <v>386</v>
       </c>
       <c r="B386" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C386" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D386" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="E386" t="s">
-        <v>1469</v>
+        <v>1404</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A387:A450" si="6">A386+1</f>
         <v>387</v>
       </c>
       <c r="B387" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C387" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="D387" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="E387" t="s">
-        <v>1405</v>
+        <v>1462</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388">
-        <f t="shared" ref="A388:A451" si="6">A387+1</f>
+        <f t="shared" si="6"/>
         <v>388</v>
       </c>
       <c r="B388" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C388" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D388" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="E388" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -14245,19 +14200,19 @@
         <v>389</v>
       </c>
       <c r="B389" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C389" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D389" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="E389" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -14266,19 +14221,19 @@
         <v>390</v>
       </c>
       <c r="B390" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C390" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D390" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="E390" t="s">
-        <v>1470</v>
+        <v>1415</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -14287,19 +14242,19 @@
         <v>391</v>
       </c>
       <c r="B391" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C391" t="s">
-        <v>1414</v>
+        <v>1431</v>
       </c>
       <c r="D391" t="s">
-        <v>1415</v>
+        <v>1432</v>
       </c>
       <c r="E391" t="s">
-        <v>1416</v>
+        <v>1450</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -14308,19 +14263,19 @@
         <v>392</v>
       </c>
       <c r="B392" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C392" t="s">
-        <v>1417</v>
+        <v>1433</v>
       </c>
       <c r="D392" t="s">
-        <v>1418</v>
+        <v>1434</v>
       </c>
       <c r="E392" t="s">
-        <v>1419</v>
+        <v>1451</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -14329,19 +14284,19 @@
         <v>393</v>
       </c>
       <c r="B393" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C393" t="s">
-        <v>1420</v>
+        <v>1435</v>
       </c>
       <c r="D393" t="s">
-        <v>1421</v>
+        <v>1436</v>
       </c>
       <c r="E393" t="s">
-        <v>1422</v>
+        <v>1447</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -14350,19 +14305,19 @@
         <v>394</v>
       </c>
       <c r="B394" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C394" t="s">
-        <v>1439</v>
+        <v>1494</v>
       </c>
       <c r="D394" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="E394" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -14371,19 +14326,19 @@
         <v>395</v>
       </c>
       <c r="B395" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C395" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="D395" t="s">
-        <v>1442</v>
+        <v>1493</v>
       </c>
       <c r="E395" t="s">
-        <v>1459</v>
+        <v>1448</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -14392,19 +14347,19 @@
         <v>396</v>
       </c>
       <c r="B396" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C396" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="D396" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="E396" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
@@ -14413,19 +14368,19 @@
         <v>397</v>
       </c>
       <c r="B397" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C397" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
       <c r="D397" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E397" t="s">
-        <v>1460</v>
+        <v>1453</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
@@ -14434,19 +14389,19 @@
         <v>398</v>
       </c>
       <c r="B398" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C398" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E398" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F398" s="1" t="s">
         <v>1446</v>
-      </c>
-      <c r="D398" t="s">
-        <v>1502</v>
-      </c>
-      <c r="E398" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F398" s="1" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -14455,19 +14410,19 @@
         <v>399</v>
       </c>
       <c r="B399" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C399" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="D399" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="E399" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -14476,19 +14431,19 @@
         <v>400</v>
       </c>
       <c r="B400" t="s">
-        <v>1397</v>
+        <v>1464</v>
       </c>
       <c r="C400" t="s">
-        <v>1504</v>
+        <v>1611</v>
       </c>
       <c r="D400" t="s">
-        <v>1449</v>
+        <v>1612</v>
       </c>
       <c r="E400" t="s">
-        <v>1461</v>
+        <v>1613</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>1454</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
@@ -14497,19 +14452,19 @@
         <v>401</v>
       </c>
       <c r="B401" t="s">
-        <v>1397</v>
+        <v>1464</v>
       </c>
       <c r="C401" t="s">
-        <v>1450</v>
+        <v>1616</v>
       </c>
       <c r="D401" t="s">
-        <v>1451</v>
+        <v>1617</v>
       </c>
       <c r="E401" t="s">
-        <v>1462</v>
+        <v>1824</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>1454</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
@@ -14518,19 +14473,19 @@
         <v>402</v>
       </c>
       <c r="B402" t="s">
-        <v>1397</v>
+        <v>1464</v>
       </c>
       <c r="C402" t="s">
-        <v>1452</v>
+        <v>1643</v>
       </c>
       <c r="D402" t="s">
-        <v>1453</v>
+        <v>1488</v>
       </c>
       <c r="E402" t="s">
-        <v>1463</v>
+        <v>1498</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>1454</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -14539,19 +14494,19 @@
         <v>403</v>
       </c>
       <c r="B403" t="s">
-        <v>1397</v>
+        <v>1464</v>
       </c>
       <c r="C403" t="s">
-        <v>1734</v>
+        <v>1642</v>
       </c>
       <c r="D403" t="s">
-        <v>1735</v>
+        <v>1487</v>
       </c>
       <c r="E403" t="s">
-        <v>1736</v>
+        <v>1505</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>1454</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
@@ -14560,19 +14515,19 @@
         <v>404</v>
       </c>
       <c r="B404" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C404" t="s">
-        <v>1624</v>
+        <v>1631</v>
       </c>
       <c r="D404" t="s">
-        <v>1625</v>
+        <v>1614</v>
       </c>
       <c r="E404" t="s">
-        <v>1626</v>
+        <v>1615</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -14581,19 +14536,19 @@
         <v>405</v>
       </c>
       <c r="B405" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C405" t="s">
-        <v>1629</v>
+        <v>1636</v>
       </c>
       <c r="D405" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="E405" t="s">
-        <v>1842</v>
+        <v>1628</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
@@ -14602,19 +14557,19 @@
         <v>406</v>
       </c>
       <c r="B406" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C406" t="s">
-        <v>1656</v>
+        <v>1633</v>
       </c>
       <c r="D406" t="s">
-        <v>1497</v>
-      </c>
-      <c r="E406" t="s">
-        <v>1507</v>
+        <v>1620</v>
+      </c>
+      <c r="E406" s="5" t="s">
+        <v>1621</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -14623,19 +14578,19 @@
         <v>407</v>
       </c>
       <c r="B407" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C407" t="s">
-        <v>1655</v>
+        <v>1637</v>
       </c>
       <c r="D407" t="s">
-        <v>1496</v>
+        <v>1629</v>
       </c>
       <c r="E407" t="s">
-        <v>1514</v>
+        <v>1630</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
@@ -14644,19 +14599,19 @@
         <v>408</v>
       </c>
       <c r="B408" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C408" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D408" t="s">
-        <v>1627</v>
+        <v>1638</v>
+      </c>
+      <c r="D408" s="4" t="s">
+        <v>1622</v>
       </c>
       <c r="E408" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
@@ -14665,19 +14620,19 @@
         <v>409</v>
       </c>
       <c r="B409" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C409" t="s">
-        <v>1649</v>
+        <v>1632</v>
       </c>
       <c r="D409" t="s">
-        <v>1640</v>
-      </c>
-      <c r="E409" t="s">
-        <v>1641</v>
+        <v>1618</v>
+      </c>
+      <c r="E409" s="5" t="s">
+        <v>1619</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
@@ -14686,19 +14641,19 @@
         <v>410</v>
       </c>
       <c r="B410" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C410" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="D410" t="s">
-        <v>1633</v>
-      </c>
-      <c r="E410" s="5" t="s">
-        <v>1634</v>
+        <v>1465</v>
+      </c>
+      <c r="E410" t="s">
+        <v>1497</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
@@ -14707,19 +14662,19 @@
         <v>411</v>
       </c>
       <c r="B411" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C411" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
       <c r="D411" t="s">
-        <v>1642</v>
+        <v>1486</v>
       </c>
       <c r="E411" t="s">
-        <v>1643</v>
+        <v>1504</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -14728,19 +14683,19 @@
         <v>412</v>
       </c>
       <c r="B412" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C412" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D412" s="4" t="s">
         <v>1635</v>
       </c>
+      <c r="D412" t="s">
+        <v>1625</v>
+      </c>
       <c r="E412" t="s">
-        <v>1636</v>
+        <v>1626</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -14749,19 +14704,19 @@
         <v>413</v>
       </c>
       <c r="B413" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C413" t="s">
-        <v>1645</v>
+        <v>1634</v>
       </c>
       <c r="D413" t="s">
-        <v>1631</v>
+        <v>1466</v>
       </c>
       <c r="E413" s="5" t="s">
-        <v>1632</v>
+        <v>1624</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
@@ -14770,19 +14725,19 @@
         <v>414</v>
       </c>
       <c r="B414" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C414" t="s">
-        <v>1652</v>
+        <v>1640</v>
       </c>
       <c r="D414" t="s">
-        <v>1474</v>
+        <v>1485</v>
       </c>
       <c r="E414" t="s">
-        <v>1506</v>
+        <v>1496</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
@@ -14791,19 +14746,19 @@
         <v>415</v>
       </c>
       <c r="B415" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C415" t="s">
-        <v>1654</v>
+        <v>1468</v>
       </c>
       <c r="D415" t="s">
-        <v>1495</v>
+        <v>1467</v>
       </c>
       <c r="E415" t="s">
-        <v>1513</v>
+        <v>1499</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
@@ -14812,19 +14767,19 @@
         <v>416</v>
       </c>
       <c r="B416" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C416" t="s">
-        <v>1648</v>
+        <v>1469</v>
       </c>
       <c r="D416" t="s">
-        <v>1638</v>
+        <v>1470</v>
       </c>
       <c r="E416" t="s">
-        <v>1639</v>
+        <v>1500</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -14833,19 +14788,19 @@
         <v>417</v>
       </c>
       <c r="B417" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C417" t="s">
-        <v>1647</v>
+        <v>1818</v>
       </c>
       <c r="D417" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E417" s="5" t="s">
-        <v>1637</v>
+        <v>1819</v>
+      </c>
+      <c r="E417" t="s">
+        <v>1820</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
@@ -14854,19 +14809,19 @@
         <v>418</v>
       </c>
       <c r="B418" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C418" t="s">
-        <v>1653</v>
+        <v>1471</v>
       </c>
       <c r="D418" t="s">
-        <v>1494</v>
+        <v>1472</v>
       </c>
       <c r="E418" t="s">
-        <v>1505</v>
+        <v>1821</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -14875,19 +14830,19 @@
         <v>419</v>
       </c>
       <c r="B419" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C419" t="s">
         <v>1473</v>
       </c>
-      <c r="C419" t="s">
-        <v>1477</v>
-      </c>
       <c r="D419" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E419" t="s">
-        <v>1508</v>
+        <v>1501</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
@@ -14896,19 +14851,19 @@
         <v>420</v>
       </c>
       <c r="B420" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C420" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="D420" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="E420" t="s">
-        <v>1509</v>
+        <v>1502</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
@@ -14917,19 +14872,19 @@
         <v>421</v>
       </c>
       <c r="B421" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C421" t="s">
-        <v>1836</v>
-      </c>
-      <c r="D421" t="s">
-        <v>1837</v>
+        <v>1477</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>1478</v>
       </c>
       <c r="E421" t="s">
-        <v>1838</v>
+        <v>1479</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
@@ -14938,19 +14893,19 @@
         <v>422</v>
       </c>
       <c r="B422" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C422" t="s">
         <v>1480</v>
       </c>
-      <c r="D422" t="s">
+      <c r="D422" s="3" t="s">
         <v>1481</v>
       </c>
       <c r="E422" t="s">
-        <v>1839</v>
+        <v>1482</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -14959,19 +14914,19 @@
         <v>423</v>
       </c>
       <c r="B423" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C423" t="s">
-        <v>1482</v>
+        <v>1667</v>
       </c>
       <c r="D423" t="s">
-        <v>1483</v>
+        <v>1314</v>
       </c>
       <c r="E423" t="s">
-        <v>1510</v>
+        <v>1017</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
@@ -14980,19 +14935,19 @@
         <v>424</v>
       </c>
       <c r="B424" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C424" t="s">
-        <v>1485</v>
+        <v>1668</v>
       </c>
       <c r="D424" t="s">
-        <v>1484</v>
+        <v>1315</v>
       </c>
       <c r="E424" t="s">
-        <v>1511</v>
+        <v>1018</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -15001,19 +14956,19 @@
         <v>425</v>
       </c>
       <c r="B425" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C425" t="s">
-        <v>1486</v>
-      </c>
-      <c r="D425" s="3" t="s">
-        <v>1487</v>
+        <v>1669</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1316</v>
       </c>
       <c r="E425" t="s">
-        <v>1488</v>
+        <v>1019</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
@@ -15022,19 +14977,19 @@
         <v>426</v>
       </c>
       <c r="B426" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C426" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F426" s="1" t="s">
         <v>1489</v>
-      </c>
-      <c r="D426" s="3" t="s">
-        <v>1490</v>
-      </c>
-      <c r="E426" t="s">
-        <v>1491</v>
-      </c>
-      <c r="F426" s="1" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
@@ -15043,19 +14998,19 @@
         <v>427</v>
       </c>
       <c r="B427" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C427" t="s">
-        <v>1682</v>
+        <v>475</v>
       </c>
       <c r="D427" t="s">
-        <v>1320</v>
+        <v>1056</v>
       </c>
       <c r="E427" t="s">
-        <v>1021</v>
+        <v>774</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
@@ -15064,19 +15019,19 @@
         <v>428</v>
       </c>
       <c r="B428" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C428" t="s">
-        <v>1683</v>
+        <v>476</v>
       </c>
       <c r="D428" t="s">
-        <v>1321</v>
+        <v>1057</v>
       </c>
       <c r="E428" t="s">
-        <v>1022</v>
+        <v>775</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -15085,19 +15040,19 @@
         <v>429</v>
       </c>
       <c r="B429" t="s">
-        <v>1473</v>
+        <v>1506</v>
       </c>
       <c r="C429" t="s">
-        <v>1684</v>
+        <v>1511</v>
       </c>
       <c r="D429" t="s">
-        <v>1322</v>
+        <v>1556</v>
       </c>
       <c r="E429" t="s">
-        <v>1023</v>
+        <v>1512</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>1498</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
@@ -15106,19 +15061,19 @@
         <v>430</v>
       </c>
       <c r="B430" t="s">
-        <v>1473</v>
+        <v>1506</v>
       </c>
       <c r="C430" t="s">
-        <v>1492</v>
+        <v>1513</v>
       </c>
       <c r="D430" t="s">
-        <v>1493</v>
+        <v>1557</v>
       </c>
       <c r="E430" t="s">
-        <v>1512</v>
+        <v>1646</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>1498</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
@@ -15127,19 +15082,19 @@
         <v>431</v>
       </c>
       <c r="B431" t="s">
-        <v>1473</v>
+        <v>1506</v>
       </c>
       <c r="C431" t="s">
-        <v>475</v>
+        <v>1589</v>
       </c>
       <c r="D431" t="s">
-        <v>1060</v>
+        <v>1558</v>
       </c>
       <c r="E431" t="s">
-        <v>776</v>
+        <v>1514</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>1498</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
@@ -15148,19 +15103,19 @@
         <v>432</v>
       </c>
       <c r="B432" t="s">
-        <v>1473</v>
+        <v>1506</v>
       </c>
       <c r="C432" t="s">
-        <v>476</v>
+        <v>1590</v>
       </c>
       <c r="D432" t="s">
-        <v>1061</v>
+        <v>1559</v>
       </c>
       <c r="E432" t="s">
-        <v>777</v>
+        <v>1515</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>1498</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
@@ -15169,19 +15124,19 @@
         <v>433</v>
       </c>
       <c r="B433" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C433" t="s">
-        <v>1522</v>
+        <v>1591</v>
       </c>
       <c r="D433" t="s">
-        <v>1568</v>
+        <v>1560</v>
       </c>
       <c r="E433" t="s">
-        <v>1523</v>
+        <v>1516</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -15190,19 +15145,19 @@
         <v>434</v>
       </c>
       <c r="B434" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C434" t="s">
-        <v>1524</v>
+        <v>1592</v>
       </c>
       <c r="D434" t="s">
-        <v>1569</v>
+        <v>1561</v>
       </c>
       <c r="E434" t="s">
-        <v>1659</v>
+        <v>1517</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
@@ -15211,19 +15166,19 @@
         <v>435</v>
       </c>
       <c r="B435" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C435" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
       <c r="D435" t="s">
-        <v>1570</v>
+        <v>1562</v>
       </c>
       <c r="E435" t="s">
-        <v>1525</v>
+        <v>1518</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
@@ -15232,19 +15187,19 @@
         <v>436</v>
       </c>
       <c r="B436" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C436" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
       <c r="D436" t="s">
-        <v>1571</v>
+        <v>1563</v>
       </c>
       <c r="E436" t="s">
-        <v>1526</v>
+        <v>1519</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
@@ -15253,19 +15208,19 @@
         <v>437</v>
       </c>
       <c r="B437" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C437" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="D437" t="s">
-        <v>1572</v>
+        <v>1564</v>
       </c>
       <c r="E437" t="s">
-        <v>1527</v>
+        <v>1520</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
@@ -15274,19 +15229,19 @@
         <v>438</v>
       </c>
       <c r="B438" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C438" t="s">
-        <v>1604</v>
+        <v>1877</v>
       </c>
       <c r="D438" t="s">
-        <v>1573</v>
+        <v>1565</v>
       </c>
       <c r="E438" t="s">
-        <v>1528</v>
+        <v>1521</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
@@ -15295,19 +15250,19 @@
         <v>439</v>
       </c>
       <c r="B439" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C439" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
       <c r="D439" t="s">
-        <v>1574</v>
+        <v>1566</v>
       </c>
       <c r="E439" t="s">
-        <v>1529</v>
+        <v>1522</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
@@ -15316,19 +15271,19 @@
         <v>440</v>
       </c>
       <c r="B440" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C440" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
       <c r="D440" t="s">
-        <v>1575</v>
+        <v>1567</v>
       </c>
       <c r="E440" t="s">
-        <v>1530</v>
+        <v>1523</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
@@ -15337,19 +15292,19 @@
         <v>441</v>
       </c>
       <c r="B441" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C441" t="s">
-        <v>1607</v>
+        <v>1598</v>
       </c>
       <c r="D441" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
       <c r="E441" t="s">
-        <v>1531</v>
+        <v>1524</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
@@ -15358,19 +15313,19 @@
         <v>442</v>
       </c>
       <c r="B442" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C442" t="s">
-        <v>1897</v>
+        <v>1599</v>
       </c>
       <c r="D442" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
       <c r="E442" t="s">
-        <v>1532</v>
+        <v>1525</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
@@ -15379,19 +15334,19 @@
         <v>443</v>
       </c>
       <c r="B443" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C443" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="D443" t="s">
-        <v>1578</v>
+        <v>1570</v>
       </c>
       <c r="E443" t="s">
-        <v>1533</v>
+        <v>1526</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
@@ -15400,19 +15355,19 @@
         <v>444</v>
       </c>
       <c r="B444" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C444" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="D444" t="s">
-        <v>1579</v>
+        <v>1183</v>
       </c>
       <c r="E444" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
@@ -15421,19 +15376,19 @@
         <v>445</v>
       </c>
       <c r="B445" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C445" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="D445" t="s">
-        <v>1580</v>
+        <v>1571</v>
       </c>
       <c r="E445" t="s">
-        <v>1535</v>
+        <v>1528</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
@@ -15442,19 +15397,19 @@
         <v>446</v>
       </c>
       <c r="B446" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C446" t="s">
-        <v>1611</v>
+        <v>1882</v>
       </c>
       <c r="D446" t="s">
-        <v>1581</v>
+        <v>1554</v>
       </c>
       <c r="E446" t="s">
-        <v>1536</v>
+        <v>1529</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
@@ -15463,19 +15418,19 @@
         <v>447</v>
       </c>
       <c r="B447" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C447" t="s">
-        <v>1612</v>
+        <v>1603</v>
       </c>
       <c r="D447" t="s">
-        <v>1582</v>
+        <v>1572</v>
       </c>
       <c r="E447" t="s">
-        <v>1537</v>
+        <v>1530</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
@@ -15484,19 +15439,19 @@
         <v>448</v>
       </c>
       <c r="B448" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C448" t="s">
-        <v>1613</v>
+        <v>1604</v>
       </c>
       <c r="D448" t="s">
-        <v>1188</v>
+        <v>1573</v>
       </c>
       <c r="E448" t="s">
-        <v>1538</v>
+        <v>1531</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
@@ -15505,19 +15460,19 @@
         <v>449</v>
       </c>
       <c r="B449" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C449" t="s">
-        <v>1614</v>
+        <v>1605</v>
       </c>
       <c r="D449" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
       <c r="E449" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
@@ -15526,61 +15481,61 @@
         <v>450</v>
       </c>
       <c r="B450" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C450" t="s">
-        <v>1615</v>
+        <v>1878</v>
       </c>
       <c r="D450" t="s">
-        <v>1565</v>
+        <v>1576</v>
       </c>
       <c r="E450" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A451:A494" si="7">A450+1</f>
         <v>451</v>
       </c>
       <c r="B451" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C451" t="s">
-        <v>1616</v>
+        <v>1606</v>
       </c>
       <c r="D451" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="E451" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452">
-        <f t="shared" ref="A452:A499" si="7">A451+1</f>
+        <f t="shared" si="7"/>
         <v>452</v>
       </c>
       <c r="B452" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C452" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="D452" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="E452" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
@@ -15589,19 +15544,19 @@
         <v>453</v>
       </c>
       <c r="B453" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C453" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
       <c r="D453" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
       <c r="E453" t="s">
-        <v>1545</v>
+        <v>1538</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
@@ -15610,19 +15565,19 @@
         <v>454</v>
       </c>
       <c r="B454" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C454" t="s">
-        <v>1898</v>
+        <v>1609</v>
       </c>
       <c r="D454" t="s">
-        <v>1588</v>
+        <v>1581</v>
       </c>
       <c r="E454" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
@@ -15631,19 +15586,19 @@
         <v>455</v>
       </c>
       <c r="B455" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C455" t="s">
-        <v>1619</v>
+        <v>1610</v>
       </c>
       <c r="D455" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="E455" t="s">
-        <v>1547</v>
+        <v>1551</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
@@ -15652,19 +15607,19 @@
         <v>456</v>
       </c>
       <c r="B456" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C456" t="s">
-        <v>1620</v>
+        <v>1507</v>
       </c>
       <c r="D456" t="s">
-        <v>1590</v>
+        <v>1554</v>
       </c>
       <c r="E456" t="s">
-        <v>1548</v>
+        <v>1508</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
@@ -15673,19 +15628,19 @@
         <v>457</v>
       </c>
       <c r="B457" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C457" t="s">
-        <v>1621</v>
+        <v>1509</v>
       </c>
       <c r="D457" t="s">
-        <v>1591</v>
+        <v>1555</v>
       </c>
       <c r="E457" t="s">
-        <v>1549</v>
+        <v>1510</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
@@ -15694,19 +15649,19 @@
         <v>458</v>
       </c>
       <c r="B458" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C458" t="s">
-        <v>1622</v>
+        <v>1539</v>
       </c>
       <c r="D458" t="s">
-        <v>1593</v>
+        <v>1580</v>
       </c>
       <c r="E458" t="s">
-        <v>1552</v>
+        <v>1540</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
@@ -15715,19 +15670,19 @@
         <v>459</v>
       </c>
       <c r="B459" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C459" t="s">
-        <v>1623</v>
+        <v>1542</v>
       </c>
       <c r="D459" t="s">
-        <v>1598</v>
+        <v>1582</v>
       </c>
       <c r="E459" t="s">
-        <v>1562</v>
+        <v>1543</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
@@ -15736,19 +15691,19 @@
         <v>460</v>
       </c>
       <c r="B460" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C460" t="s">
-        <v>1516</v>
+        <v>1544</v>
       </c>
       <c r="D460" t="s">
-        <v>1565</v>
+        <v>1583</v>
       </c>
       <c r="E460" t="s">
-        <v>1517</v>
+        <v>1545</v>
       </c>
       <c r="F460" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
@@ -15757,19 +15712,19 @@
         <v>461</v>
       </c>
       <c r="B461" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C461" t="s">
-        <v>1518</v>
+        <v>1546</v>
       </c>
       <c r="D461" t="s">
-        <v>1566</v>
+        <v>1644</v>
       </c>
       <c r="E461" t="s">
-        <v>1519</v>
+        <v>1645</v>
       </c>
       <c r="F461" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
@@ -15778,19 +15733,19 @@
         <v>462</v>
       </c>
       <c r="B462" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C462" t="s">
-        <v>1520</v>
+        <v>1547</v>
       </c>
       <c r="D462" t="s">
-        <v>1567</v>
+        <v>1584</v>
       </c>
       <c r="E462" t="s">
-        <v>1521</v>
+        <v>1548</v>
       </c>
       <c r="F462" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
@@ -15799,19 +15754,19 @@
         <v>463</v>
       </c>
       <c r="B463" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C463" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E463" t="s">
         <v>1550</v>
       </c>
-      <c r="D463" t="s">
-        <v>1592</v>
-      </c>
-      <c r="E463" t="s">
-        <v>1551</v>
-      </c>
       <c r="F463" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
@@ -15820,19 +15775,19 @@
         <v>464</v>
       </c>
       <c r="B464" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E464" t="s">
         <v>1515</v>
       </c>
-      <c r="C464" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D464" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E464" t="s">
-        <v>1554</v>
-      </c>
       <c r="F464" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
@@ -15841,19 +15796,19 @@
         <v>465</v>
       </c>
       <c r="B465" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C465" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="D465" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
       <c r="E465" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="F465" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
@@ -15862,19 +15817,19 @@
         <v>466</v>
       </c>
       <c r="B466" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C466" t="s">
-        <v>1557</v>
+        <v>1532</v>
       </c>
       <c r="D466" t="s">
-        <v>1657</v>
+        <v>1574</v>
       </c>
       <c r="E466" t="s">
-        <v>1658</v>
+        <v>1533</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
@@ -15883,19 +15838,19 @@
         <v>467</v>
       </c>
       <c r="B467" t="s">
-        <v>1515</v>
+        <v>1763</v>
       </c>
       <c r="C467" t="s">
-        <v>1558</v>
+        <v>1765</v>
       </c>
       <c r="D467" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E467" t="s">
-        <v>1559</v>
+        <v>1782</v>
+      </c>
+      <c r="E467" s="5" t="s">
+        <v>1764</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>1889</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
@@ -15904,19 +15859,19 @@
         <v>468</v>
       </c>
       <c r="B468" t="s">
-        <v>1515</v>
+        <v>1763</v>
       </c>
       <c r="C468" t="s">
-        <v>1560</v>
+        <v>1766</v>
       </c>
       <c r="D468" t="s">
-        <v>1597</v>
+        <v>1783</v>
       </c>
       <c r="E468" t="s">
-        <v>1561</v>
+        <v>1784</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>1889</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
@@ -15925,19 +15880,19 @@
         <v>469</v>
       </c>
       <c r="B469" t="s">
-        <v>1515</v>
+        <v>1763</v>
       </c>
       <c r="C469" t="s">
-        <v>1600</v>
+        <v>1767</v>
       </c>
       <c r="D469" t="s">
-        <v>1571</v>
+        <v>1785</v>
       </c>
       <c r="E469" t="s">
-        <v>1526</v>
+        <v>1786</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>1889</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
@@ -15946,19 +15901,19 @@
         <v>470</v>
       </c>
       <c r="B470" t="s">
-        <v>1515</v>
+        <v>1763</v>
       </c>
       <c r="C470" t="s">
-        <v>1563</v>
+        <v>1768</v>
       </c>
       <c r="D470" t="s">
-        <v>1599</v>
+        <v>1789</v>
       </c>
       <c r="E470" t="s">
-        <v>1564</v>
+        <v>1790</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>1889</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
@@ -15967,19 +15922,19 @@
         <v>471</v>
       </c>
       <c r="B471" t="s">
-        <v>1515</v>
+        <v>1763</v>
       </c>
       <c r="C471" t="s">
-        <v>1543</v>
+        <v>1769</v>
       </c>
       <c r="D471" t="s">
-        <v>1586</v>
+        <v>1787</v>
       </c>
       <c r="E471" t="s">
-        <v>1544</v>
+        <v>1788</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>1889</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
@@ -15988,19 +15943,19 @@
         <v>472</v>
       </c>
       <c r="B472" t="s">
-        <v>1781</v>
+        <v>1763</v>
       </c>
       <c r="C472" t="s">
-        <v>1783</v>
+        <v>1770</v>
       </c>
       <c r="D472" t="s">
-        <v>1800</v>
-      </c>
-      <c r="E472" s="5" t="s">
-        <v>1782</v>
+        <v>1791</v>
+      </c>
+      <c r="E472" t="s">
+        <v>1792</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>1890</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
@@ -16009,19 +15964,19 @@
         <v>473</v>
       </c>
       <c r="B473" t="s">
-        <v>1781</v>
+        <v>1763</v>
       </c>
       <c r="C473" t="s">
-        <v>1784</v>
+        <v>1771</v>
       </c>
       <c r="D473" t="s">
-        <v>1801</v>
+        <v>1793</v>
       </c>
       <c r="E473" t="s">
-        <v>1802</v>
+        <v>1794</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>1890</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
@@ -16030,19 +15985,19 @@
         <v>474</v>
       </c>
       <c r="B474" t="s">
-        <v>1781</v>
+        <v>1763</v>
       </c>
       <c r="C474" t="s">
-        <v>1785</v>
+        <v>1772</v>
       </c>
       <c r="D474" t="s">
-        <v>1803</v>
-      </c>
-      <c r="E474" t="s">
-        <v>1804</v>
+        <v>1795</v>
+      </c>
+      <c r="E474" s="5" t="s">
+        <v>1796</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>1890</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
@@ -16051,19 +16006,19 @@
         <v>475</v>
       </c>
       <c r="B475" t="s">
-        <v>1781</v>
+        <v>1763</v>
       </c>
       <c r="C475" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
       <c r="D475" t="s">
-        <v>1807</v>
+        <v>1797</v>
       </c>
       <c r="E475" t="s">
-        <v>1808</v>
+        <v>1798</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>1890</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
@@ -16072,19 +16027,19 @@
         <v>476</v>
       </c>
       <c r="B476" t="s">
-        <v>1781</v>
+        <v>1763</v>
       </c>
       <c r="C476" t="s">
-        <v>1787</v>
+        <v>1774</v>
       </c>
       <c r="D476" t="s">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="E476" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>1890</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
@@ -16093,19 +16048,19 @@
         <v>477</v>
       </c>
       <c r="B477" t="s">
-        <v>1781</v>
+        <v>1763</v>
       </c>
       <c r="C477" t="s">
-        <v>1788</v>
+        <v>1775</v>
       </c>
       <c r="D477" t="s">
-        <v>1809</v>
+        <v>1801</v>
       </c>
       <c r="E477" t="s">
-        <v>1810</v>
+        <v>1802</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>1890</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
@@ -16114,19 +16069,19 @@
         <v>478</v>
       </c>
       <c r="B478" t="s">
-        <v>1781</v>
+        <v>1763</v>
       </c>
       <c r="C478" t="s">
-        <v>1789</v>
-      </c>
-      <c r="D478" t="s">
-        <v>1811</v>
+        <v>1776</v>
+      </c>
+      <c r="D478" s="4" t="s">
+        <v>1803</v>
       </c>
       <c r="E478" t="s">
-        <v>1812</v>
+        <v>1804</v>
       </c>
       <c r="F478" s="1" t="s">
-        <v>1890</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
@@ -16135,19 +16090,19 @@
         <v>479</v>
       </c>
       <c r="B479" t="s">
-        <v>1781</v>
+        <v>1763</v>
       </c>
       <c r="C479" t="s">
-        <v>1790</v>
+        <v>1777</v>
       </c>
       <c r="D479" t="s">
-        <v>1813</v>
-      </c>
-      <c r="E479" s="5" t="s">
-        <v>1814</v>
+        <v>1805</v>
+      </c>
+      <c r="E479" t="s">
+        <v>1806</v>
       </c>
       <c r="F479" s="1" t="s">
-        <v>1890</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
@@ -16156,19 +16111,19 @@
         <v>480</v>
       </c>
       <c r="B480" t="s">
-        <v>1781</v>
+        <v>1763</v>
       </c>
       <c r="C480" t="s">
-        <v>1791</v>
+        <v>1778</v>
       </c>
       <c r="D480" t="s">
-        <v>1815</v>
-      </c>
-      <c r="E480" t="s">
-        <v>1816</v>
+        <v>1807</v>
+      </c>
+      <c r="E480" s="5" t="s">
+        <v>1808</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>1890</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
@@ -16177,19 +16132,19 @@
         <v>481</v>
       </c>
       <c r="B481" t="s">
-        <v>1781</v>
+        <v>1763</v>
       </c>
       <c r="C481" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D481" t="s">
-        <v>1817</v>
+        <v>1779</v>
+      </c>
+      <c r="D481" s="4" t="s">
+        <v>1809</v>
       </c>
       <c r="E481" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
       <c r="F481" s="1" t="s">
-        <v>1890</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
@@ -16198,19 +16153,19 @@
         <v>482</v>
       </c>
       <c r="B482" t="s">
-        <v>1781</v>
+        <v>1763</v>
       </c>
       <c r="C482" t="s">
-        <v>1793</v>
+        <v>1780</v>
       </c>
       <c r="D482" t="s">
-        <v>1819</v>
+        <v>1811</v>
       </c>
       <c r="E482" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>1890</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
@@ -16219,19 +16174,19 @@
         <v>483</v>
       </c>
       <c r="B483" t="s">
-        <v>1781</v>
+        <v>1763</v>
       </c>
       <c r="C483" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D483" s="4" t="s">
-        <v>1821</v>
+        <v>1814</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1813</v>
       </c>
       <c r="E483" t="s">
-        <v>1822</v>
+        <v>1815</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>1890</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
@@ -16240,19 +16195,19 @@
         <v>484</v>
       </c>
       <c r="B484" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C484" t="s">
         <v>1781</v>
       </c>
-      <c r="C484" t="s">
-        <v>1795</v>
-      </c>
       <c r="D484" t="s">
-        <v>1823</v>
-      </c>
-      <c r="E484" t="s">
-        <v>1824</v>
+        <v>1816</v>
+      </c>
+      <c r="E484" s="5" t="s">
+        <v>1817</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>1890</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
@@ -16261,19 +16216,19 @@
         <v>485</v>
       </c>
       <c r="B485" t="s">
-        <v>1781</v>
+        <v>1851</v>
       </c>
       <c r="C485" t="s">
-        <v>1796</v>
+        <v>1822</v>
       </c>
       <c r="D485" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E485" t="s">
         <v>1825</v>
       </c>
-      <c r="E485" s="5" t="s">
-        <v>1826</v>
-      </c>
       <c r="F485" s="1" t="s">
-        <v>1890</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
@@ -16282,19 +16237,19 @@
         <v>486</v>
       </c>
       <c r="B486" t="s">
-        <v>1781</v>
+        <v>1851</v>
       </c>
       <c r="C486" t="s">
-        <v>1797</v>
-      </c>
-      <c r="D486" s="4" t="s">
         <v>1827</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1826</v>
       </c>
       <c r="E486" t="s">
         <v>1828</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>1890</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
@@ -16303,19 +16258,19 @@
         <v>487</v>
       </c>
       <c r="B487" t="s">
-        <v>1781</v>
+        <v>1851</v>
       </c>
       <c r="C487" t="s">
-        <v>1798</v>
+        <v>1830</v>
       </c>
       <c r="D487" t="s">
         <v>1829</v>
       </c>
       <c r="E487" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>1890</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
@@ -16324,19 +16279,19 @@
         <v>488</v>
       </c>
       <c r="B488" t="s">
-        <v>1781</v>
+        <v>1851</v>
       </c>
       <c r="C488" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D488" t="s">
         <v>1832</v>
       </c>
-      <c r="D488" t="s">
-        <v>1831</v>
-      </c>
       <c r="E488" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>1890</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
@@ -16345,19 +16300,19 @@
         <v>489</v>
       </c>
       <c r="B489" t="s">
-        <v>1781</v>
+        <v>1851</v>
       </c>
       <c r="C489" t="s">
-        <v>1799</v>
+        <v>1836</v>
       </c>
       <c r="D489" t="s">
-        <v>1834</v>
-      </c>
-      <c r="E489" s="5" t="s">
         <v>1835</v>
       </c>
+      <c r="E489" t="s">
+        <v>1837</v>
+      </c>
       <c r="F489" s="1" t="s">
-        <v>1890</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
@@ -16366,19 +16321,19 @@
         <v>490</v>
       </c>
       <c r="B490" t="s">
-        <v>1869</v>
+        <v>1851</v>
       </c>
       <c r="C490" t="s">
         <v>1840</v>
       </c>
       <c r="D490" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="E490" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>1891</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
@@ -16387,19 +16342,19 @@
         <v>491</v>
       </c>
       <c r="B491" t="s">
-        <v>1869</v>
+        <v>1851</v>
       </c>
       <c r="C491" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="D491" t="s">
-        <v>1844</v>
+        <v>1692</v>
       </c>
       <c r="E491" t="s">
-        <v>1846</v>
+        <v>1693</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>1891</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
@@ -16408,19 +16363,19 @@
         <v>492</v>
       </c>
       <c r="B492" t="s">
-        <v>1869</v>
+        <v>1851</v>
       </c>
       <c r="C492" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="D492" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="E492" t="s">
-        <v>1849</v>
+        <v>1844</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>1891</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
@@ -16429,19 +16384,19 @@
         <v>493</v>
       </c>
       <c r="B493" t="s">
-        <v>1869</v>
+        <v>1851</v>
       </c>
       <c r="C493" t="s">
-        <v>1851</v>
+        <v>1846</v>
       </c>
       <c r="D493" t="s">
-        <v>1850</v>
+        <v>1845</v>
       </c>
       <c r="E493" t="s">
-        <v>1852</v>
+        <v>1847</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>1891</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
@@ -16450,124 +16405,19 @@
         <v>494</v>
       </c>
       <c r="B494" t="s">
-        <v>1869</v>
+        <v>1851</v>
       </c>
       <c r="C494" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="D494" t="s">
-        <v>1853</v>
+        <v>1848</v>
       </c>
       <c r="E494" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A495">
-        <f t="shared" si="7"/>
-        <v>495</v>
-      </c>
-      <c r="B495" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C495" t="s">
-        <v>1858</v>
-      </c>
-      <c r="D495" t="s">
-        <v>1856</v>
-      </c>
-      <c r="E495" t="s">
-        <v>1857</v>
-      </c>
-      <c r="F495" s="1" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A496">
-        <f t="shared" si="7"/>
-        <v>496</v>
-      </c>
-      <c r="B496" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C496" t="s">
-        <v>1859</v>
-      </c>
-      <c r="D496" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E496" t="s">
-        <v>1708</v>
-      </c>
-      <c r="F496" s="1" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A497">
-        <f t="shared" si="7"/>
-        <v>497</v>
-      </c>
-      <c r="B497" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C497" t="s">
-        <v>1860</v>
-      </c>
-      <c r="D497" t="s">
-        <v>1861</v>
-      </c>
-      <c r="E497" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F497" s="1" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A498">
-        <f t="shared" si="7"/>
-        <v>498</v>
-      </c>
-      <c r="B498" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C498" t="s">
-        <v>1864</v>
-      </c>
-      <c r="D498" t="s">
-        <v>1863</v>
-      </c>
-      <c r="E498" t="s">
-        <v>1865</v>
-      </c>
-      <c r="F498" s="1" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A499">
-        <f t="shared" si="7"/>
-        <v>499</v>
-      </c>
-      <c r="B499" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C499" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D499" t="s">
-        <v>1866</v>
-      </c>
-      <c r="E499" t="s">
-        <v>1867</v>
-      </c>
-      <c r="F499" s="1" t="s">
-        <v>1891</v>
+        <v>1873</v>
       </c>
     </row>
   </sheetData>
@@ -16577,43 +16427,43 @@
   <hyperlinks>
     <hyperlink ref="F1" r:id="rId1"/>
     <hyperlink ref="F42" r:id="rId2"/>
-    <hyperlink ref="F63" r:id="rId3"/>
-    <hyperlink ref="F64" r:id="rId4"/>
-    <hyperlink ref="F65:F105" r:id="rId5" display="file:///android_asset/numbers.png"/>
-    <hyperlink ref="F106" r:id="rId6"/>
-    <hyperlink ref="F107:F154" r:id="rId7" display="file:///android_asset/time.png"/>
-    <hyperlink ref="F155" r:id="rId8"/>
-    <hyperlink ref="F156:F165" r:id="rId9" display="file:///android_asset/colors.png"/>
-    <hyperlink ref="F166" r:id="rId10"/>
-    <hyperlink ref="F186" r:id="rId11"/>
-    <hyperlink ref="F218" r:id="rId12"/>
-    <hyperlink ref="F219:F226" r:id="rId13" display="file:///android_asset/money.png"/>
-    <hyperlink ref="F254" r:id="rId14"/>
-    <hyperlink ref="F299" r:id="rId15"/>
-    <hyperlink ref="F300:F317" r:id="rId16" display="file:///android_asset/bar.png"/>
-    <hyperlink ref="F319" r:id="rId17"/>
+    <hyperlink ref="F62" r:id="rId3"/>
+    <hyperlink ref="F63" r:id="rId4"/>
+    <hyperlink ref="F64:F104" r:id="rId5" display="file:///android_asset/numbers.png"/>
+    <hyperlink ref="F105" r:id="rId6"/>
+    <hyperlink ref="F106:F153" r:id="rId7" display="file:///android_asset/time.png"/>
+    <hyperlink ref="F154" r:id="rId8"/>
+    <hyperlink ref="F155:F164" r:id="rId9" display="file:///android_asset/colors.png"/>
+    <hyperlink ref="F165" r:id="rId10"/>
+    <hyperlink ref="F185" r:id="rId11"/>
+    <hyperlink ref="F217" r:id="rId12"/>
+    <hyperlink ref="F218:F225" r:id="rId13" display="file:///android_asset/money.png"/>
+    <hyperlink ref="F253" r:id="rId14"/>
+    <hyperlink ref="F298" r:id="rId15"/>
+    <hyperlink ref="F299:F315" r:id="rId16" display="file:///android_asset/bar.png"/>
+    <hyperlink ref="F317" r:id="rId17"/>
     <hyperlink ref="F2" r:id="rId18"/>
     <hyperlink ref="F37" r:id="rId19"/>
-    <hyperlink ref="F377" r:id="rId20"/>
+    <hyperlink ref="F375" r:id="rId20"/>
     <hyperlink ref="F39" r:id="rId21"/>
     <hyperlink ref="F40" r:id="rId22"/>
     <hyperlink ref="F38" r:id="rId23"/>
-    <hyperlink ref="F320" r:id="rId24"/>
-    <hyperlink ref="F385:F402" r:id="rId25" display="file:///android_asset/love.png"/>
-    <hyperlink ref="F378:F384" r:id="rId26" display="file:///android_asset/love.png"/>
-    <hyperlink ref="F217" r:id="rId27"/>
-    <hyperlink ref="F318" r:id="rId28"/>
-    <hyperlink ref="F403" r:id="rId29"/>
-    <hyperlink ref="F433" r:id="rId30"/>
-    <hyperlink ref="F434:F471" r:id="rId31" display="file:///android_asset/airport.png"/>
-    <hyperlink ref="F472" r:id="rId32"/>
-    <hyperlink ref="F473:F489" r:id="rId33" display="file:///android_asset/weather.png"/>
-    <hyperlink ref="F490" r:id="rId34"/>
-    <hyperlink ref="F491:F499" r:id="rId35" display="file:///android_asset/allergies.png"/>
-    <hyperlink ref="F355" r:id="rId36"/>
-    <hyperlink ref="F356:F376" r:id="rId37" display="file:///android_asset/taxi.png"/>
-    <hyperlink ref="F255:F298" r:id="rId38" display="file:///android_asset/menu.png"/>
-    <hyperlink ref="F41" r:id="rId39"/>
+    <hyperlink ref="F318" r:id="rId24"/>
+    <hyperlink ref="F382:F399" r:id="rId25" display="file:///android_asset/love.png"/>
+    <hyperlink ref="F376:F380" r:id="rId26" display="file:///android_asset/love.png"/>
+    <hyperlink ref="F216" r:id="rId27"/>
+    <hyperlink ref="F316" r:id="rId28"/>
+    <hyperlink ref="F429" r:id="rId29"/>
+    <hyperlink ref="F430:F466" r:id="rId30" display="file:///android_asset/airport.png"/>
+    <hyperlink ref="F467" r:id="rId31"/>
+    <hyperlink ref="F468:F484" r:id="rId32" display="file:///android_asset/weather.png"/>
+    <hyperlink ref="F485" r:id="rId33"/>
+    <hyperlink ref="F486:F494" r:id="rId34" display="file:///android_asset/allergies.png"/>
+    <hyperlink ref="F353" r:id="rId35"/>
+    <hyperlink ref="F354:F374" r:id="rId36" display="file:///android_asset/taxi.png"/>
+    <hyperlink ref="F41" r:id="rId37"/>
+    <hyperlink ref="F381" r:id="rId38"/>
+    <hyperlink ref="F254:F297" r:id="rId39" display="file:///android_asset/food.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/src/main/assets/Cantonese Phrases.xlsx
+++ b/app/src/main/assets/Cantonese Phrases.xlsx
@@ -3906,45 +3906,6 @@
     <t>你哋送唔送貨(去外國)嘎?</t>
   </si>
   <si>
-    <t>我要...</t>
-  </si>
-  <si>
-    <t>...牙膏.</t>
-  </si>
-  <si>
-    <t>...牙刷.</t>
-  </si>
-  <si>
-    <t>...番挸.</t>
-  </si>
-  <si>
-    <t>...洗頭水.</t>
-  </si>
-  <si>
-    <t>...止痛藥.</t>
-  </si>
-  <si>
-    <t>...感冒藥.</t>
-  </si>
-  <si>
-    <t>...胃藥.</t>
-  </si>
-  <si>
-    <t>...剃鬚刀.</t>
-  </si>
-  <si>
-    <t>...遮.</t>
-  </si>
-  <si>
-    <t>...太陽油.</t>
-  </si>
-  <si>
-    <t>...電池.</t>
-  </si>
-  <si>
-    <t>...筆.</t>
-  </si>
-  <si>
     <t>喂</t>
   </si>
   <si>
@@ -4638,9 +4599,6 @@
     <t>唔该車我去機場</t>
   </si>
   <si>
-    <t>邊度喺...</t>
-  </si>
-  <si>
     <t>航空公司辦事處</t>
   </si>
   <si>
@@ -4818,9 +4776,6 @@
     <t>I have…</t>
   </si>
   <si>
-    <t>我有…</t>
-  </si>
-  <si>
     <t>發燒</t>
   </si>
   <si>
@@ -4911,9 +4866,6 @@
     <t>You are very…</t>
   </si>
   <si>
-    <t>你好…</t>
-  </si>
-  <si>
     <t>nei5 hou2 …</t>
   </si>
   <si>
@@ -5124,15 +5076,9 @@
     <t>jau5 mou5 zit3?</t>
   </si>
   <si>
-    <t>… 服裝</t>
-  </si>
-  <si>
     <t>fuk6 zong1</t>
   </si>
   <si>
-    <t>… 衫裙</t>
-  </si>
-  <si>
     <t>… one piece dress</t>
   </si>
   <si>
@@ -5142,18 +5088,9 @@
     <t>ji1 kwan4</t>
   </si>
   <si>
-    <t>… 帽</t>
-  </si>
-  <si>
-    <t>… 衣裙</t>
-  </si>
-  <si>
     <t xml:space="preserve">mou6 </t>
   </si>
   <si>
-    <t>… 短褸</t>
-  </si>
-  <si>
     <t>… jacket</t>
   </si>
   <si>
@@ -5163,9 +5100,6 @@
     <t>dyun2 lau5</t>
   </si>
   <si>
-    <t>…   牛仔褲</t>
-  </si>
-  <si>
     <t>… jeans</t>
   </si>
   <si>
@@ -5175,42 +5109,27 @@
     <t>… T-shirt</t>
   </si>
   <si>
-    <t>… T裇</t>
-  </si>
-  <si>
     <t>ti1 seot1</t>
   </si>
   <si>
     <t>… shirt</t>
   </si>
   <si>
-    <t>… 恤衫</t>
-  </si>
-  <si>
     <t>seot1 saam1</t>
   </si>
   <si>
-    <t>… 西裝</t>
-  </si>
-  <si>
     <t>… suit</t>
   </si>
   <si>
     <t>sai1 zong1</t>
   </si>
   <si>
-    <t>… 冷衫</t>
-  </si>
-  <si>
     <t>… sweater</t>
   </si>
   <si>
     <t>laang5 saam1</t>
   </si>
   <si>
-    <t>… 領呔</t>
-  </si>
-  <si>
     <t>… tie</t>
   </si>
   <si>
@@ -5313,9 +5232,6 @@
     <t>winter</t>
   </si>
   <si>
-    <t>今日天氣 …</t>
-  </si>
-  <si>
     <t>凍</t>
   </si>
   <si>
@@ -5695,6 +5611,90 @@
   </si>
   <si>
     <t>Néih deih sāu-m̀h-sāu au yùhn gah?</t>
+  </si>
+  <si>
+    <t>我要</t>
+  </si>
+  <si>
+    <t>牙膏.</t>
+  </si>
+  <si>
+    <t>牙刷.</t>
+  </si>
+  <si>
+    <t>番挸.</t>
+  </si>
+  <si>
+    <t>洗頭水.</t>
+  </si>
+  <si>
+    <t>剃鬚刀.</t>
+  </si>
+  <si>
+    <t>遮.</t>
+  </si>
+  <si>
+    <t>太陽油.</t>
+  </si>
+  <si>
+    <t>電池.</t>
+  </si>
+  <si>
+    <t>筆.</t>
+  </si>
+  <si>
+    <t>止痛藥.</t>
+  </si>
+  <si>
+    <t>感冒藥.</t>
+  </si>
+  <si>
+    <t>胃藥.</t>
+  </si>
+  <si>
+    <t>邊度喺</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 服裝</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 衫裙</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 衣裙</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 帽</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 短褸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   牛仔褲</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T裇</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 恤衫</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 西裝</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 冷衫</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 領呔</t>
+  </si>
+  <si>
+    <t>你好</t>
+  </si>
+  <si>
+    <t>我有</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今日天氣 </t>
   </si>
 </sst>
 </file>
@@ -6043,8 +6043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C219" sqref="C219"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6085,13 +6085,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1844</v>
+        <v>1816</v>
       </c>
       <c r="D2" t="s">
-        <v>1306</v>
+        <v>1293</v>
       </c>
       <c r="E2" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>427</v>
@@ -6235,10 +6235,10 @@
         <v>448</v>
       </c>
       <c r="D9" t="s">
-        <v>1308</v>
+        <v>1295</v>
       </c>
       <c r="E9" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>427</v>
@@ -6253,13 +6253,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>1400</v>
+        <v>1387</v>
       </c>
       <c r="D10" t="s">
-        <v>1401</v>
+        <v>1388</v>
       </c>
       <c r="E10" t="s">
-        <v>1402</v>
+        <v>1389</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>427</v>
@@ -6274,13 +6274,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>1403</v>
+        <v>1390</v>
       </c>
       <c r="D11" t="s">
-        <v>1404</v>
+        <v>1391</v>
       </c>
       <c r="E11" t="s">
-        <v>1405</v>
+        <v>1392</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>427</v>
@@ -6295,13 +6295,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>1406</v>
+        <v>1393</v>
       </c>
       <c r="D12" t="s">
-        <v>1872</v>
+        <v>1844</v>
       </c>
       <c r="E12" t="s">
-        <v>1407</v>
+        <v>1394</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>427</v>
@@ -6316,13 +6316,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>1408</v>
+        <v>1395</v>
       </c>
       <c r="D13" t="s">
-        <v>1409</v>
+        <v>1396</v>
       </c>
       <c r="E13" t="s">
-        <v>1845</v>
+        <v>1817</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>427</v>
@@ -6589,13 +6589,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>1330</v>
+        <v>1317</v>
       </c>
       <c r="D26" t="s">
-        <v>1331</v>
+        <v>1318</v>
       </c>
       <c r="E26" t="s">
-        <v>1332</v>
+        <v>1319</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>427</v>
@@ -6673,13 +6673,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>1310</v>
+        <v>1297</v>
       </c>
       <c r="D30" t="s">
-        <v>1312</v>
+        <v>1299</v>
       </c>
       <c r="E30" t="s">
-        <v>1313</v>
+        <v>1300</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>427</v>
@@ -6694,13 +6694,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
       <c r="D31" t="s">
-        <v>1314</v>
+        <v>1301</v>
       </c>
       <c r="E31" t="s">
-        <v>1315</v>
+        <v>1302</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>427</v>
@@ -6715,13 +6715,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>1322</v>
+        <v>1309</v>
       </c>
       <c r="D32" t="s">
-        <v>1323</v>
+        <v>1310</v>
       </c>
       <c r="E32" t="s">
-        <v>1324</v>
+        <v>1311</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>427</v>
@@ -6757,13 +6757,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>1325</v>
+        <v>1312</v>
       </c>
       <c r="D34" t="s">
-        <v>1326</v>
+        <v>1313</v>
       </c>
       <c r="E34" t="s">
-        <v>1327</v>
+        <v>1314</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>427</v>
@@ -6778,13 +6778,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>1328</v>
+        <v>1315</v>
       </c>
       <c r="D35" t="s">
-        <v>1329</v>
+        <v>1316</v>
       </c>
       <c r="E35" t="s">
-        <v>1441</v>
+        <v>1428</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>427</v>
@@ -6820,13 +6820,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>1319</v>
+        <v>1306</v>
       </c>
       <c r="D37" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="E37" t="s">
-        <v>1321</v>
+        <v>1308</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>427</v>
@@ -6841,13 +6841,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>1410</v>
+        <v>1397</v>
       </c>
       <c r="D38" t="s">
-        <v>1411</v>
+        <v>1398</v>
       </c>
       <c r="E38" t="s">
-        <v>1412</v>
+        <v>1399</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>427</v>
@@ -6862,13 +6862,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>1865</v>
+        <v>1837</v>
       </c>
       <c r="D39" t="s">
-        <v>1342</v>
+        <v>1329</v>
       </c>
       <c r="E39" t="s">
-        <v>1343</v>
+        <v>1330</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>427</v>
@@ -6883,13 +6883,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>1344</v>
+        <v>1331</v>
       </c>
       <c r="D40" t="s">
-        <v>1345</v>
+        <v>1332</v>
       </c>
       <c r="E40" t="s">
-        <v>1846</v>
+        <v>1818</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>427</v>
@@ -6904,13 +6904,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>1859</v>
+        <v>1831</v>
       </c>
       <c r="D41" t="s">
-        <v>1860</v>
+        <v>1832</v>
       </c>
       <c r="E41" t="s">
-        <v>1864</v>
+        <v>1836</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>427</v>
@@ -6922,7 +6922,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="C42" t="s">
         <v>466</v>
@@ -6943,7 +6943,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="C43" t="s">
         <v>467</v>
@@ -6964,16 +6964,16 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="C44" t="s">
-        <v>1849</v>
+        <v>1821</v>
       </c>
       <c r="D44" t="s">
-        <v>1847</v>
+        <v>1819</v>
       </c>
       <c r="E44" t="s">
-        <v>1848</v>
+        <v>1820</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>428</v>
@@ -6985,16 +6985,16 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="C45" t="s">
-        <v>1339</v>
+        <v>1326</v>
       </c>
       <c r="D45" t="s">
-        <v>1340</v>
+        <v>1327</v>
       </c>
       <c r="E45" t="s">
-        <v>1341</v>
+        <v>1328</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>428</v>
@@ -7006,7 +7006,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="C46" t="s">
         <v>468</v>
@@ -7027,16 +7027,16 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="C47" t="s">
-        <v>1336</v>
+        <v>1323</v>
       </c>
       <c r="D47" t="s">
-        <v>1337</v>
+        <v>1324</v>
       </c>
       <c r="E47" t="s">
-        <v>1338</v>
+        <v>1325</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>428</v>
@@ -7048,7 +7048,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="C48" t="s">
         <v>469</v>
@@ -7069,7 +7069,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="C49" t="s">
         <v>470</v>
@@ -7090,16 +7090,16 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="C50" t="s">
-        <v>1850</v>
+        <v>1822</v>
       </c>
       <c r="D50" t="s">
-        <v>1836</v>
+        <v>1808</v>
       </c>
       <c r="E50" t="s">
-        <v>1837</v>
+        <v>1809</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>428</v>
@@ -7111,7 +7111,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="C51" t="s">
         <v>471</v>
@@ -7132,7 +7132,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="C52" t="s">
         <v>472</v>
@@ -7153,7 +7153,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="C53" t="s">
         <v>473</v>
@@ -7174,7 +7174,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="C54" t="s">
         <v>475</v>
@@ -7195,7 +7195,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="C55" t="s">
         <v>476</v>
@@ -7216,7 +7216,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="C56" t="s">
         <v>477</v>
@@ -7237,7 +7237,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="C57" t="s">
         <v>478</v>
@@ -7258,7 +7258,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="C58" t="s">
         <v>479</v>
@@ -7279,7 +7279,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="C59" t="s">
         <v>480</v>
@@ -7300,7 +7300,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="C60" t="s">
         <v>481</v>
@@ -7321,7 +7321,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="C61" t="s">
         <v>482</v>
@@ -8611,7 +8611,7 @@
         <v>1116</v>
       </c>
       <c r="E122" t="s">
-        <v>1437</v>
+        <v>1424</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>430</v>
@@ -8653,7 +8653,7 @@
         <v>1118</v>
       </c>
       <c r="E124" t="s">
-        <v>1438</v>
+        <v>1425</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>430</v>
@@ -8674,7 +8674,7 @@
         <v>1119</v>
       </c>
       <c r="E125" t="s">
-        <v>1439</v>
+        <v>1426</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>430</v>
@@ -9640,7 +9640,7 @@
         <v>1165</v>
       </c>
       <c r="E171" t="s">
-        <v>1440</v>
+        <v>1427</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>432</v>
@@ -9991,13 +9991,13 @@
         <v>397</v>
       </c>
       <c r="C188" t="s">
-        <v>1346</v>
+        <v>1333</v>
       </c>
       <c r="D188" t="s">
-        <v>1347</v>
+        <v>1334</v>
       </c>
       <c r="E188" t="s">
-        <v>1348</v>
+        <v>1335</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>433</v>
@@ -10012,13 +10012,13 @@
         <v>397</v>
       </c>
       <c r="C189" t="s">
-        <v>1349</v>
+        <v>1336</v>
       </c>
       <c r="D189" t="s">
-        <v>1350</v>
+        <v>1337</v>
       </c>
       <c r="E189" t="s">
-        <v>1351</v>
+        <v>1338</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>433</v>
@@ -10033,13 +10033,13 @@
         <v>397</v>
       </c>
       <c r="C190" t="s">
-        <v>1352</v>
+        <v>1339</v>
       </c>
       <c r="D190" t="s">
-        <v>1353</v>
+        <v>1340</v>
       </c>
       <c r="E190" t="s">
-        <v>1354</v>
+        <v>1341</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>433</v>
@@ -10054,13 +10054,13 @@
         <v>397</v>
       </c>
       <c r="C191" t="s">
-        <v>1355</v>
+        <v>1342</v>
       </c>
       <c r="D191" t="s">
-        <v>1356</v>
+        <v>1343</v>
       </c>
       <c r="E191" t="s">
-        <v>1357</v>
+        <v>1344</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>433</v>
@@ -10075,13 +10075,13 @@
         <v>397</v>
       </c>
       <c r="C192" t="s">
-        <v>1358</v>
+        <v>1345</v>
       </c>
       <c r="D192" t="s">
-        <v>1359</v>
+        <v>1346</v>
       </c>
       <c r="E192" t="s">
-        <v>1360</v>
+        <v>1347</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>433</v>
@@ -10096,13 +10096,13 @@
         <v>397</v>
       </c>
       <c r="C193" t="s">
-        <v>1361</v>
+        <v>1348</v>
       </c>
       <c r="D193" t="s">
-        <v>1362</v>
+        <v>1349</v>
       </c>
       <c r="E193" t="s">
-        <v>1473</v>
+        <v>1460</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>433</v>
@@ -10117,13 +10117,13 @@
         <v>397</v>
       </c>
       <c r="C194" t="s">
-        <v>1363</v>
+        <v>1350</v>
       </c>
       <c r="D194" t="s">
-        <v>1364</v>
+        <v>1351</v>
       </c>
       <c r="E194" t="s">
-        <v>1365</v>
+        <v>1352</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>433</v>
@@ -10131,7 +10131,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <f t="shared" ref="A195:A260" si="3">A194+1</f>
+        <f t="shared" ref="A195:A258" si="3">A194+1</f>
         <v>195</v>
       </c>
       <c r="B195" t="s">
@@ -10414,7 +10414,7 @@
         <v>643</v>
       </c>
       <c r="D208" t="s">
-        <v>1873</v>
+        <v>1845</v>
       </c>
       <c r="E208" t="s">
         <v>926</v>
@@ -10477,10 +10477,10 @@
         <v>646</v>
       </c>
       <c r="D211" t="s">
-        <v>1874</v>
+        <v>1846</v>
       </c>
       <c r="E211" t="s">
-        <v>1876</v>
+        <v>1848</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>433</v>
@@ -10498,10 +10498,10 @@
         <v>647</v>
       </c>
       <c r="D212" t="s">
-        <v>1875</v>
+        <v>1847</v>
       </c>
       <c r="E212" t="s">
-        <v>1877</v>
+        <v>1849</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>433</v>
@@ -10579,13 +10579,13 @@
         <v>398</v>
       </c>
       <c r="C216" t="s">
-        <v>1681</v>
+        <v>1665</v>
       </c>
       <c r="D216" t="s">
-        <v>1682</v>
+        <v>1666</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>1683</v>
+        <v>1667</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>434</v>
@@ -10600,13 +10600,13 @@
         <v>398</v>
       </c>
       <c r="C217" t="s">
-        <v>1881</v>
+        <v>1853</v>
       </c>
       <c r="D217" t="s">
-        <v>1878</v>
+        <v>1850</v>
       </c>
       <c r="E217" t="s">
-        <v>1886</v>
+        <v>1858</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>434</v>
@@ -10621,13 +10621,13 @@
         <v>398</v>
       </c>
       <c r="C218" t="s">
-        <v>1882</v>
+        <v>1854</v>
       </c>
       <c r="D218" t="s">
-        <v>1879</v>
+        <v>1851</v>
       </c>
       <c r="E218" t="s">
-        <v>1887</v>
+        <v>1859</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>434</v>
@@ -10642,13 +10642,13 @@
         <v>398</v>
       </c>
       <c r="C219" t="s">
-        <v>1883</v>
+        <v>1855</v>
       </c>
       <c r="D219" t="s">
-        <v>1880</v>
+        <v>1852</v>
       </c>
       <c r="E219" t="s">
-        <v>1888</v>
+        <v>1860</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>434</v>
@@ -10663,13 +10663,13 @@
         <v>398</v>
       </c>
       <c r="C220" t="s">
-        <v>1884</v>
+        <v>1856</v>
       </c>
       <c r="D220" t="s">
-        <v>1885</v>
+        <v>1857</v>
       </c>
       <c r="E220" t="s">
-        <v>1889</v>
+        <v>1861</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>434</v>
@@ -10677,7 +10677,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <f>A220+1</f>
+        <f t="shared" si="3"/>
         <v>221</v>
       </c>
       <c r="B221" t="s">
@@ -10939,10 +10939,10 @@
         <v>663</v>
       </c>
       <c r="D233" t="s">
-        <v>1372</v>
+        <v>1359</v>
       </c>
       <c r="E233" t="s">
-        <v>1373</v>
+        <v>1360</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>435</v>
@@ -11062,13 +11062,13 @@
         <v>423</v>
       </c>
       <c r="C239" t="s">
-        <v>1366</v>
+        <v>1353</v>
       </c>
       <c r="D239" t="s">
-        <v>1367</v>
+        <v>1354</v>
       </c>
       <c r="E239" t="s">
-        <v>1368</v>
+        <v>1355</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>435</v>
@@ -11083,13 +11083,13 @@
         <v>423</v>
       </c>
       <c r="C240" t="s">
-        <v>1369</v>
+        <v>1356</v>
       </c>
       <c r="D240" t="s">
-        <v>1370</v>
+        <v>1357</v>
       </c>
       <c r="E240" t="s">
-        <v>1371</v>
+        <v>1358</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>435</v>
@@ -11125,13 +11125,13 @@
         <v>423</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>1318</v>
+        <v>1305</v>
       </c>
       <c r="D242" t="s">
-        <v>1316</v>
+        <v>1303</v>
       </c>
       <c r="E242" t="s">
-        <v>1317</v>
+        <v>1304</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>435</v>
@@ -11233,10 +11233,10 @@
         <v>698</v>
       </c>
       <c r="D247" t="s">
-        <v>1471</v>
+        <v>1458</v>
       </c>
       <c r="E247" t="s">
-        <v>1472</v>
+        <v>1459</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>435</v>
@@ -11335,13 +11335,13 @@
         <v>423</v>
       </c>
       <c r="C252" t="s">
-        <v>1653</v>
+        <v>1637</v>
       </c>
       <c r="D252" t="s">
         <v>1236</v>
       </c>
       <c r="E252" t="s">
-        <v>1654</v>
+        <v>1638</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>435</v>
@@ -11356,13 +11356,13 @@
         <v>423</v>
       </c>
       <c r="C253" t="s">
-        <v>1656</v>
+        <v>1640</v>
       </c>
       <c r="D253" t="s">
-        <v>1657</v>
+        <v>1641</v>
       </c>
       <c r="E253" t="s">
-        <v>1655</v>
+        <v>1639</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>435</v>
@@ -11377,13 +11377,13 @@
         <v>423</v>
       </c>
       <c r="C254" t="s">
-        <v>1659</v>
+        <v>1643</v>
       </c>
       <c r="D254" t="s">
-        <v>1660</v>
+        <v>1644</v>
       </c>
       <c r="E254" t="s">
-        <v>1658</v>
+        <v>1642</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>435</v>
@@ -11395,7 +11395,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C255" t="s">
         <v>399</v>
@@ -11407,7 +11407,7 @@
         <v>415</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -11416,7 +11416,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C256" t="s">
         <v>400</v>
@@ -11428,7 +11428,7 @@
         <v>416</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -11437,7 +11437,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C257" t="s">
         <v>401</v>
@@ -11449,7 +11449,7 @@
         <v>417</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -11458,7 +11458,7 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C258" t="s">
         <v>402</v>
@@ -11470,16 +11470,16 @@
         <v>418</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A259:A322" si="4">A258+1</f>
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C259" t="s">
         <v>403</v>
@@ -11491,16 +11491,16 @@
         <v>419</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C260" t="s">
         <v>404</v>
@@ -11512,16 +11512,16 @@
         <v>420</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
-        <f t="shared" ref="A261:A324" si="4">A260+1</f>
+        <f t="shared" si="4"/>
         <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C261" t="s">
         <v>405</v>
@@ -11533,7 +11533,7 @@
         <v>421</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -11542,7 +11542,7 @@
         <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C262" t="s">
         <v>406</v>
@@ -11554,7 +11554,7 @@
         <v>422</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -11563,7 +11563,7 @@
         <v>263</v>
       </c>
       <c r="B263" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C263" t="s">
         <v>674</v>
@@ -11575,7 +11575,7 @@
         <v>953</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -11584,19 +11584,19 @@
         <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C264" t="s">
         <v>675</v>
       </c>
       <c r="D264" t="s">
-        <v>1732</v>
+        <v>1705</v>
       </c>
       <c r="E264" t="s">
-        <v>1733</v>
+        <v>1706</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -11605,19 +11605,19 @@
         <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C265" t="s">
         <v>676</v>
       </c>
       <c r="D265" t="s">
-        <v>1730</v>
+        <v>1703</v>
       </c>
       <c r="E265" t="s">
-        <v>1734</v>
+        <v>1707</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -11626,19 +11626,19 @@
         <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C266" t="s">
         <v>677</v>
       </c>
       <c r="D266" t="s">
-        <v>1731</v>
+        <v>1704</v>
       </c>
       <c r="E266" t="s">
-        <v>1735</v>
+        <v>1708</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -11647,19 +11647,19 @@
         <v>267</v>
       </c>
       <c r="B267" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C267" t="s">
-        <v>1651</v>
+        <v>1635</v>
       </c>
       <c r="D267" t="s">
-        <v>1663</v>
+        <v>1647</v>
       </c>
       <c r="E267" t="s">
-        <v>1664</v>
+        <v>1648</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -11668,19 +11668,19 @@
         <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C268" t="s">
-        <v>1652</v>
+        <v>1636</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>1661</v>
+        <v>1645</v>
       </c>
       <c r="E268" t="s">
-        <v>1662</v>
+        <v>1646</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -11689,7 +11689,7 @@
         <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C269" t="s">
         <v>678</v>
@@ -11701,7 +11701,7 @@
         <v>954</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -11710,7 +11710,7 @@
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C270" t="s">
         <v>679</v>
@@ -11722,7 +11722,7 @@
         <v>955</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -11731,7 +11731,7 @@
         <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C271" t="s">
         <v>680</v>
@@ -11743,7 +11743,7 @@
         <v>956</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -11752,7 +11752,7 @@
         <v>272</v>
       </c>
       <c r="B272" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C272" t="s">
         <v>681</v>
@@ -11764,7 +11764,7 @@
         <v>957</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -11773,7 +11773,7 @@
         <v>273</v>
       </c>
       <c r="B273" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C273" t="s">
         <v>682</v>
@@ -11785,7 +11785,7 @@
         <v>958</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -11794,7 +11794,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C274" t="s">
         <v>683</v>
@@ -11806,7 +11806,7 @@
         <v>959</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -11815,7 +11815,7 @@
         <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C275" t="s">
         <v>684</v>
@@ -11827,7 +11827,7 @@
         <v>960</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -11836,7 +11836,7 @@
         <v>276</v>
       </c>
       <c r="B276" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C276" t="s">
         <v>685</v>
@@ -11848,7 +11848,7 @@
         <v>961</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -11857,7 +11857,7 @@
         <v>277</v>
       </c>
       <c r="B277" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C277" t="s">
         <v>686</v>
@@ -11869,7 +11869,7 @@
         <v>962</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -11878,7 +11878,7 @@
         <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C278" t="s">
         <v>687</v>
@@ -11890,7 +11890,7 @@
         <v>963</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -11899,7 +11899,7 @@
         <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C279" t="s">
         <v>688</v>
@@ -11911,7 +11911,7 @@
         <v>964</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -11920,7 +11920,7 @@
         <v>280</v>
       </c>
       <c r="B280" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C280" t="s">
         <v>689</v>
@@ -11932,7 +11932,7 @@
         <v>965</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -11941,19 +11941,19 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C281" t="s">
-        <v>1667</v>
+        <v>1651</v>
       </c>
       <c r="D281" t="s">
-        <v>1666</v>
+        <v>1650</v>
       </c>
       <c r="E281" t="s">
-        <v>1668</v>
+        <v>1652</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -11962,19 +11962,19 @@
         <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C282" t="s">
-        <v>1669</v>
+        <v>1653</v>
       </c>
       <c r="D282" t="s">
-        <v>1670</v>
+        <v>1654</v>
       </c>
       <c r="E282" t="s">
-        <v>1671</v>
+        <v>1655</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -11983,19 +11983,19 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C283" t="s">
-        <v>1674</v>
+        <v>1658</v>
       </c>
       <c r="D283" t="s">
-        <v>1672</v>
+        <v>1656</v>
       </c>
       <c r="E283" t="s">
-        <v>1673</v>
+        <v>1657</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -12004,19 +12004,19 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C284" t="s">
-        <v>1677</v>
+        <v>1661</v>
       </c>
       <c r="D284" t="s">
-        <v>1675</v>
+        <v>1659</v>
       </c>
       <c r="E284" t="s">
-        <v>1676</v>
+        <v>1660</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -12025,19 +12025,19 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C285" t="s">
-        <v>1679</v>
+        <v>1663</v>
       </c>
       <c r="D285" t="s">
-        <v>1678</v>
+        <v>1662</v>
       </c>
       <c r="E285" t="s">
-        <v>1680</v>
+        <v>1664</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -12046,19 +12046,19 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C286" t="s">
-        <v>1736</v>
+        <v>1709</v>
       </c>
       <c r="D286" t="s">
-        <v>1737</v>
+        <v>1710</v>
       </c>
       <c r="E286" t="s">
-        <v>1738</v>
+        <v>1711</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -12067,19 +12067,19 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C287" t="s">
-        <v>1739</v>
+        <v>1712</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>1740</v>
+        <v>1713</v>
       </c>
       <c r="E287" t="s">
-        <v>1741</v>
+        <v>1714</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -12088,7 +12088,7 @@
         <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C288" t="s">
         <v>688</v>
@@ -12097,10 +12097,10 @@
         <v>1252</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>1742</v>
+        <v>1715</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -12109,7 +12109,7 @@
         <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C289" t="s">
         <v>690</v>
@@ -12121,7 +12121,7 @@
         <v>966</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -12130,7 +12130,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C290" t="s">
         <v>691</v>
@@ -12142,7 +12142,7 @@
         <v>967</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -12151,7 +12151,7 @@
         <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C291" t="s">
         <v>692</v>
@@ -12163,7 +12163,7 @@
         <v>968</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -12172,19 +12172,19 @@
         <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C292" t="s">
-        <v>1665</v>
+        <v>1649</v>
       </c>
       <c r="D292" t="s">
-        <v>1870</v>
+        <v>1842</v>
       </c>
       <c r="E292" t="s">
-        <v>1871</v>
+        <v>1843</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -12193,7 +12193,7 @@
         <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C293" t="s">
         <v>693</v>
@@ -12205,7 +12205,7 @@
         <v>969</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -12214,7 +12214,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C294" t="s">
         <v>694</v>
@@ -12226,7 +12226,7 @@
         <v>970</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -12235,7 +12235,7 @@
         <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C295" t="s">
         <v>695</v>
@@ -12247,7 +12247,7 @@
         <v>971</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -12256,7 +12256,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C296" t="s">
         <v>696</v>
@@ -12268,7 +12268,7 @@
         <v>972</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -12277,7 +12277,7 @@
         <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C297" t="s">
         <v>697</v>
@@ -12289,7 +12289,7 @@
         <v>973</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -12298,19 +12298,19 @@
         <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C298" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F298" s="1" t="s">
         <v>1838</v>
-      </c>
-      <c r="D298" t="s">
-        <v>1839</v>
-      </c>
-      <c r="E298" t="s">
-        <v>1840</v>
-      </c>
-      <c r="F298" s="1" t="s">
-        <v>1866</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -12319,19 +12319,19 @@
         <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>1861</v>
+        <v>1833</v>
       </c>
       <c r="C299" t="s">
-        <v>1843</v>
+        <v>1815</v>
       </c>
       <c r="D299" t="s">
-        <v>1841</v>
+        <v>1813</v>
       </c>
       <c r="E299" t="s">
-        <v>1842</v>
+        <v>1814</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>1866</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -12721,13 +12721,13 @@
         <v>425</v>
       </c>
       <c r="C318" t="s">
-        <v>1684</v>
+        <v>1668</v>
       </c>
       <c r="D318" t="s">
-        <v>1685</v>
+        <v>1669</v>
       </c>
       <c r="E318" t="s">
-        <v>1686</v>
+        <v>1670</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>437</v>
@@ -12763,13 +12763,13 @@
         <v>425</v>
       </c>
       <c r="C320" t="s">
-        <v>1863</v>
+        <v>1835</v>
       </c>
       <c r="D320" t="s">
-        <v>1650</v>
+        <v>1634</v>
       </c>
       <c r="E320" t="s">
-        <v>1413</v>
+        <v>1400</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>437</v>
@@ -12819,7 +12819,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A323:A386" si="5">A322+1</f>
         <v>323</v>
       </c>
       <c r="B323" t="s">
@@ -12840,20 +12840,20 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>324</v>
       </c>
       <c r="B324" t="s">
         <v>425</v>
       </c>
       <c r="C324" t="s">
-        <v>1690</v>
+        <v>1674</v>
       </c>
       <c r="D324" t="s">
-        <v>1691</v>
+        <v>1675</v>
       </c>
       <c r="E324" t="s">
-        <v>1693</v>
+        <v>1677</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>437</v>
@@ -12861,20 +12861,20 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
-        <f t="shared" ref="A325:A388" si="5">A324+1</f>
+        <f t="shared" si="5"/>
         <v>325</v>
       </c>
       <c r="B325" t="s">
         <v>425</v>
       </c>
       <c r="C325" t="s">
-        <v>1692</v>
+        <v>1676</v>
       </c>
       <c r="D325" t="s">
-        <v>1695</v>
+        <v>1679</v>
       </c>
       <c r="E325" t="s">
-        <v>1694</v>
+        <v>1678</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>437</v>
@@ -12889,13 +12889,13 @@
         <v>425</v>
       </c>
       <c r="C326" t="s">
-        <v>1696</v>
+        <v>1680</v>
       </c>
       <c r="D326" t="s">
-        <v>1697</v>
+        <v>1681</v>
       </c>
       <c r="E326" t="s">
-        <v>1698</v>
+        <v>1682</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>437</v>
@@ -13036,13 +13036,13 @@
         <v>425</v>
       </c>
       <c r="C333" t="s">
-        <v>1687</v>
+        <v>1671</v>
       </c>
       <c r="D333" t="s">
-        <v>1688</v>
+        <v>1672</v>
       </c>
       <c r="E333" t="s">
-        <v>1689</v>
+        <v>1673</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>437</v>
@@ -13060,7 +13060,7 @@
         <v>729</v>
       </c>
       <c r="D334" t="s">
-        <v>1293</v>
+        <v>1862</v>
       </c>
       <c r="E334" t="s">
         <v>1003</v>
@@ -13081,7 +13081,7 @@
         <v>730</v>
       </c>
       <c r="D335" t="s">
-        <v>1294</v>
+        <v>1863</v>
       </c>
       <c r="E335" t="s">
         <v>1004</v>
@@ -13102,7 +13102,7 @@
         <v>731</v>
       </c>
       <c r="D336" t="s">
-        <v>1295</v>
+        <v>1864</v>
       </c>
       <c r="E336" t="s">
         <v>1005</v>
@@ -13123,7 +13123,7 @@
         <v>732</v>
       </c>
       <c r="D337" t="s">
-        <v>1296</v>
+        <v>1865</v>
       </c>
       <c r="E337" t="s">
         <v>1006</v>
@@ -13144,7 +13144,7 @@
         <v>733</v>
       </c>
       <c r="D338" t="s">
-        <v>1297</v>
+        <v>1866</v>
       </c>
       <c r="E338" t="s">
         <v>1007</v>
@@ -13165,7 +13165,7 @@
         <v>734</v>
       </c>
       <c r="D339" t="s">
-        <v>1301</v>
+        <v>1867</v>
       </c>
       <c r="E339" t="s">
         <v>1011</v>
@@ -13186,7 +13186,7 @@
         <v>735</v>
       </c>
       <c r="D340" t="s">
-        <v>1302</v>
+        <v>1868</v>
       </c>
       <c r="E340" t="s">
         <v>1012</v>
@@ -13207,7 +13207,7 @@
         <v>736</v>
       </c>
       <c r="D341" t="s">
-        <v>1303</v>
+        <v>1869</v>
       </c>
       <c r="E341" t="s">
         <v>1013</v>
@@ -13228,7 +13228,7 @@
         <v>737</v>
       </c>
       <c r="D342" t="s">
-        <v>1304</v>
+        <v>1870</v>
       </c>
       <c r="E342" t="s">
         <v>1014</v>
@@ -13249,7 +13249,7 @@
         <v>738</v>
       </c>
       <c r="D343" t="s">
-        <v>1305</v>
+        <v>1871</v>
       </c>
       <c r="E343" t="s">
         <v>1015</v>
@@ -13267,13 +13267,13 @@
         <v>425</v>
       </c>
       <c r="C344" t="s">
-        <v>1855</v>
+        <v>1827</v>
       </c>
       <c r="D344" t="s">
-        <v>1699</v>
+        <v>1876</v>
       </c>
       <c r="E344" t="s">
-        <v>1700</v>
+        <v>1683</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>437</v>
@@ -13288,13 +13288,13 @@
         <v>425</v>
       </c>
       <c r="C345" t="s">
-        <v>1702</v>
+        <v>1684</v>
       </c>
       <c r="D345" t="s">
-        <v>1701</v>
+        <v>1877</v>
       </c>
       <c r="E345" t="s">
-        <v>1703</v>
+        <v>1685</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>437</v>
@@ -13309,13 +13309,13 @@
         <v>425</v>
       </c>
       <c r="C346" t="s">
-        <v>1856</v>
+        <v>1828</v>
       </c>
       <c r="D346" t="s">
-        <v>1706</v>
+        <v>1878</v>
       </c>
       <c r="E346" t="s">
-        <v>1704</v>
+        <v>1686</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>437</v>
@@ -13330,13 +13330,13 @@
         <v>425</v>
       </c>
       <c r="C347" t="s">
-        <v>1710</v>
+        <v>1689</v>
       </c>
       <c r="D347" t="s">
-        <v>1705</v>
+        <v>1879</v>
       </c>
       <c r="E347" t="s">
-        <v>1707</v>
+        <v>1687</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>437</v>
@@ -13351,13 +13351,13 @@
         <v>425</v>
       </c>
       <c r="C348" t="s">
-        <v>1709</v>
+        <v>1688</v>
       </c>
       <c r="D348" t="s">
-        <v>1708</v>
+        <v>1880</v>
       </c>
       <c r="E348" t="s">
-        <v>1711</v>
+        <v>1690</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>437</v>
@@ -13372,13 +13372,13 @@
         <v>425</v>
       </c>
       <c r="C349" t="s">
-        <v>1713</v>
+        <v>1691</v>
       </c>
       <c r="D349" t="s">
-        <v>1712</v>
+        <v>1881</v>
       </c>
       <c r="E349" t="s">
-        <v>1714</v>
+        <v>1692</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>437</v>
@@ -13393,13 +13393,13 @@
         <v>425</v>
       </c>
       <c r="C350" t="s">
-        <v>1715</v>
+        <v>1693</v>
       </c>
       <c r="D350" t="s">
-        <v>1716</v>
+        <v>1882</v>
       </c>
       <c r="E350" t="s">
-        <v>1717</v>
+        <v>1694</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>437</v>
@@ -13414,13 +13414,13 @@
         <v>425</v>
       </c>
       <c r="C351" t="s">
-        <v>1718</v>
+        <v>1695</v>
       </c>
       <c r="D351" t="s">
-        <v>1719</v>
+        <v>1883</v>
       </c>
       <c r="E351" t="s">
-        <v>1720</v>
+        <v>1696</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>437</v>
@@ -13435,13 +13435,13 @@
         <v>425</v>
       </c>
       <c r="C352" t="s">
-        <v>1722</v>
+        <v>1697</v>
       </c>
       <c r="D352" t="s">
-        <v>1721</v>
+        <v>1884</v>
       </c>
       <c r="E352" t="s">
-        <v>1723</v>
+        <v>1698</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>437</v>
@@ -13456,13 +13456,13 @@
         <v>425</v>
       </c>
       <c r="C353" t="s">
-        <v>1725</v>
+        <v>1699</v>
       </c>
       <c r="D353" t="s">
-        <v>1724</v>
+        <v>1885</v>
       </c>
       <c r="E353" t="s">
-        <v>1726</v>
+        <v>1700</v>
       </c>
       <c r="F353" s="1" t="s">
         <v>437</v>
@@ -13477,13 +13477,13 @@
         <v>425</v>
       </c>
       <c r="C354" t="s">
-        <v>1728</v>
+        <v>1701</v>
       </c>
       <c r="D354" t="s">
-        <v>1727</v>
+        <v>1886</v>
       </c>
       <c r="E354" t="s">
-        <v>1729</v>
+        <v>1702</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>437</v>
@@ -13495,7 +13495,7 @@
         <v>355</v>
       </c>
       <c r="B355" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C355" t="s">
         <v>593</v>
@@ -13507,7 +13507,7 @@
         <v>878</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -13516,7 +13516,7 @@
         <v>356</v>
       </c>
       <c r="B356" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C356" t="s">
         <v>594</v>
@@ -13528,7 +13528,7 @@
         <v>879</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -13537,7 +13537,7 @@
         <v>357</v>
       </c>
       <c r="B357" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C357" t="s">
         <v>595</v>
@@ -13549,7 +13549,7 @@
         <v>880</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -13558,7 +13558,7 @@
         <v>358</v>
       </c>
       <c r="B358" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C358" t="s">
         <v>596</v>
@@ -13570,7 +13570,7 @@
         <v>439</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -13579,19 +13579,19 @@
         <v>359</v>
       </c>
       <c r="B359" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C359" t="s">
-        <v>1832</v>
+        <v>1804</v>
       </c>
       <c r="D359" t="s">
-        <v>1833</v>
+        <v>1805</v>
       </c>
       <c r="E359" t="s">
-        <v>1834</v>
+        <v>1806</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -13600,7 +13600,7 @@
         <v>360</v>
       </c>
       <c r="B360" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C360" t="s">
         <v>610</v>
@@ -13612,7 +13612,7 @@
         <v>894</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
@@ -13621,7 +13621,7 @@
         <v>361</v>
       </c>
       <c r="B361" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C361" t="s">
         <v>611</v>
@@ -13633,7 +13633,7 @@
         <v>895</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -13642,7 +13642,7 @@
         <v>362</v>
       </c>
       <c r="B362" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C362" t="s">
         <v>612</v>
@@ -13654,7 +13654,7 @@
         <v>896</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
@@ -13663,7 +13663,7 @@
         <v>363</v>
       </c>
       <c r="B363" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C363" t="s">
         <v>613</v>
@@ -13675,7 +13675,7 @@
         <v>897</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -13684,7 +13684,7 @@
         <v>364</v>
       </c>
       <c r="B364" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C364" t="s">
         <v>614</v>
@@ -13696,7 +13696,7 @@
         <v>898</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
@@ -13705,7 +13705,7 @@
         <v>365</v>
       </c>
       <c r="B365" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C365" t="s">
         <v>615</v>
@@ -13717,7 +13717,7 @@
         <v>899</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -13726,7 +13726,7 @@
         <v>366</v>
       </c>
       <c r="B366" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C366" t="s">
         <v>616</v>
@@ -13738,7 +13738,7 @@
         <v>900</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
@@ -13747,19 +13747,19 @@
         <v>367</v>
       </c>
       <c r="B367" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C367" t="s">
         <v>617</v>
       </c>
       <c r="D367" t="s">
-        <v>1645</v>
+        <v>1629</v>
       </c>
       <c r="E367" t="s">
-        <v>1646</v>
+        <v>1630</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -13768,7 +13768,7 @@
         <v>368</v>
       </c>
       <c r="B368" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C368" t="s">
         <v>618</v>
@@ -13780,7 +13780,7 @@
         <v>901</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -13789,7 +13789,7 @@
         <v>369</v>
       </c>
       <c r="B369" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C369" t="s">
         <v>619</v>
@@ -13801,7 +13801,7 @@
         <v>902</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
@@ -13810,7 +13810,7 @@
         <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C370" t="s">
         <v>620</v>
@@ -13822,7 +13822,7 @@
         <v>903</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -13831,7 +13831,7 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C371" t="s">
         <v>621</v>
@@ -13843,7 +13843,7 @@
         <v>904</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -13852,7 +13852,7 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C372" t="s">
         <v>622</v>
@@ -13864,7 +13864,7 @@
         <v>905</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -13873,7 +13873,7 @@
         <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C373" t="s">
         <v>623</v>
@@ -13885,7 +13885,7 @@
         <v>906</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -13894,7 +13894,7 @@
         <v>374</v>
       </c>
       <c r="B374" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C374" t="s">
         <v>624</v>
@@ -13906,7 +13906,7 @@
         <v>907</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -13915,7 +13915,7 @@
         <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C375" t="s">
         <v>625</v>
@@ -13927,7 +13927,7 @@
         <v>908</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
@@ -13936,7 +13936,7 @@
         <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>1835</v>
+        <v>1807</v>
       </c>
       <c r="C376" t="s">
         <v>626</v>
@@ -13948,7 +13948,7 @@
         <v>909</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>1854</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -13957,19 +13957,19 @@
         <v>377</v>
       </c>
       <c r="B377" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C377" t="s">
-        <v>1333</v>
+        <v>1320</v>
       </c>
       <c r="D377" t="s">
-        <v>1334</v>
+        <v>1321</v>
       </c>
       <c r="E377" t="s">
-        <v>1335</v>
+        <v>1322</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -13978,19 +13978,19 @@
         <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C378" t="s">
-        <v>1627</v>
+        <v>1612</v>
       </c>
       <c r="D378" t="s">
-        <v>1628</v>
+        <v>1887</v>
       </c>
       <c r="E378" t="s">
-        <v>1629</v>
+        <v>1613</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
@@ -13999,19 +13999,19 @@
         <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C379" t="s">
-        <v>1630</v>
+        <v>1614</v>
       </c>
       <c r="D379" t="s">
-        <v>1631</v>
+        <v>1615</v>
       </c>
       <c r="E379" t="s">
-        <v>1632</v>
+        <v>1616</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
@@ -14020,19 +14020,19 @@
         <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C380" t="s">
-        <v>1641</v>
+        <v>1625</v>
       </c>
       <c r="D380" t="s">
-        <v>1639</v>
+        <v>1623</v>
       </c>
       <c r="E380" t="s">
-        <v>1640</v>
+        <v>1624</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -14041,19 +14041,19 @@
         <v>381</v>
       </c>
       <c r="B381" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C381" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="D381" t="s">
-        <v>1636</v>
+        <v>1620</v>
       </c>
       <c r="E381" t="s">
-        <v>1637</v>
+        <v>1621</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -14062,19 +14062,19 @@
         <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C382" t="s">
-        <v>1635</v>
+        <v>1619</v>
       </c>
       <c r="D382" t="s">
-        <v>1633</v>
+        <v>1617</v>
       </c>
       <c r="E382" t="s">
-        <v>1634</v>
+        <v>1618</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -14083,19 +14083,19 @@
         <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C383" t="s">
-        <v>1644</v>
+        <v>1628</v>
       </c>
       <c r="D383" t="s">
-        <v>1642</v>
+        <v>1626</v>
       </c>
       <c r="E383" t="s">
-        <v>1643</v>
+        <v>1627</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -14104,19 +14104,19 @@
         <v>384</v>
       </c>
       <c r="B384" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C384" t="s">
-        <v>1375</v>
+        <v>1362</v>
       </c>
       <c r="D384" t="s">
-        <v>1376</v>
+        <v>1363</v>
       </c>
       <c r="E384" t="s">
-        <v>1377</v>
+        <v>1364</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
@@ -14125,19 +14125,19 @@
         <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C385" t="s">
-        <v>1378</v>
+        <v>1365</v>
       </c>
       <c r="D385" t="s">
-        <v>1379</v>
+        <v>1366</v>
       </c>
       <c r="E385" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -14146,82 +14146,82 @@
         <v>386</v>
       </c>
       <c r="B386" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C386" t="s">
-        <v>1380</v>
+        <v>1367</v>
       </c>
       <c r="D386" t="s">
-        <v>1381</v>
+        <v>1368</v>
       </c>
       <c r="E386" t="s">
-        <v>1382</v>
+        <v>1369</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A387:A450" si="6">A386+1</f>
         <v>387</v>
       </c>
       <c r="B387" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C387" t="s">
-        <v>1383</v>
+        <v>1370</v>
       </c>
       <c r="D387" t="s">
-        <v>1384</v>
+        <v>1371</v>
       </c>
       <c r="E387" t="s">
-        <v>1385</v>
+        <v>1372</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>388</v>
       </c>
       <c r="B388" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D388" t="s">
         <v>1374</v>
       </c>
-      <c r="C388" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D388" t="s">
-        <v>1387</v>
-      </c>
       <c r="E388" t="s">
-        <v>1388</v>
+        <v>1375</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
-        <f t="shared" ref="A389:A451" si="6">A388+1</f>
+        <f t="shared" si="6"/>
         <v>389</v>
       </c>
       <c r="B389" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C389" t="s">
-        <v>1389</v>
+        <v>1376</v>
       </c>
       <c r="D389" t="s">
-        <v>1390</v>
+        <v>1377</v>
       </c>
       <c r="E389" t="s">
-        <v>1443</v>
+        <v>1430</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -14230,19 +14230,19 @@
         <v>390</v>
       </c>
       <c r="B390" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C390" t="s">
-        <v>1391</v>
+        <v>1378</v>
       </c>
       <c r="D390" t="s">
-        <v>1392</v>
+        <v>1379</v>
       </c>
       <c r="E390" t="s">
-        <v>1393</v>
+        <v>1380</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -14251,19 +14251,19 @@
         <v>391</v>
       </c>
       <c r="B391" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C391" t="s">
-        <v>1394</v>
+        <v>1381</v>
       </c>
       <c r="D391" t="s">
-        <v>1395</v>
+        <v>1382</v>
       </c>
       <c r="E391" t="s">
-        <v>1396</v>
+        <v>1383</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
@@ -14272,19 +14272,19 @@
         <v>392</v>
       </c>
       <c r="B392" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C392" t="s">
-        <v>1397</v>
+        <v>1384</v>
       </c>
       <c r="D392" t="s">
-        <v>1398</v>
+        <v>1385</v>
       </c>
       <c r="E392" t="s">
-        <v>1399</v>
+        <v>1386</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
@@ -14293,19 +14293,19 @@
         <v>393</v>
       </c>
       <c r="B393" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C393" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E393" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F393" s="1" t="s">
         <v>1414</v>
-      </c>
-      <c r="D393" t="s">
-        <v>1415</v>
-      </c>
-      <c r="E393" t="s">
-        <v>1431</v>
-      </c>
-      <c r="F393" s="1" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
@@ -14314,19 +14314,19 @@
         <v>394</v>
       </c>
       <c r="B394" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C394" t="s">
-        <v>1416</v>
+        <v>1403</v>
       </c>
       <c r="D394" t="s">
-        <v>1417</v>
+        <v>1404</v>
       </c>
       <c r="E394" t="s">
-        <v>1432</v>
+        <v>1419</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -14335,19 +14335,19 @@
         <v>395</v>
       </c>
       <c r="B395" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C395" t="s">
-        <v>1418</v>
+        <v>1405</v>
       </c>
       <c r="D395" t="s">
-        <v>1419</v>
+        <v>1406</v>
       </c>
       <c r="E395" t="s">
-        <v>1428</v>
+        <v>1415</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -14356,19 +14356,19 @@
         <v>396</v>
       </c>
       <c r="B396" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C396" t="s">
-        <v>1867</v>
+        <v>1839</v>
       </c>
       <c r="D396" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E396" t="s">
         <v>1420</v>
       </c>
-      <c r="E396" t="s">
-        <v>1433</v>
-      </c>
       <c r="F396" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
@@ -14377,19 +14377,19 @@
         <v>397</v>
       </c>
       <c r="B397" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C397" t="s">
-        <v>1421</v>
+        <v>1408</v>
       </c>
       <c r="D397" t="s">
-        <v>1474</v>
+        <v>1461</v>
       </c>
       <c r="E397" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -14398,19 +14398,19 @@
         <v>398</v>
       </c>
       <c r="B398" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C398" t="s">
-        <v>1422</v>
+        <v>1409</v>
       </c>
       <c r="D398" t="s">
-        <v>1423</v>
+        <v>1410</v>
       </c>
       <c r="E398" t="s">
-        <v>1430</v>
+        <v>1417</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
@@ -14419,19 +14419,19 @@
         <v>399</v>
       </c>
       <c r="B399" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C399" t="s">
-        <v>1475</v>
+        <v>1462</v>
       </c>
       <c r="D399" t="s">
-        <v>1868</v>
+        <v>1840</v>
       </c>
       <c r="E399" t="s">
-        <v>1434</v>
+        <v>1421</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -14440,19 +14440,19 @@
         <v>400</v>
       </c>
       <c r="B400" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C400" t="s">
-        <v>1424</v>
+        <v>1411</v>
       </c>
       <c r="D400" t="s">
-        <v>1869</v>
+        <v>1841</v>
       </c>
       <c r="E400" t="s">
-        <v>1435</v>
+        <v>1422</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
@@ -14461,19 +14461,19 @@
         <v>401</v>
       </c>
       <c r="B401" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="C401" t="s">
-        <v>1425</v>
+        <v>1412</v>
       </c>
       <c r="D401" t="s">
-        <v>1426</v>
+        <v>1413</v>
       </c>
       <c r="E401" t="s">
-        <v>1436</v>
+        <v>1423</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
@@ -14482,19 +14482,19 @@
         <v>402</v>
       </c>
       <c r="B402" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C402" t="s">
-        <v>1591</v>
+        <v>1577</v>
       </c>
       <c r="D402" t="s">
-        <v>1592</v>
+        <v>1578</v>
       </c>
       <c r="E402" t="s">
-        <v>1593</v>
+        <v>1579</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
@@ -14503,19 +14503,19 @@
         <v>403</v>
       </c>
       <c r="B403" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C403" t="s">
-        <v>1596</v>
+        <v>1582</v>
       </c>
       <c r="D403" t="s">
-        <v>1597</v>
+        <v>1888</v>
       </c>
       <c r="E403" t="s">
-        <v>1804</v>
+        <v>1776</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
@@ -14524,19 +14524,19 @@
         <v>404</v>
       </c>
       <c r="B404" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C404" t="s">
-        <v>1623</v>
+        <v>1608</v>
       </c>
       <c r="D404" t="s">
-        <v>1469</v>
+        <v>1456</v>
       </c>
       <c r="E404" t="s">
-        <v>1478</v>
+        <v>1465</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
@@ -14545,19 +14545,19 @@
         <v>405</v>
       </c>
       <c r="B405" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C405" t="s">
-        <v>1622</v>
+        <v>1607</v>
       </c>
       <c r="D405" t="s">
-        <v>1468</v>
+        <v>1455</v>
       </c>
       <c r="E405" t="s">
-        <v>1485</v>
+        <v>1472</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
@@ -14566,19 +14566,19 @@
         <v>406</v>
       </c>
       <c r="B406" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C406" t="s">
-        <v>1611</v>
+        <v>1596</v>
       </c>
       <c r="D406" t="s">
-        <v>1594</v>
+        <v>1580</v>
       </c>
       <c r="E406" t="s">
-        <v>1595</v>
+        <v>1581</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
@@ -14587,19 +14587,19 @@
         <v>407</v>
       </c>
       <c r="B407" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C407" t="s">
-        <v>1616</v>
+        <v>1601</v>
       </c>
       <c r="D407" t="s">
-        <v>1607</v>
+        <v>1592</v>
       </c>
       <c r="E407" t="s">
-        <v>1608</v>
+        <v>1593</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
@@ -14608,19 +14608,19 @@
         <v>408</v>
       </c>
       <c r="B408" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C408" t="s">
-        <v>1613</v>
+        <v>1598</v>
       </c>
       <c r="D408" t="s">
-        <v>1600</v>
+        <v>1585</v>
       </c>
       <c r="E408" s="5" t="s">
-        <v>1601</v>
+        <v>1586</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
@@ -14629,19 +14629,19 @@
         <v>409</v>
       </c>
       <c r="B409" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C409" t="s">
-        <v>1617</v>
+        <v>1602</v>
       </c>
       <c r="D409" t="s">
-        <v>1609</v>
+        <v>1594</v>
       </c>
       <c r="E409" t="s">
-        <v>1610</v>
+        <v>1595</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
@@ -14650,19 +14650,19 @@
         <v>410</v>
       </c>
       <c r="B410" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C410" t="s">
-        <v>1618</v>
+        <v>1603</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>1602</v>
+        <v>1587</v>
       </c>
       <c r="E410" t="s">
-        <v>1603</v>
+        <v>1588</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
@@ -14671,19 +14671,19 @@
         <v>411</v>
       </c>
       <c r="B411" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C411" t="s">
-        <v>1612</v>
+        <v>1597</v>
       </c>
       <c r="D411" t="s">
-        <v>1598</v>
+        <v>1583</v>
       </c>
       <c r="E411" s="5" t="s">
-        <v>1599</v>
+        <v>1584</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
@@ -14692,19 +14692,19 @@
         <v>412</v>
       </c>
       <c r="B412" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C412" t="s">
-        <v>1619</v>
+        <v>1604</v>
       </c>
       <c r="D412" t="s">
-        <v>1446</v>
+        <v>1433</v>
       </c>
       <c r="E412" t="s">
-        <v>1477</v>
+        <v>1464</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
@@ -14713,19 +14713,19 @@
         <v>413</v>
       </c>
       <c r="B413" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C413" t="s">
-        <v>1621</v>
+        <v>1606</v>
       </c>
       <c r="D413" t="s">
-        <v>1467</v>
+        <v>1454</v>
       </c>
       <c r="E413" t="s">
-        <v>1484</v>
+        <v>1471</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
@@ -14734,19 +14734,19 @@
         <v>414</v>
       </c>
       <c r="B414" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C414" t="s">
-        <v>1615</v>
+        <v>1600</v>
       </c>
       <c r="D414" t="s">
-        <v>1605</v>
+        <v>1590</v>
       </c>
       <c r="E414" t="s">
-        <v>1606</v>
+        <v>1591</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
@@ -14755,19 +14755,19 @@
         <v>415</v>
       </c>
       <c r="B415" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C415" t="s">
-        <v>1614</v>
+        <v>1599</v>
       </c>
       <c r="D415" t="s">
-        <v>1447</v>
+        <v>1434</v>
       </c>
       <c r="E415" s="5" t="s">
-        <v>1604</v>
+        <v>1589</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
@@ -14776,19 +14776,19 @@
         <v>416</v>
       </c>
       <c r="B416" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C416" t="s">
-        <v>1620</v>
+        <v>1605</v>
       </c>
       <c r="D416" t="s">
-        <v>1466</v>
+        <v>1453</v>
       </c>
       <c r="E416" t="s">
-        <v>1476</v>
+        <v>1463</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
@@ -14797,19 +14797,19 @@
         <v>417</v>
       </c>
       <c r="B417" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C417" t="s">
-        <v>1449</v>
+        <v>1436</v>
       </c>
       <c r="D417" t="s">
-        <v>1448</v>
+        <v>1435</v>
       </c>
       <c r="E417" t="s">
-        <v>1479</v>
+        <v>1466</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
@@ -14818,19 +14818,19 @@
         <v>418</v>
       </c>
       <c r="B418" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C418" t="s">
-        <v>1450</v>
+        <v>1437</v>
       </c>
       <c r="D418" t="s">
-        <v>1451</v>
+        <v>1438</v>
       </c>
       <c r="E418" t="s">
-        <v>1480</v>
+        <v>1467</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
@@ -14839,19 +14839,19 @@
         <v>419</v>
       </c>
       <c r="B419" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C419" t="s">
-        <v>1798</v>
+        <v>1770</v>
       </c>
       <c r="D419" t="s">
-        <v>1799</v>
+        <v>1771</v>
       </c>
       <c r="E419" t="s">
-        <v>1800</v>
+        <v>1772</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
@@ -14860,19 +14860,19 @@
         <v>420</v>
       </c>
       <c r="B420" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C420" t="s">
-        <v>1452</v>
+        <v>1439</v>
       </c>
       <c r="D420" t="s">
-        <v>1453</v>
+        <v>1440</v>
       </c>
       <c r="E420" t="s">
-        <v>1801</v>
+        <v>1773</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
@@ -14881,19 +14881,19 @@
         <v>421</v>
       </c>
       <c r="B421" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C421" t="s">
-        <v>1454</v>
+        <v>1441</v>
       </c>
       <c r="D421" t="s">
-        <v>1455</v>
+        <v>1442</v>
       </c>
       <c r="E421" t="s">
-        <v>1481</v>
+        <v>1468</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
@@ -14902,19 +14902,19 @@
         <v>422</v>
       </c>
       <c r="B422" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C422" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E422" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F422" s="1" t="s">
         <v>1457</v>
-      </c>
-      <c r="D422" t="s">
-        <v>1456</v>
-      </c>
-      <c r="E422" t="s">
-        <v>1482</v>
-      </c>
-      <c r="F422" s="1" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
@@ -14923,19 +14923,19 @@
         <v>423</v>
       </c>
       <c r="B423" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C423" t="s">
         <v>1445</v>
       </c>
-      <c r="C423" t="s">
-        <v>1458</v>
-      </c>
       <c r="D423" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="E423" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
@@ -14944,19 +14944,19 @@
         <v>424</v>
       </c>
       <c r="B424" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C424" t="s">
-        <v>1461</v>
+        <v>1448</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>1462</v>
+        <v>1449</v>
       </c>
       <c r="E424" t="s">
-        <v>1463</v>
+        <v>1450</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
@@ -14965,19 +14965,19 @@
         <v>425</v>
       </c>
       <c r="B425" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C425" t="s">
-        <v>1647</v>
+        <v>1631</v>
       </c>
       <c r="D425" t="s">
-        <v>1298</v>
+        <v>1872</v>
       </c>
       <c r="E425" t="s">
         <v>1008</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
@@ -14986,19 +14986,19 @@
         <v>426</v>
       </c>
       <c r="B426" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C426" t="s">
-        <v>1648</v>
+        <v>1632</v>
       </c>
       <c r="D426" t="s">
-        <v>1299</v>
+        <v>1873</v>
       </c>
       <c r="E426" t="s">
         <v>1009</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
@@ -15007,19 +15007,19 @@
         <v>427</v>
       </c>
       <c r="B427" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C427" t="s">
-        <v>1649</v>
+        <v>1633</v>
       </c>
       <c r="D427" t="s">
-        <v>1300</v>
+        <v>1874</v>
       </c>
       <c r="E427" t="s">
         <v>1010</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
@@ -15028,19 +15028,19 @@
         <v>428</v>
       </c>
       <c r="B428" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C428" t="s">
-        <v>1464</v>
+        <v>1451</v>
       </c>
       <c r="D428" t="s">
-        <v>1465</v>
+        <v>1452</v>
       </c>
       <c r="E428" t="s">
-        <v>1483</v>
+        <v>1470</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
@@ -15049,7 +15049,7 @@
         <v>429</v>
       </c>
       <c r="B429" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="C429" t="s">
         <v>474</v>
@@ -15061,7 +15061,7 @@
         <v>770</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
@@ -15070,19 +15070,19 @@
         <v>430</v>
       </c>
       <c r="B430" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C430" t="s">
-        <v>1491</v>
+        <v>1478</v>
       </c>
       <c r="D430" t="s">
-        <v>1536</v>
+        <v>1523</v>
       </c>
       <c r="E430" t="s">
-        <v>1492</v>
+        <v>1479</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -15091,19 +15091,19 @@
         <v>431</v>
       </c>
       <c r="B431" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C431" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="D431" t="s">
-        <v>1537</v>
+        <v>1875</v>
       </c>
       <c r="E431" t="s">
-        <v>1626</v>
+        <v>1611</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
@@ -15112,19 +15112,19 @@
         <v>432</v>
       </c>
       <c r="B432" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C432" t="s">
-        <v>1569</v>
+        <v>1555</v>
       </c>
       <c r="D432" t="s">
-        <v>1538</v>
+        <v>1524</v>
       </c>
       <c r="E432" t="s">
-        <v>1494</v>
+        <v>1481</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
@@ -15133,19 +15133,19 @@
         <v>433</v>
       </c>
       <c r="B433" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C433" t="s">
-        <v>1570</v>
+        <v>1556</v>
       </c>
       <c r="D433" t="s">
-        <v>1539</v>
+        <v>1525</v>
       </c>
       <c r="E433" t="s">
-        <v>1495</v>
+        <v>1482</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
@@ -15154,19 +15154,19 @@
         <v>434</v>
       </c>
       <c r="B434" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C434" t="s">
-        <v>1571</v>
+        <v>1557</v>
       </c>
       <c r="D434" t="s">
-        <v>1540</v>
+        <v>1526</v>
       </c>
       <c r="E434" t="s">
-        <v>1496</v>
+        <v>1483</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
@@ -15175,19 +15175,19 @@
         <v>435</v>
       </c>
       <c r="B435" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C435" t="s">
-        <v>1572</v>
+        <v>1558</v>
       </c>
       <c r="D435" t="s">
-        <v>1541</v>
+        <v>1527</v>
       </c>
       <c r="E435" t="s">
-        <v>1497</v>
+        <v>1484</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
@@ -15196,19 +15196,19 @@
         <v>436</v>
       </c>
       <c r="B436" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C436" t="s">
-        <v>1573</v>
+        <v>1559</v>
       </c>
       <c r="D436" t="s">
-        <v>1542</v>
+        <v>1528</v>
       </c>
       <c r="E436" t="s">
-        <v>1498</v>
+        <v>1485</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
@@ -15217,19 +15217,19 @@
         <v>437</v>
       </c>
       <c r="B437" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E437" t="s">
         <v>1486</v>
       </c>
-      <c r="C437" t="s">
-        <v>1574</v>
-      </c>
-      <c r="D437" t="s">
-        <v>1543</v>
-      </c>
-      <c r="E437" t="s">
-        <v>1499</v>
-      </c>
       <c r="F437" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
@@ -15238,19 +15238,19 @@
         <v>438</v>
       </c>
       <c r="B438" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C438" t="s">
-        <v>1575</v>
+        <v>1561</v>
       </c>
       <c r="D438" t="s">
-        <v>1544</v>
+        <v>1530</v>
       </c>
       <c r="E438" t="s">
-        <v>1500</v>
+        <v>1487</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
@@ -15259,19 +15259,19 @@
         <v>439</v>
       </c>
       <c r="B439" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C439" t="s">
-        <v>1857</v>
+        <v>1829</v>
       </c>
       <c r="D439" t="s">
-        <v>1545</v>
+        <v>1531</v>
       </c>
       <c r="E439" t="s">
-        <v>1501</v>
+        <v>1488</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
@@ -15280,19 +15280,19 @@
         <v>440</v>
       </c>
       <c r="B440" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C440" t="s">
-        <v>1576</v>
+        <v>1562</v>
       </c>
       <c r="D440" t="s">
-        <v>1546</v>
+        <v>1532</v>
       </c>
       <c r="E440" t="s">
-        <v>1502</v>
+        <v>1489</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
@@ -15301,19 +15301,19 @@
         <v>441</v>
       </c>
       <c r="B441" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C441" t="s">
-        <v>1577</v>
+        <v>1563</v>
       </c>
       <c r="D441" t="s">
-        <v>1547</v>
+        <v>1533</v>
       </c>
       <c r="E441" t="s">
-        <v>1503</v>
+        <v>1490</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
@@ -15322,19 +15322,19 @@
         <v>442</v>
       </c>
       <c r="B442" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C442" t="s">
-        <v>1578</v>
+        <v>1564</v>
       </c>
       <c r="D442" t="s">
-        <v>1548</v>
+        <v>1534</v>
       </c>
       <c r="E442" t="s">
-        <v>1504</v>
+        <v>1491</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
@@ -15343,19 +15343,19 @@
         <v>443</v>
       </c>
       <c r="B443" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C443" t="s">
-        <v>1579</v>
+        <v>1565</v>
       </c>
       <c r="D443" t="s">
-        <v>1549</v>
+        <v>1535</v>
       </c>
       <c r="E443" t="s">
-        <v>1505</v>
+        <v>1492</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
@@ -15364,19 +15364,19 @@
         <v>444</v>
       </c>
       <c r="B444" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C444" t="s">
-        <v>1580</v>
+        <v>1566</v>
       </c>
       <c r="D444" t="s">
-        <v>1550</v>
+        <v>1536</v>
       </c>
       <c r="E444" t="s">
-        <v>1506</v>
+        <v>1493</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
@@ -15385,19 +15385,19 @@
         <v>445</v>
       </c>
       <c r="B445" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C445" t="s">
-        <v>1581</v>
+        <v>1567</v>
       </c>
       <c r="D445" t="s">
         <v>1173</v>
       </c>
       <c r="E445" t="s">
-        <v>1507</v>
+        <v>1494</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
@@ -15406,19 +15406,19 @@
         <v>446</v>
       </c>
       <c r="B446" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C446" t="s">
-        <v>1582</v>
+        <v>1568</v>
       </c>
       <c r="D446" t="s">
-        <v>1551</v>
+        <v>1537</v>
       </c>
       <c r="E446" t="s">
-        <v>1508</v>
+        <v>1495</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -15427,19 +15427,19 @@
         <v>447</v>
       </c>
       <c r="B447" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C447" t="s">
-        <v>1862</v>
+        <v>1834</v>
       </c>
       <c r="D447" t="s">
-        <v>1534</v>
+        <v>1521</v>
       </c>
       <c r="E447" t="s">
-        <v>1509</v>
+        <v>1496</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
@@ -15448,19 +15448,19 @@
         <v>448</v>
       </c>
       <c r="B448" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C448" t="s">
-        <v>1583</v>
+        <v>1569</v>
       </c>
       <c r="D448" t="s">
-        <v>1552</v>
+        <v>1538</v>
       </c>
       <c r="E448" t="s">
-        <v>1510</v>
+        <v>1497</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -15469,19 +15469,19 @@
         <v>449</v>
       </c>
       <c r="B449" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C449" t="s">
-        <v>1584</v>
+        <v>1570</v>
       </c>
       <c r="D449" t="s">
-        <v>1553</v>
+        <v>1539</v>
       </c>
       <c r="E449" t="s">
-        <v>1511</v>
+        <v>1498</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
@@ -15490,61 +15490,61 @@
         <v>450</v>
       </c>
       <c r="B450" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C450" t="s">
-        <v>1585</v>
+        <v>1571</v>
       </c>
       <c r="D450" t="s">
-        <v>1555</v>
+        <v>1541</v>
       </c>
       <c r="E450" t="s">
-        <v>1514</v>
+        <v>1501</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A451:A495" si="7">A450+1</f>
         <v>451</v>
       </c>
       <c r="B451" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C451" t="s">
-        <v>1858</v>
+        <v>1830</v>
       </c>
       <c r="D451" t="s">
-        <v>1556</v>
+        <v>1542</v>
       </c>
       <c r="E451" t="s">
-        <v>1515</v>
+        <v>1502</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452">
-        <f t="shared" ref="A452:A495" si="7">A451+1</f>
+        <f t="shared" si="7"/>
         <v>452</v>
       </c>
       <c r="B452" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C452" t="s">
-        <v>1586</v>
+        <v>1572</v>
       </c>
       <c r="D452" t="s">
-        <v>1557</v>
+        <v>1543</v>
       </c>
       <c r="E452" t="s">
-        <v>1516</v>
+        <v>1503</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
@@ -15553,19 +15553,19 @@
         <v>453</v>
       </c>
       <c r="B453" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C453" t="s">
-        <v>1587</v>
+        <v>1573</v>
       </c>
       <c r="D453" t="s">
-        <v>1558</v>
+        <v>1544</v>
       </c>
       <c r="E453" t="s">
-        <v>1517</v>
+        <v>1504</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
@@ -15574,19 +15574,19 @@
         <v>454</v>
       </c>
       <c r="B454" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C454" t="s">
-        <v>1588</v>
+        <v>1574</v>
       </c>
       <c r="D454" t="s">
-        <v>1559</v>
+        <v>1545</v>
       </c>
       <c r="E454" t="s">
-        <v>1518</v>
+        <v>1505</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -15595,19 +15595,19 @@
         <v>455</v>
       </c>
       <c r="B455" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C455" t="s">
-        <v>1589</v>
+        <v>1575</v>
       </c>
       <c r="D455" t="s">
-        <v>1561</v>
+        <v>1547</v>
       </c>
       <c r="E455" t="s">
-        <v>1521</v>
+        <v>1508</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
@@ -15616,19 +15616,19 @@
         <v>456</v>
       </c>
       <c r="B456" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C456" t="s">
-        <v>1590</v>
+        <v>1576</v>
       </c>
       <c r="D456" t="s">
-        <v>1566</v>
+        <v>1552</v>
       </c>
       <c r="E456" t="s">
-        <v>1531</v>
+        <v>1518</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
@@ -15637,19 +15637,19 @@
         <v>457</v>
       </c>
       <c r="B457" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C457" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="D457" t="s">
-        <v>1534</v>
+        <v>1521</v>
       </c>
       <c r="E457" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -15658,19 +15658,19 @@
         <v>458</v>
       </c>
       <c r="B458" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C458" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="D458" t="s">
-        <v>1535</v>
+        <v>1522</v>
       </c>
       <c r="E458" t="s">
-        <v>1490</v>
+        <v>1477</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
@@ -15679,19 +15679,19 @@
         <v>459</v>
       </c>
       <c r="B459" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C459" t="s">
-        <v>1519</v>
+        <v>1506</v>
       </c>
       <c r="D459" t="s">
-        <v>1560</v>
+        <v>1546</v>
       </c>
       <c r="E459" t="s">
-        <v>1520</v>
+        <v>1507</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
@@ -15700,19 +15700,19 @@
         <v>460</v>
       </c>
       <c r="B460" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C460" t="s">
-        <v>1522</v>
+        <v>1509</v>
       </c>
       <c r="D460" t="s">
-        <v>1562</v>
+        <v>1548</v>
       </c>
       <c r="E460" t="s">
-        <v>1523</v>
+        <v>1510</v>
       </c>
       <c r="F460" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
@@ -15721,19 +15721,19 @@
         <v>461</v>
       </c>
       <c r="B461" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C461" t="s">
-        <v>1524</v>
+        <v>1511</v>
       </c>
       <c r="D461" t="s">
-        <v>1563</v>
+        <v>1549</v>
       </c>
       <c r="E461" t="s">
-        <v>1525</v>
+        <v>1512</v>
       </c>
       <c r="F461" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
@@ -15742,19 +15742,19 @@
         <v>462</v>
       </c>
       <c r="B462" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C462" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="D462" t="s">
-        <v>1624</v>
+        <v>1609</v>
       </c>
       <c r="E462" t="s">
-        <v>1625</v>
+        <v>1610</v>
       </c>
       <c r="F462" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
@@ -15763,19 +15763,19 @@
         <v>463</v>
       </c>
       <c r="B463" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C463" t="s">
-        <v>1527</v>
+        <v>1514</v>
       </c>
       <c r="D463" t="s">
-        <v>1564</v>
+        <v>1550</v>
       </c>
       <c r="E463" t="s">
-        <v>1528</v>
+        <v>1515</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
@@ -15784,19 +15784,19 @@
         <v>464</v>
       </c>
       <c r="B464" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C464" t="s">
-        <v>1529</v>
+        <v>1516</v>
       </c>
       <c r="D464" t="s">
-        <v>1565</v>
+        <v>1551</v>
       </c>
       <c r="E464" t="s">
-        <v>1530</v>
+        <v>1517</v>
       </c>
       <c r="F464" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
@@ -15805,19 +15805,19 @@
         <v>465</v>
       </c>
       <c r="B465" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C465" t="s">
-        <v>1568</v>
+        <v>1554</v>
       </c>
       <c r="D465" t="s">
-        <v>1539</v>
+        <v>1525</v>
       </c>
       <c r="E465" t="s">
-        <v>1495</v>
+        <v>1482</v>
       </c>
       <c r="F465" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -15826,19 +15826,19 @@
         <v>466</v>
       </c>
       <c r="B466" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C466" t="s">
-        <v>1532</v>
+        <v>1519</v>
       </c>
       <c r="D466" t="s">
-        <v>1567</v>
+        <v>1553</v>
       </c>
       <c r="E466" t="s">
-        <v>1533</v>
+        <v>1520</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
@@ -15847,19 +15847,19 @@
         <v>467</v>
       </c>
       <c r="B467" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="C467" t="s">
-        <v>1512</v>
+        <v>1499</v>
       </c>
       <c r="D467" t="s">
-        <v>1554</v>
+        <v>1540</v>
       </c>
       <c r="E467" t="s">
-        <v>1513</v>
+        <v>1500</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>1851</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
@@ -15868,19 +15868,19 @@
         <v>468</v>
       </c>
       <c r="B468" t="s">
-        <v>1743</v>
+        <v>1716</v>
       </c>
       <c r="C468" t="s">
-        <v>1745</v>
+        <v>1718</v>
       </c>
       <c r="D468" t="s">
-        <v>1762</v>
+        <v>1889</v>
       </c>
       <c r="E468" s="5" t="s">
-        <v>1744</v>
+        <v>1717</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>1852</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
@@ -15889,19 +15889,19 @@
         <v>469</v>
       </c>
       <c r="B469" t="s">
-        <v>1743</v>
+        <v>1716</v>
       </c>
       <c r="C469" t="s">
-        <v>1746</v>
+        <v>1719</v>
       </c>
       <c r="D469" t="s">
-        <v>1763</v>
+        <v>1735</v>
       </c>
       <c r="E469" t="s">
-        <v>1764</v>
+        <v>1736</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>1852</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
@@ -15910,19 +15910,19 @@
         <v>470</v>
       </c>
       <c r="B470" t="s">
-        <v>1743</v>
+        <v>1716</v>
       </c>
       <c r="C470" t="s">
-        <v>1747</v>
+        <v>1720</v>
       </c>
       <c r="D470" t="s">
-        <v>1765</v>
+        <v>1737</v>
       </c>
       <c r="E470" t="s">
-        <v>1766</v>
+        <v>1738</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>1852</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
@@ -15931,19 +15931,19 @@
         <v>471</v>
       </c>
       <c r="B471" t="s">
-        <v>1743</v>
+        <v>1716</v>
       </c>
       <c r="C471" t="s">
-        <v>1748</v>
+        <v>1721</v>
       </c>
       <c r="D471" t="s">
-        <v>1769</v>
+        <v>1741</v>
       </c>
       <c r="E471" t="s">
-        <v>1770</v>
+        <v>1742</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>1852</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
@@ -15952,19 +15952,19 @@
         <v>472</v>
       </c>
       <c r="B472" t="s">
-        <v>1743</v>
+        <v>1716</v>
       </c>
       <c r="C472" t="s">
-        <v>1749</v>
+        <v>1722</v>
       </c>
       <c r="D472" t="s">
-        <v>1767</v>
+        <v>1739</v>
       </c>
       <c r="E472" t="s">
-        <v>1768</v>
+        <v>1740</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>1852</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
@@ -15973,19 +15973,19 @@
         <v>473</v>
       </c>
       <c r="B473" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D473" t="s">
         <v>1743</v>
       </c>
-      <c r="C473" t="s">
-        <v>1750</v>
-      </c>
-      <c r="D473" t="s">
-        <v>1771</v>
-      </c>
       <c r="E473" t="s">
-        <v>1772</v>
+        <v>1744</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>1852</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
@@ -15994,19 +15994,19 @@
         <v>474</v>
       </c>
       <c r="B474" t="s">
-        <v>1743</v>
+        <v>1716</v>
       </c>
       <c r="C474" t="s">
-        <v>1751</v>
+        <v>1724</v>
       </c>
       <c r="D474" t="s">
-        <v>1773</v>
+        <v>1745</v>
       </c>
       <c r="E474" t="s">
-        <v>1774</v>
+        <v>1746</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>1852</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
@@ -16015,19 +16015,19 @@
         <v>475</v>
       </c>
       <c r="B475" t="s">
-        <v>1743</v>
+        <v>1716</v>
       </c>
       <c r="C475" t="s">
-        <v>1752</v>
+        <v>1725</v>
       </c>
       <c r="D475" t="s">
-        <v>1775</v>
+        <v>1747</v>
       </c>
       <c r="E475" s="5" t="s">
-        <v>1776</v>
+        <v>1748</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>1852</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
@@ -16036,19 +16036,19 @@
         <v>476</v>
       </c>
       <c r="B476" t="s">
-        <v>1743</v>
+        <v>1716</v>
       </c>
       <c r="C476" t="s">
-        <v>1753</v>
+        <v>1726</v>
       </c>
       <c r="D476" t="s">
-        <v>1777</v>
+        <v>1749</v>
       </c>
       <c r="E476" t="s">
-        <v>1778</v>
+        <v>1750</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>1852</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
@@ -16057,19 +16057,19 @@
         <v>477</v>
       </c>
       <c r="B477" t="s">
-        <v>1743</v>
+        <v>1716</v>
       </c>
       <c r="C477" t="s">
-        <v>1754</v>
+        <v>1727</v>
       </c>
       <c r="D477" t="s">
-        <v>1779</v>
+        <v>1751</v>
       </c>
       <c r="E477" t="s">
-        <v>1780</v>
+        <v>1752</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>1852</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
@@ -16078,19 +16078,19 @@
         <v>478</v>
       </c>
       <c r="B478" t="s">
-        <v>1743</v>
+        <v>1716</v>
       </c>
       <c r="C478" t="s">
-        <v>1755</v>
+        <v>1728</v>
       </c>
       <c r="D478" t="s">
-        <v>1781</v>
+        <v>1753</v>
       </c>
       <c r="E478" t="s">
-        <v>1782</v>
+        <v>1754</v>
       </c>
       <c r="F478" s="1" t="s">
-        <v>1852</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
@@ -16099,19 +16099,19 @@
         <v>479</v>
       </c>
       <c r="B479" t="s">
-        <v>1743</v>
+        <v>1716</v>
       </c>
       <c r="C479" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D479" s="4" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E479" t="s">
         <v>1756</v>
       </c>
-      <c r="D479" s="4" t="s">
-        <v>1783</v>
-      </c>
-      <c r="E479" t="s">
-        <v>1784</v>
-      </c>
       <c r="F479" s="1" t="s">
-        <v>1852</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
@@ -16120,19 +16120,19 @@
         <v>480</v>
       </c>
       <c r="B480" t="s">
-        <v>1743</v>
+        <v>1716</v>
       </c>
       <c r="C480" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D480" t="s">
         <v>1757</v>
       </c>
-      <c r="D480" t="s">
-        <v>1785</v>
-      </c>
       <c r="E480" t="s">
-        <v>1786</v>
+        <v>1758</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>1852</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
@@ -16141,19 +16141,19 @@
         <v>481</v>
       </c>
       <c r="B481" t="s">
-        <v>1743</v>
+        <v>1716</v>
       </c>
       <c r="C481" t="s">
-        <v>1758</v>
+        <v>1731</v>
       </c>
       <c r="D481" t="s">
-        <v>1787</v>
+        <v>1759</v>
       </c>
       <c r="E481" s="5" t="s">
-        <v>1788</v>
+        <v>1760</v>
       </c>
       <c r="F481" s="1" t="s">
-        <v>1852</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
@@ -16162,19 +16162,19 @@
         <v>482</v>
       </c>
       <c r="B482" t="s">
-        <v>1743</v>
+        <v>1716</v>
       </c>
       <c r="C482" t="s">
-        <v>1759</v>
+        <v>1732</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>1789</v>
+        <v>1761</v>
       </c>
       <c r="E482" t="s">
-        <v>1790</v>
+        <v>1762</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>1852</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
@@ -16183,19 +16183,19 @@
         <v>483</v>
       </c>
       <c r="B483" t="s">
-        <v>1743</v>
+        <v>1716</v>
       </c>
       <c r="C483" t="s">
-        <v>1760</v>
+        <v>1733</v>
       </c>
       <c r="D483" t="s">
-        <v>1791</v>
+        <v>1763</v>
       </c>
       <c r="E483" t="s">
-        <v>1792</v>
+        <v>1764</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>1852</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
@@ -16204,19 +16204,19 @@
         <v>484</v>
       </c>
       <c r="B484" t="s">
-        <v>1743</v>
+        <v>1716</v>
       </c>
       <c r="C484" t="s">
-        <v>1794</v>
+        <v>1766</v>
       </c>
       <c r="D484" t="s">
-        <v>1793</v>
+        <v>1765</v>
       </c>
       <c r="E484" t="s">
-        <v>1795</v>
+        <v>1767</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>1852</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
@@ -16225,19 +16225,19 @@
         <v>485</v>
       </c>
       <c r="B485" t="s">
-        <v>1743</v>
+        <v>1716</v>
       </c>
       <c r="C485" t="s">
-        <v>1761</v>
+        <v>1734</v>
       </c>
       <c r="D485" t="s">
-        <v>1796</v>
+        <v>1768</v>
       </c>
       <c r="E485" s="5" t="s">
-        <v>1797</v>
+        <v>1769</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>1852</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
@@ -16246,19 +16246,19 @@
         <v>486</v>
       </c>
       <c r="B486" t="s">
-        <v>1831</v>
+        <v>1803</v>
       </c>
       <c r="C486" t="s">
-        <v>1802</v>
+        <v>1774</v>
       </c>
       <c r="D486" t="s">
-        <v>1803</v>
+        <v>1775</v>
       </c>
       <c r="E486" t="s">
-        <v>1805</v>
+        <v>1777</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>1853</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
@@ -16267,19 +16267,19 @@
         <v>487</v>
       </c>
       <c r="B487" t="s">
-        <v>1831</v>
+        <v>1803</v>
       </c>
       <c r="C487" t="s">
-        <v>1807</v>
+        <v>1779</v>
       </c>
       <c r="D487" t="s">
-        <v>1806</v>
+        <v>1778</v>
       </c>
       <c r="E487" t="s">
-        <v>1808</v>
+        <v>1780</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>1853</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
@@ -16288,19 +16288,19 @@
         <v>488</v>
       </c>
       <c r="B488" t="s">
-        <v>1831</v>
+        <v>1803</v>
       </c>
       <c r="C488" t="s">
-        <v>1810</v>
+        <v>1782</v>
       </c>
       <c r="D488" t="s">
-        <v>1809</v>
+        <v>1781</v>
       </c>
       <c r="E488" t="s">
-        <v>1811</v>
+        <v>1783</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>1853</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
@@ -16309,19 +16309,19 @@
         <v>489</v>
       </c>
       <c r="B489" t="s">
-        <v>1831</v>
+        <v>1803</v>
       </c>
       <c r="C489" t="s">
-        <v>1813</v>
+        <v>1785</v>
       </c>
       <c r="D489" t="s">
-        <v>1812</v>
+        <v>1784</v>
       </c>
       <c r="E489" t="s">
-        <v>1814</v>
+        <v>1786</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>1853</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
@@ -16330,19 +16330,19 @@
         <v>490</v>
       </c>
       <c r="B490" t="s">
-        <v>1831</v>
+        <v>1803</v>
       </c>
       <c r="C490" t="s">
-        <v>1816</v>
+        <v>1788</v>
       </c>
       <c r="D490" t="s">
-        <v>1815</v>
+        <v>1787</v>
       </c>
       <c r="E490" t="s">
-        <v>1817</v>
+        <v>1789</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>1853</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
@@ -16351,19 +16351,19 @@
         <v>491</v>
       </c>
       <c r="B491" t="s">
-        <v>1831</v>
+        <v>1803</v>
       </c>
       <c r="C491" t="s">
-        <v>1820</v>
+        <v>1792</v>
       </c>
       <c r="D491" t="s">
-        <v>1818</v>
+        <v>1790</v>
       </c>
       <c r="E491" t="s">
-        <v>1819</v>
+        <v>1791</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>1853</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
@@ -16372,19 +16372,19 @@
         <v>492</v>
       </c>
       <c r="B492" t="s">
-        <v>1831</v>
+        <v>1803</v>
       </c>
       <c r="C492" t="s">
-        <v>1821</v>
+        <v>1793</v>
       </c>
       <c r="D492" t="s">
-        <v>1672</v>
+        <v>1656</v>
       </c>
       <c r="E492" t="s">
-        <v>1673</v>
+        <v>1657</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>1853</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
@@ -16393,19 +16393,19 @@
         <v>493</v>
       </c>
       <c r="B493" t="s">
-        <v>1831</v>
+        <v>1803</v>
       </c>
       <c r="C493" t="s">
-        <v>1822</v>
+        <v>1794</v>
       </c>
       <c r="D493" t="s">
-        <v>1823</v>
+        <v>1795</v>
       </c>
       <c r="E493" t="s">
-        <v>1824</v>
+        <v>1796</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>1853</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
@@ -16414,19 +16414,19 @@
         <v>494</v>
       </c>
       <c r="B494" t="s">
-        <v>1831</v>
+        <v>1803</v>
       </c>
       <c r="C494" t="s">
-        <v>1826</v>
+        <v>1798</v>
       </c>
       <c r="D494" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E494" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F494" s="1" t="s">
         <v>1825</v>
-      </c>
-      <c r="E494" t="s">
-        <v>1827</v>
-      </c>
-      <c r="F494" s="1" t="s">
-        <v>1853</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
@@ -16435,19 +16435,19 @@
         <v>495</v>
       </c>
       <c r="B495" t="s">
-        <v>1831</v>
+        <v>1803</v>
       </c>
       <c r="C495" t="s">
-        <v>1830</v>
+        <v>1802</v>
       </c>
       <c r="D495" t="s">
-        <v>1828</v>
+        <v>1800</v>
       </c>
       <c r="E495" t="s">
-        <v>1829</v>
+        <v>1801</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>1853</v>
+        <v>1825</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/assets/Cantonese Phrases.xlsx
+++ b/app/src/main/assets/Cantonese Phrases.xlsx
@@ -5586,9 +5586,6 @@
     <t>你哋收唔收 加 元嘎?</t>
   </si>
   <si>
-    <t>Do you accept AmericanCanadian dollars?</t>
-  </si>
-  <si>
     <t>Do you accept Australian dollars?</t>
   </si>
   <si>
@@ -5695,6 +5692,9 @@
   </si>
   <si>
     <t xml:space="preserve">今日天氣 </t>
+  </si>
+  <si>
+    <t>Do you accept American dollars?</t>
   </si>
 </sst>
 </file>
@@ -6044,7 +6044,7 @@
   <dimension ref="A1:F495"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10600,13 +10600,13 @@
         <v>398</v>
       </c>
       <c r="C217" t="s">
-        <v>1853</v>
+        <v>1889</v>
       </c>
       <c r="D217" t="s">
         <v>1850</v>
       </c>
       <c r="E217" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>434</v>
@@ -10621,13 +10621,13 @@
         <v>398</v>
       </c>
       <c r="C218" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D218" t="s">
         <v>1851</v>
       </c>
       <c r="E218" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>434</v>
@@ -10642,13 +10642,13 @@
         <v>398</v>
       </c>
       <c r="C219" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D219" t="s">
         <v>1852</v>
       </c>
       <c r="E219" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>434</v>
@@ -10663,13 +10663,13 @@
         <v>398</v>
       </c>
       <c r="C220" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D220" t="s">
         <v>1856</v>
       </c>
-      <c r="D220" t="s">
-        <v>1857</v>
-      </c>
       <c r="E220" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>434</v>
@@ -13060,7 +13060,7 @@
         <v>729</v>
       </c>
       <c r="D334" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="E334" t="s">
         <v>1003</v>
@@ -13081,7 +13081,7 @@
         <v>730</v>
       </c>
       <c r="D335" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E335" t="s">
         <v>1004</v>
@@ -13102,7 +13102,7 @@
         <v>731</v>
       </c>
       <c r="D336" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="E336" t="s">
         <v>1005</v>
@@ -13123,7 +13123,7 @@
         <v>732</v>
       </c>
       <c r="D337" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E337" t="s">
         <v>1006</v>
@@ -13144,7 +13144,7 @@
         <v>733</v>
       </c>
       <c r="D338" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="E338" t="s">
         <v>1007</v>
@@ -13165,7 +13165,7 @@
         <v>734</v>
       </c>
       <c r="D339" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="E339" t="s">
         <v>1011</v>
@@ -13186,7 +13186,7 @@
         <v>735</v>
       </c>
       <c r="D340" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E340" t="s">
         <v>1012</v>
@@ -13207,7 +13207,7 @@
         <v>736</v>
       </c>
       <c r="D341" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="E341" t="s">
         <v>1013</v>
@@ -13228,7 +13228,7 @@
         <v>737</v>
       </c>
       <c r="D342" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="E342" t="s">
         <v>1014</v>
@@ -13249,7 +13249,7 @@
         <v>738</v>
       </c>
       <c r="D343" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E343" t="s">
         <v>1015</v>
@@ -13270,7 +13270,7 @@
         <v>1827</v>
       </c>
       <c r="D344" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="E344" t="s">
         <v>1683</v>
@@ -13291,7 +13291,7 @@
         <v>1684</v>
       </c>
       <c r="D345" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E345" t="s">
         <v>1685</v>
@@ -13312,7 +13312,7 @@
         <v>1828</v>
       </c>
       <c r="D346" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E346" t="s">
         <v>1686</v>
@@ -13333,7 +13333,7 @@
         <v>1689</v>
       </c>
       <c r="D347" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E347" t="s">
         <v>1687</v>
@@ -13354,7 +13354,7 @@
         <v>1688</v>
       </c>
       <c r="D348" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E348" t="s">
         <v>1690</v>
@@ -13375,7 +13375,7 @@
         <v>1691</v>
       </c>
       <c r="D349" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E349" t="s">
         <v>1692</v>
@@ -13396,7 +13396,7 @@
         <v>1693</v>
       </c>
       <c r="D350" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="E350" t="s">
         <v>1694</v>
@@ -13417,7 +13417,7 @@
         <v>1695</v>
       </c>
       <c r="D351" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E351" t="s">
         <v>1696</v>
@@ -13438,7 +13438,7 @@
         <v>1697</v>
       </c>
       <c r="D352" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E352" t="s">
         <v>1698</v>
@@ -13459,7 +13459,7 @@
         <v>1699</v>
       </c>
       <c r="D353" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E353" t="s">
         <v>1700</v>
@@ -13480,7 +13480,7 @@
         <v>1701</v>
       </c>
       <c r="D354" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E354" t="s">
         <v>1702</v>
@@ -13984,7 +13984,7 @@
         <v>1612</v>
       </c>
       <c r="D378" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="E378" t="s">
         <v>1613</v>
@@ -14509,7 +14509,7 @@
         <v>1582</v>
       </c>
       <c r="D403" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="E403" t="s">
         <v>1776</v>
@@ -14971,7 +14971,7 @@
         <v>1631</v>
       </c>
       <c r="D425" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E425" t="s">
         <v>1008</v>
@@ -14992,7 +14992,7 @@
         <v>1632</v>
       </c>
       <c r="D426" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E426" t="s">
         <v>1009</v>
@@ -15013,7 +15013,7 @@
         <v>1633</v>
       </c>
       <c r="D427" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E427" t="s">
         <v>1010</v>
@@ -15097,7 +15097,7 @@
         <v>1480</v>
       </c>
       <c r="D431" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E431" t="s">
         <v>1611</v>
@@ -15874,7 +15874,7 @@
         <v>1718</v>
       </c>
       <c r="D468" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E468" s="5" t="s">
         <v>1717</v>
